--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
+          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-02 08:54</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300587,1241810032.html</t>
+          <t>/news,300587,1242335086.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天铁股份11月01日获深股通增持146.09万股</t>
+          <t>天铁股份11月02日被深股通减持70.02万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-02 07:50</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300587,1241801272.html</t>
+          <t>/news,300587,1242326326.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
+          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-02 08:54</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300587,1241306996.html</t>
+          <t>/news,300587,1241810032.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天铁股份10月31日被深股通减持85.73万股</t>
+          <t>天铁股份11月01日获深股通增持146.09万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 07:50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300587,1241296433.html</t>
+          <t>/news,300587,1241801272.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
+          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,51 +605,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10-31 09:05</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300587,1240799120.html</t>
+          <t>/news,300587,1241306996.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
+          <t>天铁股份10月31日被深股通减持85.73万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10-30 17:06</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300587,1240728156.html</t>
+          <t>/news,300587,1241296433.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,93 +659,93 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10-30 15:05</t>
+          <t>10-31 09:05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300587,1240711829.html</t>
+          <t>/news,300587,1240799120.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>732</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
+          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 17:06</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300587,1240706844.html</t>
+          <t>/news,300587,1240728156.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天铁股份10月28日被深股通减持67.49万股</t>
+          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 15:05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300587,1240599842.html</t>
+          <t>/news,300587,1240711829.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,39 +755,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
+          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-28 09:13</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300587,1240062748.html</t>
+          <t>/news,300587,1240706844.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天铁股份10月27日被深股通减持13.22万股</t>
+          <t>天铁股份10月28日被深股通减持67.49万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300587,1240048400.html</t>
+          <t>/news,300587,1240599842.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
+          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-27 08:58</t>
+          <t>10-28 09:13</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300587,1239507542.html</t>
+          <t>/news,300587,1240062748.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天铁股份10月26日获深股通增持106.73万股</t>
+          <t>天铁股份10月27日被深股通减持13.22万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-27 07:56</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300587,1239498479.html</t>
+          <t>/news,300587,1240048400.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,39 +883,39 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
+          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-26 18:35</t>
+          <t>10-27 08:58</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300587,1239380764.html</t>
+          <t>/news,300587,1239507542.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
+          <t>天铁股份10月26日获深股通增持106.73万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,61 +925,61 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-26 17:37</t>
+          <t>10-27 07:56</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300587,1239367913.html</t>
+          <t>/news,300587,1239498479.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天铁股份第三季度净利润增长8%</t>
+          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-26 10:29</t>
+          <t>10-26 18:35</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300587,1239102506.html</t>
+          <t>/news,300587,1239380764.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
+          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-26 08:53</t>
+          <t>10-26 17:37</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300587,1238978851.html</t>
+          <t>/news,300587,1239367913.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天铁股份10月25日被深股通减持33.32万股</t>
+          <t>天铁股份第三季度净利润增长8%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-26 07:49</t>
+          <t>10-26 10:29</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300587,1238968622.html</t>
+          <t>/news,300587,1239102506.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
+          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-25 21:18</t>
+          <t>10-26 08:53</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300587,1238893659.html</t>
+          <t>/news,300587,1238978851.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
+          <t>天铁股份10月25日被深股通减持33.32万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-25 20:02</t>
+          <t>10-26 07:49</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300587,1238880385.html</t>
+          <t>/news,300587,1238968622.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
+          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-25 18:13</t>
+          <t>10-25 21:18</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300587,1238841617.html</t>
+          <t>/news,300587,1238893659.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
+          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-25 17:03</t>
+          <t>10-25 20:02</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300587,1238822064.html</t>
+          <t>/news,300587,1238880385.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,39 +1171,39 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
+          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-25 17:00</t>
+          <t>10-25 18:13</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300587,1238818458.html</t>
+          <t>/news,300587,1238841617.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>475</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
+          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-25 08:59</t>
+          <t>10-25 17:03</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300587,1238459878.html</t>
+          <t>/news,300587,1238822064.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>660</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,71 +1235,71 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天铁股份10月24日被深股通减持25.39万股</t>
+          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-25 07:50</t>
+          <t>10-25 17:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300587,1238448360.html</t>
+          <t>/news,300587,1238818458.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
+          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-25 08:59</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300587,1237859666.html</t>
+          <t>/news,300587,1238459878.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天铁股份10月21日获深股通增持51.45万股</t>
+          <t>天铁股份10月24日被深股通减持25.39万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 07:50</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300587,1237796589.html</t>
+          <t>/news,300587,1238448360.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,39 +1331,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天铁股份10月20日被深股通减持13.78万股</t>
+          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-21 07:52</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300587,1237348780.html</t>
+          <t>/news,300587,1237859666.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天铁股份10月19日被深股通减持55.85万股</t>
+          <t>天铁股份10月21日获深股通增持51.45万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-20 07:53</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300587,1236889697.html</t>
+          <t>/news,300587,1237796589.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天铁股份10月17日获深股通增持58.05万股</t>
+          <t>天铁股份10月20日被深股通减持13.78万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-21 07:52</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300587,1236041360.html</t>
+          <t>/news,300587,1237348780.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
+          <t>天铁股份10月19日被深股通减持55.85万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-20 07:53</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300587,1235575452.html</t>
+          <t>/news,300587,1236889697.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天铁股份10月14日获深股通增持81.14万股</t>
+          <t>天铁股份10月17日获深股通增持58.05万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-15 07:57</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300587,1235512570.html</t>
+          <t>/news,300587,1236041360.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天铁股份10月13日被深股通减持32.4万股</t>
+          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-14 07:56</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300587,1235083260.html</t>
+          <t>/news,300587,1235575452.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
+          <t>天铁股份10月14日获深股通增持81.14万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-13 20:33</t>
+          <t>10-15 07:57</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300587,1234996435.html</t>
+          <t>/news,300587,1235512570.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天铁股份10月12日被深股通减持13.49万股</t>
+          <t>天铁股份10月13日被深股通减持32.4万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-13 07:51</t>
+          <t>10-14 07:56</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300587,1234645891.html</t>
+          <t>/news,300587,1235083260.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天铁股份10月11日获深股通增持19.18万股</t>
+          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,61 +1597,61 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-12 07:53</t>
+          <t>10-13 20:33</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300587,1234213360.html</t>
+          <t>/news,300587,1234996435.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
+          <t>天铁股份10月12日被深股通减持13.49万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-11 17:51</t>
+          <t>10-13 07:51</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300587,1234106982.html</t>
+          <t>/news,300587,1234645891.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
+          <t>天铁股份10月11日获深股通增持19.18万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,51 +1661,51 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-11 11:42</t>
+          <t>10-12 07:53</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300587,1233980598.html</t>
+          <t>/news,300587,1234213360.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>694</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天铁股份10月10日被深股通减持1.52万股</t>
+          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-11 07:46</t>
+          <t>10-11 17:51</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300587,1233836058.html</t>
+          <t>/news,300587,1234106982.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
+          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-10 16:58</t>
+          <t>10-11 11:42</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300587,1233707709.html</t>
+          <t>/news,300587,1233980598.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天铁股份：签署2900万元温州市域铁路二号线项目合同</t>
+          <t>天铁股份10月10日被深股通减持1.52万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-09 21:12</t>
+          <t>10-11 07:46</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300587,1233352991.html</t>
+          <t>/news,300587,1233836058.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天铁股份：与温州市域铁路二号线项目有限公司签署《合同文件》</t>
+          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-09 16:43</t>
+          <t>10-10 16:58</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300587,1233331178.html</t>
+          <t>/news,300587,1233707709.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,39 +1811,39 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少1680.19万元，居橡胶制品板块第三</t>
+          <t>天铁股份：签署2900万元温州市域铁路二号线项目合同</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-09 14:05</t>
+          <t>10-09 21:12</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300587,1233316782.html</t>
+          <t>/news,300587,1233352991.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>473</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天铁股份：签订3148万元橡胶浮置板销售合同</t>
+          <t>天铁股份：与温州市域铁路二号线项目有限公司签署《合同文件》</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09-30 20:06</t>
+          <t>10-09 16:43</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300587,1232873600.html</t>
+          <t>/news,300587,1233331178.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,39 +1875,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天铁股份：签署3148.47万元橡胶浮置板采购合同</t>
+          <t>天铁股份本周深股通持股市值减少1680.19万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09-30 18:32</t>
+          <t>10-09 14:05</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300587,1232863060.html</t>
+          <t>/news,300587,1233316782.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>533</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天铁股份：签订3148万元橡胶浮置板采购合同</t>
+          <t>天铁股份：签订3148万元橡胶浮置板销售合同</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09-30 18:15</t>
+          <t>09-30 20:06</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300587,1232854497.html</t>
+          <t>/news,300587,1232873600.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天铁股份：签订《橡胶浮置板采购合同》 合同金额约3148万元</t>
+          <t>天铁股份：签署3148.47万元橡胶浮置板采购合同</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09-30 18:05</t>
+          <t>09-30 18:32</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300587,1232853670.html</t>
+          <t>/news,300587,1232863060.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>815</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天铁股份09月29日获深股通增持34.44万股</t>
+          <t>天铁股份：签订3148万元橡胶浮置板采购合同</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09-30 07:47</t>
+          <t>09-30 18:15</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300587,1232535590.html</t>
+          <t>/news,300587,1232854497.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天铁股份09月28日被深股通减持163.06万股</t>
+          <t>天铁股份：签订《橡胶浮置板采购合同》 合同金额约3148万元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09-29 08:06</t>
+          <t>09-30 18:05</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300587,1232090171.html</t>
+          <t>/news,300587,1232853670.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>917</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天铁股份：定增募资25.41亿元申请获深交所受理</t>
+          <t>天铁股份09月29日获深股通增持34.44万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09-29 08:02</t>
+          <t>09-30 07:47</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300587,1232089622.html</t>
+          <t>/news,300587,1232535590.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>大宗交易：天铁股份成交825.51万元，折价13.38%（09-28）</t>
+          <t>天铁股份09月28日被深股通减持163.06万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09-28 18:00</t>
+          <t>09-29 08:06</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300587,1231976573.html</t>
+          <t>/news,300587,1232090171.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>918</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天铁股份09月27日获深股通增持27.97万股</t>
+          <t>天铁股份：定增募资25.41亿元申请获深交所受理</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-28 07:55</t>
+          <t>09-29 08:02</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300587,1231638163.html</t>
+          <t>/news,300587,1232089622.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天铁股份09月26日获深股通增持20.09万股</t>
+          <t>大宗交易：天铁股份成交825.51万元，折价13.38%（09-28）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,51 +2141,51 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-27 07:56</t>
+          <t>09-28 18:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300587,1231248389.html</t>
+          <t>/news,300587,1231976573.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加1123.11万元，居橡胶制品板块第四</t>
+          <t>天铁股份09月27日获深股通增持27.97万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-25 14:05</t>
+          <t>09-28 07:55</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300587,1230722829.html</t>
+          <t>/news,300587,1231638163.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天铁股份09月23日被深股通减持31.3万股</t>
+          <t>天铁股份09月26日获深股通增持20.09万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,61 +2205,61 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-24 07:55</t>
+          <t>09-27 07:56</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300587,1230641459.html</t>
+          <t>/news,300587,1231248389.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>未就相关借款事项履行审议程序和信披义务 天铁股份收监管函</t>
+          <t>天铁股份本周深股通持股市值增加1123.11万元，居橡胶制品板块第四</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-23 21:02</t>
+          <t>09-25 14:05</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300587,1230598079.html</t>
+          <t>/news,300587,1230722829.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>深交所向浙江天铁实业股份有限公司发出监管函</t>
+          <t>天铁股份09月23日被深股通减持31.3万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-23 16:42</t>
+          <t>09-24 07:55</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300587,1230548611.html</t>
+          <t>/news,300587,1230641459.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天铁股份09月22日获深股通增持10.73万股</t>
+          <t>未就相关借款事项履行审议程序和信披义务 天铁股份收监管函</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-23 07:49</t>
+          <t>09-23 21:02</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300587,1230234025.html</t>
+          <t>/news,300587,1230598079.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>801</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天铁股份09月21日被深股通减持97.43万股</t>
+          <t>深交所向浙江天铁实业股份有限公司发出监管函</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-22 07:58</t>
+          <t>09-23 16:42</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300587,1229811963.html</t>
+          <t>/news,300587,1230548611.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天铁股份09月20日获深股通增持45.47万股</t>
+          <t>天铁股份09月22日获深股通增持10.73万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,51 +2365,51 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-21 07:39</t>
+          <t>09-23 07:49</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300587,1229380978.html</t>
+          <t>/news,300587,1230234025.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少1386.89万元，居橡胶制品板块第二</t>
+          <t>天铁股份09月21日被深股通减持97.43万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-18 14:04</t>
+          <t>09-22 07:58</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300587,1228440788.html</t>
+          <t>/news,300587,1229811963.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天铁股份09月16日获深股通增持153.72万股</t>
+          <t>天铁股份09月20日获深股通增持45.47万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,61 +2429,61 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-17 09:03</t>
+          <t>09-21 07:39</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300587,1228363793.html</t>
+          <t>/news,300587,1229380978.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天铁股份09月15日被深股通减持62.16万股</t>
+          <t>天铁股份本周深股通持股市值减少1386.89万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-16 07:55</t>
+          <t>09-18 14:04</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300587,1227924159.html</t>
+          <t>/news,300587,1228440788.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天铁股份09月14日被深股通减持111.72万股</t>
+          <t>天铁股份09月16日获深股通增持153.72万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-15 08:13</t>
+          <t>09-17 09:03</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300587,1227431408.html</t>
+          <t>/news,300587,1228363793.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天铁股份：实控人新增质押4396.35万股公司股份</t>
+          <t>天铁股份09月15日被深股通减持62.16万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-14 22:53</t>
+          <t>09-16 07:55</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300587,1227405340.html</t>
+          <t>/news,300587,1227924159.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天铁股份：控股股东、实际控制人许吉锭质押约4396万股</t>
+          <t>天铁股份09月14日被深股通减持111.72万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,61 +2557,61 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-14 17:59</t>
+          <t>09-15 08:13</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300587,1227353074.html</t>
+          <t>/news,300587,1227431408.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>507</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少2918.42万元，居橡胶制品板块第一</t>
+          <t>天铁股份：实控人新增质押4396.35万股公司股份</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-12 14:04</t>
+          <t>09-14 22:53</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300587,1226593127.html</t>
+          <t>/news,300587,1227405340.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>1006</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天铁股份09月09日被深股通减持125.75万股</t>
+          <t>天铁股份：控股股东、实际控制人许吉锭质押约4396万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,61 +2621,61 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-10 08:18</t>
+          <t>09-14 17:59</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300587,1226487541.html</t>
+          <t>/news,300587,1227353074.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天铁股份09月08日被深股通减持137.76万股</t>
+          <t>天铁股份本周深股通持股市值减少2918.42万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-09 08:12</t>
+          <t>09-12 14:04</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300587,1226100823.html</t>
+          <t>/news,300587,1226593127.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>734</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天铁股份09月07日被深股通减持198.07万股</t>
+          <t>天铁股份09月09日被深股通减持125.75万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-08 08:15</t>
+          <t>09-10 08:18</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300587,1225665506.html</t>
+          <t>/news,300587,1226487541.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天铁股份09月06日被深股通减持80.24万股</t>
+          <t>天铁股份09月08日被深股通减持137.76万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-07 08:09</t>
+          <t>09-09 08:12</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300587,1225227783.html</t>
+          <t>/news,300587,1226100823.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天铁股份09月05日获深股通增持294.48万股</t>
+          <t>天铁股份09月07日被深股通减持198.07万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-06 08:26</t>
+          <t>09-08 08:15</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300587,1224818512.html</t>
+          <t>/news,300587,1225665506.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天铁股份子公司签署2640万元氯化锂销售合同</t>
+          <t>天铁股份09月06日被深股通减持80.24万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-05 12:29</t>
+          <t>09-07 08:09</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300587,1224599549.html</t>
+          <t>/news,300587,1225227783.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>498</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天铁股份：子公司签订2640万元氯化锂供应合同</t>
+          <t>天铁股份09月05日获深股通增持294.48万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-04 16:33</t>
+          <t>09-06 08:26</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300587,1224373174.html</t>
+          <t>/news,300587,1224818512.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>897</t>
+          <t>575</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天铁股份：全资子公司签订重大合同</t>
+          <t>天铁股份子公司签署2640万元氯化锂销售合同</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-04 16:25</t>
+          <t>09-05 12:29</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300587,1224371944.html</t>
+          <t>/news,300587,1224599549.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,39 +2867,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加495.29万元，居橡胶制品板块第五</t>
+          <t>天铁股份：子公司签订2640万元氯化锂供应合同</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-04 14:03</t>
+          <t>09-04 16:33</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300587,1224360386.html</t>
+          <t>/news,300587,1224373174.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>897</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天铁股份09月02日被深股通减持37.76万股</t>
+          <t>天铁股份：全资子公司签订重大合同</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-03 07:42</t>
+          <t>09-04 16:25</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300587,1224285310.html</t>
+          <t>/news,300587,1224371944.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天铁股份09月01日被深股通减持38.39万股</t>
+          <t>天铁股份本周深股通持股市值增加495.29万元，居橡胶制品板块第五</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-02 08:24</t>
+          <t>09-04 14:03</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300587,1223893926.html</t>
+          <t>/news,300587,1224360386.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天铁股份08月31日获深股通增持222万股</t>
+          <t>天铁股份09月02日被深股通减持37.76万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-01 07:41</t>
+          <t>09-03 07:42</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300587,1223447865.html</t>
+          <t>/news,300587,1224285310.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天铁股份08月30日被深股通减持55.18万股</t>
+          <t>天铁股份09月01日被深股通减持38.39万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-31 07:52</t>
+          <t>09-02 08:24</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300587,1222965733.html</t>
+          <t>/news,300587,1223893926.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>97</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
+          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-04 08:54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300587,1242335086.html</t>
+          <t>/news,300587,1242827088.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>100</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天铁股份11月02日被深股通减持70.02万股</t>
+          <t>天铁股份11月03日获深股通增持170.86万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300587,1242326326.html</t>
+          <t>/news,300587,1242816603.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
+          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-02 08:54</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300587,1241810032.html</t>
+          <t>/news,300587,1242335086.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天铁股份11月01日获深股通增持146.09万股</t>
+          <t>天铁股份11月02日被深股通减持70.02万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-02 07:50</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300587,1241801272.html</t>
+          <t>/news,300587,1242326326.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
+          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-02 08:54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300587,1241306996.html</t>
+          <t>/news,300587,1241810032.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天铁股份10月31日被深股通减持85.73万股</t>
+          <t>天铁股份11月01日获深股通增持146.09万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 07:50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300587,1241296433.html</t>
+          <t>/news,300587,1241801272.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
+          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,51 +669,51 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10-31 09:05</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300587,1240799120.html</t>
+          <t>/news,300587,1241306996.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
+          <t>天铁股份10月31日被深股通减持85.73万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10-30 17:06</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300587,1240728156.html</t>
+          <t>/news,300587,1241296433.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,93 +723,93 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-30 15:05</t>
+          <t>10-31 09:05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300587,1240711829.html</t>
+          <t>/news,300587,1240799120.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>753</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
+          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 17:06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300587,1240706844.html</t>
+          <t>/news,300587,1240728156.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天铁股份10月28日被深股通减持67.49万股</t>
+          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 15:05</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300587,1240599842.html</t>
+          <t>/news,300587,1240711829.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,39 +819,39 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
+          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-28 09:13</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300587,1240062748.html</t>
+          <t>/news,300587,1240706844.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天铁股份10月27日被深股通减持13.22万股</t>
+          <t>天铁股份10月28日被深股通减持67.49万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300587,1240048400.html</t>
+          <t>/news,300587,1240599842.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
+          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-27 08:58</t>
+          <t>10-28 09:13</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300587,1239507542.html</t>
+          <t>/news,300587,1240062748.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天铁股份10月26日获深股通增持106.73万股</t>
+          <t>天铁股份10月27日被深股通减持13.22万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-27 07:56</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300587,1239498479.html</t>
+          <t>/news,300587,1240048400.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,39 +947,39 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
+          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-26 18:35</t>
+          <t>10-27 08:58</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300587,1239380764.html</t>
+          <t>/news,300587,1239507542.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
+          <t>天铁股份10月26日获深股通增持106.73万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,61 +989,61 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-26 17:37</t>
+          <t>10-27 07:56</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300587,1239367913.html</t>
+          <t>/news,300587,1239498479.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天铁股份第三季度净利润增长8%</t>
+          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-26 10:29</t>
+          <t>10-26 18:35</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300587,1239102506.html</t>
+          <t>/news,300587,1239380764.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
+          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-26 08:53</t>
+          <t>10-26 17:37</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300587,1238978851.html</t>
+          <t>/news,300587,1239367913.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天铁股份10月25日被深股通减持33.32万股</t>
+          <t>天铁股份第三季度净利润增长8%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-26 07:49</t>
+          <t>10-26 10:29</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300587,1238968622.html</t>
+          <t>/news,300587,1239102506.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
+          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-25 21:18</t>
+          <t>10-26 08:53</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300587,1238893659.html</t>
+          <t>/news,300587,1238978851.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
+          <t>天铁股份10月25日被深股通减持33.32万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-25 20:02</t>
+          <t>10-26 07:49</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300587,1238880385.html</t>
+          <t>/news,300587,1238968622.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
+          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-25 18:13</t>
+          <t>10-25 21:18</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300587,1238841617.html</t>
+          <t>/news,300587,1238893659.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
+          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-25 17:03</t>
+          <t>10-25 20:02</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300587,1238822064.html</t>
+          <t>/news,300587,1238880385.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,39 +1235,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
+          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-25 17:00</t>
+          <t>10-25 18:13</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300587,1238818458.html</t>
+          <t>/news,300587,1238841617.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>476</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
+          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-25 08:59</t>
+          <t>10-25 17:03</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300587,1238459878.html</t>
+          <t>/news,300587,1238822064.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>661</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,71 +1299,71 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天铁股份10月24日被深股通减持25.39万股</t>
+          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-25 07:50</t>
+          <t>10-25 17:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300587,1238448360.html</t>
+          <t>/news,300587,1238818458.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
+          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-25 08:59</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300587,1237859666.html</t>
+          <t>/news,300587,1238459878.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天铁股份10月21日获深股通增持51.45万股</t>
+          <t>天铁股份10月24日被深股通减持25.39万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 07:50</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300587,1237796589.html</t>
+          <t>/news,300587,1238448360.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,39 +1395,39 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天铁股份10月20日被深股通减持13.78万股</t>
+          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-21 07:52</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300587,1237348780.html</t>
+          <t>/news,300587,1237859666.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天铁股份10月19日被深股通减持55.85万股</t>
+          <t>天铁股份10月21日获深股通增持51.45万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-20 07:53</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300587,1236889697.html</t>
+          <t>/news,300587,1237796589.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天铁股份10月17日获深股通增持58.05万股</t>
+          <t>天铁股份10月20日被深股通减持13.78万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-21 07:52</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300587,1236041360.html</t>
+          <t>/news,300587,1237348780.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
+          <t>天铁股份10月19日被深股通减持55.85万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-20 07:53</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300587,1235575452.html</t>
+          <t>/news,300587,1236889697.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天铁股份10月14日获深股通增持81.14万股</t>
+          <t>天铁股份10月17日获深股通增持58.05万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-15 07:57</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300587,1235512570.html</t>
+          <t>/news,300587,1236041360.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天铁股份10月13日被深股通减持32.4万股</t>
+          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-14 07:56</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300587,1235083260.html</t>
+          <t>/news,300587,1235575452.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
+          <t>天铁股份10月14日获深股通增持81.14万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-13 20:33</t>
+          <t>10-15 07:57</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300587,1234996435.html</t>
+          <t>/news,300587,1235512570.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天铁股份10月12日被深股通减持13.49万股</t>
+          <t>天铁股份10月13日被深股通减持32.4万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-13 07:51</t>
+          <t>10-14 07:56</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300587,1234645891.html</t>
+          <t>/news,300587,1235083260.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天铁股份10月11日获深股通增持19.18万股</t>
+          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,61 +1661,61 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-12 07:53</t>
+          <t>10-13 20:33</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300587,1234213360.html</t>
+          <t>/news,300587,1234996435.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
+          <t>天铁股份10月12日被深股通减持13.49万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-11 17:51</t>
+          <t>10-13 07:51</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300587,1234106982.html</t>
+          <t>/news,300587,1234645891.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
+          <t>天铁股份10月11日获深股通增持19.18万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,51 +1725,51 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-11 11:42</t>
+          <t>10-12 07:53</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300587,1233980598.html</t>
+          <t>/news,300587,1234213360.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>694</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天铁股份10月10日被深股通减持1.52万股</t>
+          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-11 07:46</t>
+          <t>10-11 17:51</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300587,1233836058.html</t>
+          <t>/news,300587,1234106982.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
+          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-10 16:58</t>
+          <t>10-11 11:42</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300587,1233707709.html</t>
+          <t>/news,300587,1233980598.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天铁股份：签署2900万元温州市域铁路二号线项目合同</t>
+          <t>天铁股份10月10日被深股通减持1.52万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-09 21:12</t>
+          <t>10-11 07:46</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300587,1233352991.html</t>
+          <t>/news,300587,1233836058.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天铁股份：与温州市域铁路二号线项目有限公司签署《合同文件》</t>
+          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-09 16:43</t>
+          <t>10-10 16:58</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300587,1233331178.html</t>
+          <t>/news,300587,1233707709.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,39 +1875,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少1680.19万元，居橡胶制品板块第三</t>
+          <t>天铁股份：签署2900万元温州市域铁路二号线项目合同</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-09 14:05</t>
+          <t>10-09 21:12</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300587,1233316782.html</t>
+          <t>/news,300587,1233352991.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>474</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天铁股份：签订3148万元橡胶浮置板销售合同</t>
+          <t>天铁股份：与温州市域铁路二号线项目有限公司签署《合同文件》</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09-30 20:06</t>
+          <t>10-09 16:43</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300587,1232873600.html</t>
+          <t>/news,300587,1233331178.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,39 +1939,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天铁股份：签署3148.47万元橡胶浮置板采购合同</t>
+          <t>天铁股份本周深股通持股市值减少1680.19万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09-30 18:32</t>
+          <t>10-09 14:05</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300587,1232863060.html</t>
+          <t>/news,300587,1233316782.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>533</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天铁股份：签订3148万元橡胶浮置板采购合同</t>
+          <t>天铁股份：签订3148万元橡胶浮置板销售合同</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09-30 18:15</t>
+          <t>09-30 20:06</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300587,1232854497.html</t>
+          <t>/news,300587,1232873600.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天铁股份：签订《橡胶浮置板采购合同》 合同金额约3148万元</t>
+          <t>天铁股份：签署3148.47万元橡胶浮置板采购合同</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09-30 18:05</t>
+          <t>09-30 18:32</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300587,1232853670.html</t>
+          <t>/news,300587,1232863060.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>811</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天铁股份09月29日获深股通增持34.44万股</t>
+          <t>天铁股份：签订3148万元橡胶浮置板采购合同</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09-30 07:47</t>
+          <t>09-30 18:15</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300587,1232535590.html</t>
+          <t>/news,300587,1232854497.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天铁股份09月28日被深股通减持163.06万股</t>
+          <t>天铁股份：签订《橡胶浮置板采购合同》 合同金额约3148万元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09-29 08:06</t>
+          <t>09-30 18:05</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300587,1232090171.html</t>
+          <t>/news,300587,1232853670.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>918</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天铁股份：定增募资25.41亿元申请获深交所受理</t>
+          <t>天铁股份09月29日获深股通增持34.44万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-29 08:02</t>
+          <t>09-30 07:47</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300587,1232089622.html</t>
+          <t>/news,300587,1232535590.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>大宗交易：天铁股份成交825.51万元，折价13.38%（09-28）</t>
+          <t>天铁股份09月28日被深股通减持163.06万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-28 18:00</t>
+          <t>09-29 08:06</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300587,1231976573.html</t>
+          <t>/news,300587,1232090171.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>921</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天铁股份09月27日获深股通增持27.97万股</t>
+          <t>天铁股份：定增募资25.41亿元申请获深交所受理</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-28 07:55</t>
+          <t>09-29 08:02</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300587,1231638163.html</t>
+          <t>/news,300587,1232089622.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天铁股份09月26日获深股通增持20.09万股</t>
+          <t>大宗交易：天铁股份成交825.51万元，折价13.38%（09-28）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,51 +2205,51 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-27 07:56</t>
+          <t>09-28 18:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300587,1231248389.html</t>
+          <t>/news,300587,1231976573.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加1123.11万元，居橡胶制品板块第四</t>
+          <t>天铁股份09月27日获深股通增持27.97万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-25 14:05</t>
+          <t>09-28 07:55</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300587,1230722829.html</t>
+          <t>/news,300587,1231638163.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天铁股份09月23日被深股通减持31.3万股</t>
+          <t>天铁股份09月26日获深股通增持20.09万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,61 +2269,61 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-24 07:55</t>
+          <t>09-27 07:56</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300587,1230641459.html</t>
+          <t>/news,300587,1231248389.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>未就相关借款事项履行审议程序和信披义务 天铁股份收监管函</t>
+          <t>天铁股份本周深股通持股市值增加1123.11万元，居橡胶制品板块第四</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-23 21:02</t>
+          <t>09-25 14:05</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300587,1230598079.html</t>
+          <t>/news,300587,1230722829.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>深交所向浙江天铁实业股份有限公司发出监管函</t>
+          <t>天铁股份09月23日被深股通减持31.3万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-23 16:42</t>
+          <t>09-24 07:55</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300587,1230548611.html</t>
+          <t>/news,300587,1230641459.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>528</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天铁股份09月22日获深股通增持10.73万股</t>
+          <t>未就相关借款事项履行审议程序和信披义务 天铁股份收监管函</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-23 07:49</t>
+          <t>09-23 21:02</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300587,1230234025.html</t>
+          <t>/news,300587,1230598079.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>802</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天铁股份09月21日被深股通减持97.43万股</t>
+          <t>深交所向浙江天铁实业股份有限公司发出监管函</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-22 07:58</t>
+          <t>09-23 16:42</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300587,1229811963.html</t>
+          <t>/news,300587,1230548611.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天铁股份09月20日获深股通增持45.47万股</t>
+          <t>天铁股份09月22日获深股通增持10.73万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,51 +2429,51 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-21 07:39</t>
+          <t>09-23 07:49</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300587,1229380978.html</t>
+          <t>/news,300587,1230234025.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少1386.89万元，居橡胶制品板块第二</t>
+          <t>天铁股份09月21日被深股通减持97.43万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-18 14:04</t>
+          <t>09-22 07:58</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300587,1228440788.html</t>
+          <t>/news,300587,1229811963.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天铁股份09月16日获深股通增持153.72万股</t>
+          <t>天铁股份09月20日获深股通增持45.47万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,61 +2493,61 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-17 09:03</t>
+          <t>09-21 07:39</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300587,1228363793.html</t>
+          <t>/news,300587,1229380978.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天铁股份09月15日被深股通减持62.16万股</t>
+          <t>天铁股份本周深股通持股市值减少1386.89万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-16 07:55</t>
+          <t>09-18 14:04</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300587,1227924159.html</t>
+          <t>/news,300587,1228440788.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天铁股份09月14日被深股通减持111.72万股</t>
+          <t>天铁股份09月16日获深股通增持153.72万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-15 08:13</t>
+          <t>09-17 09:03</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300587,1227431408.html</t>
+          <t>/news,300587,1228363793.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天铁股份：实控人新增质押4396.35万股公司股份</t>
+          <t>天铁股份09月15日被深股通减持62.16万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-14 22:53</t>
+          <t>09-16 07:55</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300587,1227405340.html</t>
+          <t>/news,300587,1227924159.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1006</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天铁股份：控股股东、实际控制人许吉锭质押约4396万股</t>
+          <t>天铁股份09月14日被深股通减持111.72万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,61 +2621,61 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-14 17:59</t>
+          <t>09-15 08:13</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300587,1227353074.html</t>
+          <t>/news,300587,1227431408.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少2918.42万元，居橡胶制品板块第一</t>
+          <t>天铁股份：实控人新增质押4396.35万股公司股份</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-12 14:04</t>
+          <t>09-14 22:53</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300587,1226593127.html</t>
+          <t>/news,300587,1227405340.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>1006</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天铁股份09月09日被深股通减持125.75万股</t>
+          <t>天铁股份：控股股东、实际控制人许吉锭质押约4396万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,61 +2685,61 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-10 08:18</t>
+          <t>09-14 17:59</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300587,1226487541.html</t>
+          <t>/news,300587,1227353074.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天铁股份09月08日被深股通减持137.76万股</t>
+          <t>天铁股份本周深股通持股市值减少2918.42万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-09 08:12</t>
+          <t>09-12 14:04</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300587,1226100823.html</t>
+          <t>/news,300587,1226593127.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>734</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天铁股份09月07日被深股通减持198.07万股</t>
+          <t>天铁股份09月09日被深股通减持125.75万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-08 08:15</t>
+          <t>09-10 08:18</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300587,1225665506.html</t>
+          <t>/news,300587,1226487541.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天铁股份09月06日被深股通减持80.24万股</t>
+          <t>天铁股份09月08日被深股通减持137.76万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-07 08:09</t>
+          <t>09-09 08:12</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300587,1225227783.html</t>
+          <t>/news,300587,1226100823.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天铁股份09月05日获深股通增持294.48万股</t>
+          <t>天铁股份09月07日被深股通减持198.07万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-06 08:26</t>
+          <t>09-08 08:15</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300587,1224818512.html</t>
+          <t>/news,300587,1225665506.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天铁股份子公司签署2640万元氯化锂销售合同</t>
+          <t>天铁股份09月06日被深股通减持80.24万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-05 12:29</t>
+          <t>09-07 08:09</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300587,1224599549.html</t>
+          <t>/news,300587,1225227783.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>498</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天铁股份：子公司签订2640万元氯化锂供应合同</t>
+          <t>天铁股份09月05日获深股通增持294.48万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-04 16:33</t>
+          <t>09-06 08:26</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300587,1224373174.html</t>
+          <t>/news,300587,1224818512.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>897</t>
+          <t>575</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天铁股份：全资子公司签订重大合同</t>
+          <t>天铁股份子公司签署2640万元氯化锂销售合同</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-04 16:25</t>
+          <t>09-05 12:29</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300587,1224371944.html</t>
+          <t>/news,300587,1224599549.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,39 +2931,39 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加495.29万元，居橡胶制品板块第五</t>
+          <t>天铁股份：子公司签订2640万元氯化锂供应合同</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-04 14:03</t>
+          <t>09-04 16:33</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300587,1224360386.html</t>
+          <t>/news,300587,1224373174.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>896</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天铁股份09月02日被深股通减持37.76万股</t>
+          <t>天铁股份：全资子公司签订重大合同</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-03 07:42</t>
+          <t>09-04 16:25</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300587,1224285310.html</t>
+          <t>/news,300587,1224371944.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天铁股份09月01日被深股通减持38.39万股</t>
+          <t>天铁股份本周深股通持股市值增加495.29万元，居橡胶制品板块第五</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-02 08:24</t>
+          <t>09-04 14:03</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300587,1223893926.html</t>
+          <t>/news,300587,1224360386.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
+          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,51 +477,51 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-04 08:54</t>
+          <t>11-07 08:51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300587,1242827088.html</t>
+          <t>/news,300587,1243514018.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天铁股份11月03日获深股通增持170.86万股</t>
+          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-06 20:21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300587,1242816603.html</t>
+          <t>/news,300587,1243448935.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,71 +531,71 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
+          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300587,1242335086.html</t>
+          <t>/news,300587,1243409809.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天铁股份11月02日被深股通减持70.02万股</t>
+          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300587,1242326326.html</t>
+          <t>/news,300587,1243404037.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>572</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
+          <t>天铁股份11月04日获深股通增持52.8万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-02 08:54</t>
+          <t>11-05 08:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300587,1241810032.html</t>
+          <t>/news,300587,1243320258.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天铁股份11月01日获深股通增持146.09万股</t>
+          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-02 07:50</t>
+          <t>11-04 08:54</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300587,1241801272.html</t>
+          <t>/news,300587,1242827088.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
+          <t>天铁股份11月03日获深股通增持170.86万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300587,1241306996.html</t>
+          <t>/news,300587,1242816603.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天铁股份10月31日被深股通减持85.73万股</t>
+          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300587,1241296433.html</t>
+          <t>/news,300587,1242335086.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
+          <t>天铁股份11月02日被深股通减持70.02万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,51 +733,51 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-31 09:05</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300587,1240799120.html</t>
+          <t>/news,300587,1242326326.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
+          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-30 17:06</t>
+          <t>11-02 08:54</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300587,1240728156.html</t>
+          <t>/news,300587,1241810032.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
+          <t>天铁股份11月01日获深股通增持146.09万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-30 15:05</t>
+          <t>11-02 07:50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300587,1240711829.html</t>
+          <t>/news,300587,1241801272.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,39 +819,39 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
+          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300587,1240706844.html</t>
+          <t>/news,300587,1241306996.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天铁股份10月28日被深股通减持67.49万股</t>
+          <t>天铁股份10月31日被深股通减持85.73万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300587,1240599842.html</t>
+          <t>/news,300587,1241296433.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
+          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,51 +893,51 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-28 09:13</t>
+          <t>10-31 09:05</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300587,1240062748.html</t>
+          <t>/news,300587,1240799120.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>770</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天铁股份10月27日被深股通减持13.22万股</t>
+          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-30 17:06</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300587,1240048400.html</t>
+          <t>/news,300587,1240728156.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,103 +947,103 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
+          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-27 08:58</t>
+          <t>10-30 15:05</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300587,1239507542.html</t>
+          <t>/news,300587,1240711829.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天铁股份10月26日获深股通增持106.73万股</t>
+          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-27 07:56</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300587,1239498479.html</t>
+          <t>/news,300587,1240706844.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
+          <t>天铁股份10月28日被深股通减持67.49万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-26 18:35</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300587,1239380764.html</t>
+          <t>/news,300587,1240599842.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
+          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-26 17:37</t>
+          <t>10-28 09:13</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300587,1239367913.html</t>
+          <t>/news,300587,1240062748.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天铁股份第三季度净利润增长8%</t>
+          <t>天铁股份10月27日被深股通减持13.22万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-26 10:29</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300587,1239102506.html</t>
+          <t>/news,300587,1240048400.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
+          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-26 08:53</t>
+          <t>10-27 08:58</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300587,1238978851.html</t>
+          <t>/news,300587,1239507542.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天铁股份10月25日被深股通减持33.32万股</t>
+          <t>天铁股份10月26日获深股通增持106.73万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,61 +1149,61 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-26 07:49</t>
+          <t>10-27 07:56</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300587,1238968622.html</t>
+          <t>/news,300587,1239498479.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
+          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-25 21:18</t>
+          <t>10-26 18:35</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300587,1238893659.html</t>
+          <t>/news,300587,1239380764.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>695</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
+          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-25 20:02</t>
+          <t>10-26 17:37</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300587,1238880385.html</t>
+          <t>/news,300587,1239367913.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
+          <t>天铁股份第三季度净利润增长8%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-25 18:13</t>
+          <t>10-26 10:29</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300587,1238841617.html</t>
+          <t>/news,300587,1239102506.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
+          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,61 +1277,61 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-25 17:03</t>
+          <t>10-26 08:53</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300587,1238822064.html</t>
+          <t>/news,300587,1238978851.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
+          <t>天铁股份10月25日被深股通减持33.32万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-25 17:00</t>
+          <t>10-26 07:49</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300587,1238818458.html</t>
+          <t>/news,300587,1238968622.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
+          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-25 08:59</t>
+          <t>10-25 21:18</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300587,1238459878.html</t>
+          <t>/news,300587,1238893659.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天铁股份10月24日被深股通减持25.39万股</t>
+          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-25 07:50</t>
+          <t>10-25 20:02</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300587,1238448360.html</t>
+          <t>/news,300587,1238880385.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,39 +1395,39 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
+          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-25 18:13</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300587,1237859666.html</t>
+          <t>/news,300587,1238841617.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>481</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天铁股份10月21日获深股通增持51.45万股</t>
+          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 17:03</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300587,1237796589.html</t>
+          <t>/news,300587,1238822064.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>665</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,39 +1459,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天铁股份10月20日被深股通减持13.78万股</t>
+          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-21 07:52</t>
+          <t>10-25 17:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300587,1237348780.html</t>
+          <t>/news,300587,1238818458.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天铁股份10月19日被深股通减持55.85万股</t>
+          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-20 07:53</t>
+          <t>10-25 08:59</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300587,1236889697.html</t>
+          <t>/news,300587,1238459878.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天铁股份10月17日获深股通增持58.05万股</t>
+          <t>天铁股份10月24日被深股通减持25.39万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-25 07:50</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300587,1236041360.html</t>
+          <t>/news,300587,1238448360.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
+          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300587,1235575452.html</t>
+          <t>/news,300587,1237859666.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天铁股份10月14日获深股通增持81.14万股</t>
+          <t>天铁股份10月21日获深股通增持51.45万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-15 07:57</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300587,1235512570.html</t>
+          <t>/news,300587,1237796589.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天铁股份10月13日被深股通减持32.4万股</t>
+          <t>天铁股份10月20日被深股通减持13.78万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-14 07:56</t>
+          <t>10-21 07:52</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300587,1235083260.html</t>
+          <t>/news,300587,1237348780.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
+          <t>天铁股份10月19日被深股通减持55.85万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-13 20:33</t>
+          <t>10-20 07:53</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300587,1234996435.html</t>
+          <t>/news,300587,1236889697.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天铁股份10月12日被深股通减持13.49万股</t>
+          <t>天铁股份10月17日获深股通增持58.05万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,83 +1693,83 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-13 07:51</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300587,1234645891.html</t>
+          <t>/news,300587,1236041360.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天铁股份10月11日获深股通增持19.18万股</t>
+          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-12 07:53</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300587,1234213360.html</t>
+          <t>/news,300587,1235575452.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
+          <t>天铁股份10月14日获深股通增持81.14万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-11 17:51</t>
+          <t>10-15 07:57</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300587,1234106982.html</t>
+          <t>/news,300587,1235512570.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
+          <t>天铁股份10月13日被深股通减持32.4万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-11 11:42</t>
+          <t>10-14 07:56</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300587,1233980598.html</t>
+          <t>/news,300587,1235083260.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天铁股份10月10日被深股通减持1.52万股</t>
+          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-11 07:46</t>
+          <t>10-13 20:33</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300587,1233836058.html</t>
+          <t>/news,300587,1234996435.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
+          <t>天铁股份10月12日被深股通减持13.49万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-10 16:58</t>
+          <t>10-13 07:51</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300587,1233707709.html</t>
+          <t>/news,300587,1234645891.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天铁股份：签署2900万元温州市域铁路二号线项目合同</t>
+          <t>天铁股份10月11日获深股通增持19.18万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,51 +1885,51 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-09 21:12</t>
+          <t>10-12 07:53</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300587,1233352991.html</t>
+          <t>/news,300587,1234213360.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>695</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天铁股份：与温州市域铁路二号线项目有限公司签署《合同文件》</t>
+          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-09 16:43</t>
+          <t>10-11 17:51</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300587,1233331178.html</t>
+          <t>/news,300587,1234106982.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少1680.19万元，居橡胶制品板块第三</t>
+          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-09 14:05</t>
+          <t>10-11 11:42</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300587,1233316782.html</t>
+          <t>/news,300587,1233980598.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天铁股份：签订3148万元橡胶浮置板销售合同</t>
+          <t>天铁股份10月10日被深股通减持1.52万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09-30 20:06</t>
+          <t>10-11 07:46</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300587,1232873600.html</t>
+          <t>/news,300587,1233836058.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天铁股份：签署3148.47万元橡胶浮置板采购合同</t>
+          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09-30 18:32</t>
+          <t>10-10 16:58</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300587,1232863060.html</t>
+          <t>/news,300587,1233707709.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天铁股份：签订3148万元橡胶浮置板采购合同</t>
+          <t>天铁股份：签署2900万元温州市域铁路二号线项目合同</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09-30 18:15</t>
+          <t>10-09 21:12</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300587,1232854497.html</t>
+          <t>/news,300587,1233352991.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天铁股份：签订《橡胶浮置板采购合同》 合同金额约3148万元</t>
+          <t>天铁股份：与温州市域铁路二号线项目有限公司签署《合同文件》</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09-30 18:05</t>
+          <t>10-09 16:43</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300587,1232853670.html</t>
+          <t>/news,300587,1233331178.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,39 +2099,39 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天铁股份09月29日获深股通增持34.44万股</t>
+          <t>天铁股份本周深股通持股市值减少1680.19万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-30 07:47</t>
+          <t>10-09 14:05</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300587,1232535590.html</t>
+          <t>/news,300587,1233316782.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>539</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天铁股份09月28日被深股通减持163.06万股</t>
+          <t>天铁股份：签订3148万元橡胶浮置板销售合同</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-29 08:06</t>
+          <t>09-30 20:06</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300587,1232090171.html</t>
+          <t>/news,300587,1232873600.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>921</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天铁股份：定增募资25.41亿元申请获深交所受理</t>
+          <t>天铁股份：签署3148.47万元橡胶浮置板采购合同</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-29 08:02</t>
+          <t>09-30 18:32</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300587,1232089622.html</t>
+          <t>/news,300587,1232863060.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>814</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>大宗交易：天铁股份成交825.51万元，折价13.38%（09-28）</t>
+          <t>天铁股份：签订3148万元橡胶浮置板采购合同</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-28 18:00</t>
+          <t>09-30 18:15</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300587,1231976573.html</t>
+          <t>/news,300587,1232854497.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天铁股份09月27日获深股通增持27.97万股</t>
+          <t>天铁股份：签订《橡胶浮置板采购合同》 合同金额约3148万元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-28 07:55</t>
+          <t>09-30 18:05</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300587,1231638163.html</t>
+          <t>/news,300587,1232853670.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天铁股份09月26日获深股通增持20.09万股</t>
+          <t>天铁股份09月29日获深股通增持34.44万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,61 +2269,61 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-27 07:56</t>
+          <t>09-30 07:47</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300587,1231248389.html</t>
+          <t>/news,300587,1232535590.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加1123.11万元，居橡胶制品板块第四</t>
+          <t>天铁股份09月28日被深股通减持163.06万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-25 14:05</t>
+          <t>09-29 08:06</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300587,1230722829.html</t>
+          <t>/news,300587,1232090171.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>929</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天铁股份09月23日被深股通减持31.3万股</t>
+          <t>天铁股份：定增募资25.41亿元申请获深交所受理</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-24 07:55</t>
+          <t>09-29 08:02</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300587,1230641459.html</t>
+          <t>/news,300587,1232089622.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>未就相关借款事项履行审议程序和信披义务 天铁股份收监管函</t>
+          <t>大宗交易：天铁股份成交825.51万元，折价13.38%（09-28）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-23 21:02</t>
+          <t>09-28 18:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300587,1230598079.html</t>
+          <t>/news,300587,1231976573.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>深交所向浙江天铁实业股份有限公司发出监管函</t>
+          <t>天铁股份09月27日获深股通增持27.97万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-23 16:42</t>
+          <t>09-28 07:55</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300587,1230548611.html</t>
+          <t>/news,300587,1231638163.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天铁股份09月22日获深股通增持10.73万股</t>
+          <t>天铁股份09月26日获深股通增持20.09万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-23 07:49</t>
+          <t>09-27 07:56</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300587,1230234025.html</t>
+          <t>/news,300587,1231248389.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,39 +2451,39 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天铁股份09月21日被深股通减持97.43万股</t>
+          <t>天铁股份本周深股通持股市值增加1123.11万元，居橡胶制品板块第四</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-22 07:58</t>
+          <t>09-25 14:05</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300587,1229811963.html</t>
+          <t>/news,300587,1230722829.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天铁股份09月20日获深股通增持45.47万股</t>
+          <t>天铁股份09月23日被深股通减持31.3万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-21 07:39</t>
+          <t>09-24 07:55</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300587,1229380978.html</t>
+          <t>/news,300587,1230641459.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>529</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,39 +2515,39 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少1386.89万元，居橡胶制品板块第二</t>
+          <t>未就相关借款事项履行审议程序和信披义务 天铁股份收监管函</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-18 14:04</t>
+          <t>09-23 21:02</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300587,1228440788.html</t>
+          <t>/news,300587,1230598079.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>811</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天铁股份09月16日获深股通增持153.72万股</t>
+          <t>深交所向浙江天铁实业股份有限公司发出监管函</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-17 09:03</t>
+          <t>09-23 16:42</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300587,1228363793.html</t>
+          <t>/news,300587,1230548611.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天铁股份09月15日被深股通减持62.16万股</t>
+          <t>天铁股份09月22日获深股通增持10.73万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-16 07:55</t>
+          <t>09-23 07:49</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300587,1227924159.html</t>
+          <t>/news,300587,1230234025.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天铁股份09月14日被深股通减持111.72万股</t>
+          <t>天铁股份09月21日被深股通减持97.43万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-15 08:13</t>
+          <t>09-22 07:58</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300587,1227431408.html</t>
+          <t>/news,300587,1229811963.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天铁股份：实控人新增质押4396.35万股公司股份</t>
+          <t>天铁股份09月20日获深股通增持45.47万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,51 +2653,51 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-14 22:53</t>
+          <t>09-21 07:39</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300587,1227405340.html</t>
+          <t>/news,300587,1229380978.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1006</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天铁股份：控股股东、实际控制人许吉锭质押约4396万股</t>
+          <t>天铁股份本周深股通持股市值减少1386.89万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-14 17:59</t>
+          <t>09-18 14:04</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300587,1227353074.html</t>
+          <t>/news,300587,1228440788.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,39 +2707,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少2918.42万元，居橡胶制品板块第一</t>
+          <t>天铁股份09月16日获深股通增持153.72万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-12 14:04</t>
+          <t>09-17 09:03</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300587,1226593127.html</t>
+          <t>/news,300587,1228363793.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天铁股份09月09日被深股通减持125.75万股</t>
+          <t>天铁股份09月15日被深股通减持62.16万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-10 08:18</t>
+          <t>09-16 07:55</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300587,1226487541.html</t>
+          <t>/news,300587,1227924159.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天铁股份09月08日被深股通减持137.76万股</t>
+          <t>天铁股份09月14日被深股通减持111.72万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-09 08:12</t>
+          <t>09-15 08:13</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300587,1226100823.html</t>
+          <t>/news,300587,1227431408.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>514</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天铁股份09月07日被深股通减持198.07万股</t>
+          <t>天铁股份：实控人新增质押4396.35万股公司股份</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-08 08:15</t>
+          <t>09-14 22:53</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300587,1225665506.html</t>
+          <t>/news,300587,1227405340.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>1006</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天铁股份09月06日被深股通减持80.24万股</t>
+          <t>天铁股份：控股股东、实际控制人许吉锭质押约4396万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-07 08:09</t>
+          <t>09-14 17:59</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300587,1225227783.html</t>
+          <t>/news,300587,1227353074.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,39 +2867,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天铁股份09月05日获深股通增持294.48万股</t>
+          <t>天铁股份本周深股通持股市值减少2918.42万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-06 08:26</t>
+          <t>09-12 14:04</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300587,1224818512.html</t>
+          <t>/news,300587,1226593127.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>735</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天铁股份子公司签署2640万元氯化锂销售合同</t>
+          <t>天铁股份09月09日被深股通减持125.75万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-05 12:29</t>
+          <t>09-10 08:18</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300587,1224599549.html</t>
+          <t>/news,300587,1226487541.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天铁股份：子公司签订2640万元氯化锂供应合同</t>
+          <t>天铁股份09月08日被深股通减持137.76万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-04 16:33</t>
+          <t>09-09 08:12</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300587,1224373174.html</t>
+          <t>/news,300587,1226100823.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天铁股份：全资子公司签订重大合同</t>
+          <t>天铁股份09月07日被深股通减持198.07万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-04 16:25</t>
+          <t>09-08 08:15</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300587,1224371944.html</t>
+          <t>/news,300587,1225665506.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加495.29万元，居橡胶制品板块第五</t>
+          <t>天铁股份09月06日被深股通减持80.24万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-04 14:03</t>
+          <t>09-07 08:09</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300587,1224360386.html</t>
+          <t>/news,300587,1225227783.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
+          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,83 +477,83 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-07 08:51</t>
+          <t>11-08 08:51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300587,1243514018.html</t>
+          <t>/news,300587,1243983480.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
+          <t>天铁股份11月07日获深股通增持169.7万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-06 20:21</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300587,1243448935.html</t>
+          <t>/news,300587,1243976306.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>913</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
+          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-07 20:44</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300587,1243409809.html</t>
+          <t>/news,300587,1243901122.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,61 +563,61 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-07 08:51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300587,1243404037.html</t>
+          <t>/news,300587,1243514018.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天铁股份11月04日获深股通增持52.8万股</t>
+          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-05 08:00</t>
+          <t>11-06 20:21</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300587,1243320258.html</t>
+          <t>/news,300587,1243448935.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
+          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-04 08:54</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300587,1242827088.html</t>
+          <t>/news,300587,1243409809.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,39 +659,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天铁股份11月03日获深股通增持170.86万股</t>
+          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300587,1242816603.html</t>
+          <t>/news,300587,1243404037.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
+          <t>天铁股份11月04日获深股通增持52.8万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-05 08:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300587,1242335086.html</t>
+          <t>/news,300587,1243320258.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天铁股份11月02日被深股通减持70.02万股</t>
+          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 08:54</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300587,1242326326.html</t>
+          <t>/news,300587,1242827088.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
+          <t>天铁股份11月03日获深股通增持170.86万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-02 08:54</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300587,1241810032.html</t>
+          <t>/news,300587,1242816603.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天铁股份11月01日获深股通增持146.09万股</t>
+          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-02 07:50</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300587,1241801272.html</t>
+          <t>/news,300587,1242335086.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
+          <t>天铁股份11月02日被深股通减持70.02万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300587,1241306996.html</t>
+          <t>/news,300587,1242326326.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天铁股份10月31日被深股通减持85.73万股</t>
+          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 08:54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300587,1241296433.html</t>
+          <t>/news,300587,1241810032.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
+          <t>天铁股份11月01日获深股通增持146.09万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,83 +893,83 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-31 09:05</t>
+          <t>11-02 07:50</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300587,1240799120.html</t>
+          <t>/news,300587,1241801272.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
+          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-30 17:06</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300587,1240728156.html</t>
+          <t>/news,300587,1241306996.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
+          <t>天铁股份10月31日被深股通减持85.73万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-30 15:05</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300587,1240711829.html</t>
+          <t>/news,300587,1241296433.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,61 +979,61 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
+          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 09:05</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300587,1240706844.html</t>
+          <t>/news,300587,1240799120.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>771</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天铁股份10月28日被深股通减持67.49万股</t>
+          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 17:06</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300587,1240599842.html</t>
+          <t>/news,300587,1240728156.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
+          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-28 09:13</t>
+          <t>10-30 15:05</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300587,1240062748.html</t>
+          <t>/news,300587,1240711829.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,39 +1075,39 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天铁股份10月27日被深股通减持13.22万股</t>
+          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300587,1240048400.html</t>
+          <t>/news,300587,1240706844.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>467</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
+          <t>天铁股份10月28日被深股通减持67.49万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-27 08:58</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300587,1239507542.html</t>
+          <t>/news,300587,1240599842.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天铁股份10月26日获深股通增持106.73万股</t>
+          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-27 07:56</t>
+          <t>10-28 09:13</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300587,1239498479.html</t>
+          <t>/news,300587,1240062748.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,39 +1171,39 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
+          <t>天铁股份10月27日被深股通减持13.22万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-26 18:35</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300587,1239380764.html</t>
+          <t>/news,300587,1240048400.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
+          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-26 17:37</t>
+          <t>10-27 08:58</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300587,1239367913.html</t>
+          <t>/news,300587,1239507542.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天铁股份第三季度净利润增长8%</t>
+          <t>天铁股份10月26日获深股通增持106.73万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-26 10:29</t>
+          <t>10-27 07:56</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300587,1239102506.html</t>
+          <t>/news,300587,1239498479.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,39 +1267,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
+          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-26 08:53</t>
+          <t>10-26 18:35</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300587,1238978851.html</t>
+          <t>/news,300587,1239380764.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>713</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天铁股份10月25日被深股通减持33.32万股</t>
+          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-26 07:49</t>
+          <t>10-26 17:37</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300587,1238968622.html</t>
+          <t>/news,300587,1239367913.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
+          <t>天铁股份第三季度净利润增长8%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-25 21:18</t>
+          <t>10-26 10:29</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300587,1238893659.html</t>
+          <t>/news,300587,1239102506.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
+          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-25 20:02</t>
+          <t>10-26 08:53</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300587,1238880385.html</t>
+          <t>/news,300587,1238978851.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
+          <t>天铁股份10月25日被深股通减持33.32万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-25 18:13</t>
+          <t>10-26 07:49</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300587,1238841617.html</t>
+          <t>/news,300587,1238968622.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
+          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,61 +1437,61 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-25 17:03</t>
+          <t>10-25 21:18</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300587,1238822064.html</t>
+          <t>/news,300587,1238893659.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
+          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-25 17:00</t>
+          <t>10-25 20:02</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300587,1238818458.html</t>
+          <t>/news,300587,1238880385.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
+          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-25 08:59</t>
+          <t>10-25 18:13</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300587,1238459878.html</t>
+          <t>/news,300587,1238841617.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>482</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天铁股份10月24日被深股通减持25.39万股</t>
+          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-25 07:50</t>
+          <t>10-25 17:03</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300587,1238448360.html</t>
+          <t>/news,300587,1238822064.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>667</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,39 +1555,39 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
+          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-25 17:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300587,1237859666.html</t>
+          <t>/news,300587,1238818458.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天铁股份10月21日获深股通增持51.45万股</t>
+          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 08:59</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300587,1237796589.html</t>
+          <t>/news,300587,1238459878.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天铁股份10月20日被深股通减持13.78万股</t>
+          <t>天铁股份10月24日被深股通减持25.39万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-21 07:52</t>
+          <t>10-25 07:50</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300587,1237348780.html</t>
+          <t>/news,300587,1238448360.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,39 +1651,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天铁股份10月19日被深股通减持55.85万股</t>
+          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-20 07:53</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300587,1236889697.html</t>
+          <t>/news,300587,1237859666.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天铁股份10月17日获深股通增持58.05万股</t>
+          <t>天铁股份10月21日获深股通增持51.45万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300587,1236041360.html</t>
+          <t>/news,300587,1237796589.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
+          <t>天铁股份10月20日被深股通减持13.78万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-21 07:52</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300587,1235575452.html</t>
+          <t>/news,300587,1237348780.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天铁股份10月14日获深股通增持81.14万股</t>
+          <t>天铁股份10月19日被深股通减持55.85万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-15 07:57</t>
+          <t>10-20 07:53</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300587,1235512570.html</t>
+          <t>/news,300587,1236889697.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天铁股份10月13日被深股通减持32.4万股</t>
+          <t>天铁股份10月17日获深股通增持58.05万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-14 07:56</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300587,1235083260.html</t>
+          <t>/news,300587,1236041360.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
+          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-13 20:33</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300587,1234996435.html</t>
+          <t>/news,300587,1235575452.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天铁股份10月12日被深股通减持13.49万股</t>
+          <t>天铁股份10月14日获深股通增持81.14万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-13 07:51</t>
+          <t>10-15 07:57</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300587,1234645891.html</t>
+          <t>/news,300587,1235512570.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天铁股份10月11日获深股通增持19.18万股</t>
+          <t>天铁股份10月13日被深股通减持32.4万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,51 +1885,51 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-12 07:53</t>
+          <t>10-14 07:56</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300587,1234213360.html</t>
+          <t>/news,300587,1235083260.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
+          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-11 17:51</t>
+          <t>10-13 20:33</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300587,1234106982.html</t>
+          <t>/news,300587,1234996435.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
+          <t>天铁股份10月12日被深股通减持13.49万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-11 11:42</t>
+          <t>10-13 07:51</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300587,1233980598.html</t>
+          <t>/news,300587,1234645891.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天铁股份10月10日被深股通减持1.52万股</t>
+          <t>天铁股份10月11日获深股通增持19.18万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,51 +1981,51 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-11 07:46</t>
+          <t>10-12 07:53</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300587,1233836058.html</t>
+          <t>/news,300587,1234213360.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>695</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
+          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-10 16:58</t>
+          <t>10-11 17:51</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300587,1233707709.html</t>
+          <t>/news,300587,1234106982.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天铁股份：签署2900万元温州市域铁路二号线项目合同</t>
+          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-09 21:12</t>
+          <t>10-11 11:42</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300587,1233352991.html</t>
+          <t>/news,300587,1233980598.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天铁股份：与温州市域铁路二号线项目有限公司签署《合同文件》</t>
+          <t>天铁股份10月10日被深股通减持1.52万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-09 16:43</t>
+          <t>10-11 07:46</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300587,1233331178.html</t>
+          <t>/news,300587,1233836058.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少1680.19万元，居橡胶制品板块第三</t>
+          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-09 14:05</t>
+          <t>10-10 16:58</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300587,1233316782.html</t>
+          <t>/news,300587,1233707709.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天铁股份：签订3148万元橡胶浮置板销售合同</t>
+          <t>天铁股份：签署2900万元温州市域铁路二号线项目合同</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-30 20:06</t>
+          <t>10-09 21:12</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300587,1232873600.html</t>
+          <t>/news,300587,1233352991.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天铁股份：签署3148.47万元橡胶浮置板采购合同</t>
+          <t>天铁股份：与温州市域铁路二号线项目有限公司签署《合同文件》</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,51 +2173,51 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-30 18:32</t>
+          <t>10-09 16:43</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300587,1232863060.html</t>
+          <t>/news,300587,1233331178.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天铁股份：签订3148万元橡胶浮置板采购合同</t>
+          <t>天铁股份本周深股通持股市值减少1680.19万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-30 18:15</t>
+          <t>10-09 14:05</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300587,1232854497.html</t>
+          <t>/news,300587,1233316782.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>539</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天铁股份：签订《橡胶浮置板采购合同》 合同金额约3148万元</t>
+          <t>天铁股份：签订3148万元橡胶浮置板销售合同</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-30 18:05</t>
+          <t>09-30 20:06</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300587,1232853670.html</t>
+          <t>/news,300587,1232873600.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天铁股份09月29日获深股通增持34.44万股</t>
+          <t>天铁股份：签署3148.47万元橡胶浮置板采购合同</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-30 07:47</t>
+          <t>09-30 18:32</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300587,1232535590.html</t>
+          <t>/news,300587,1232863060.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>814</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天铁股份09月28日被深股通减持163.06万股</t>
+          <t>天铁股份：签订3148万元橡胶浮置板采购合同</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-29 08:06</t>
+          <t>09-30 18:15</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300587,1232090171.html</t>
+          <t>/news,300587,1232854497.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天铁股份：定增募资25.41亿元申请获深交所受理</t>
+          <t>天铁股份：签订《橡胶浮置板采购合同》 合同金额约3148万元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-29 08:02</t>
+          <t>09-30 18:05</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300587,1232089622.html</t>
+          <t>/news,300587,1232853670.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>大宗交易：天铁股份成交825.51万元，折价13.38%（09-28）</t>
+          <t>天铁股份09月29日获深股通增持34.44万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-28 18:00</t>
+          <t>09-30 07:47</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300587,1231976573.html</t>
+          <t>/news,300587,1232535590.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天铁股份09月27日获深股通增持27.97万股</t>
+          <t>天铁股份09月28日被深股通减持163.06万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-28 07:55</t>
+          <t>09-29 08:06</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300587,1231638163.html</t>
+          <t>/news,300587,1232090171.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>931</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天铁股份09月26日获深股通增持20.09万股</t>
+          <t>天铁股份：定增募资25.41亿元申请获深交所受理</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,61 +2429,61 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-27 07:56</t>
+          <t>09-29 08:02</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300587,1231248389.html</t>
+          <t>/news,300587,1232089622.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加1123.11万元，居橡胶制品板块第四</t>
+          <t>大宗交易：天铁股份成交825.51万元，折价13.38%（09-28）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-25 14:05</t>
+          <t>09-28 18:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300587,1230722829.html</t>
+          <t>/news,300587,1231976573.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天铁股份09月23日被深股通减持31.3万股</t>
+          <t>天铁股份09月27日获深股通增持27.97万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-24 07:55</t>
+          <t>09-28 07:55</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300587,1230641459.html</t>
+          <t>/news,300587,1231638163.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>未就相关借款事项履行审议程序和信披义务 天铁股份收监管函</t>
+          <t>天铁股份09月26日获深股通增持20.09万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,51 +2525,51 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-23 21:02</t>
+          <t>09-27 07:56</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300587,1230598079.html</t>
+          <t>/news,300587,1231248389.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>深交所向浙江天铁实业股份有限公司发出监管函</t>
+          <t>天铁股份本周深股通持股市值增加1123.11万元，居橡胶制品板块第四</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-23 16:42</t>
+          <t>09-25 14:05</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300587,1230548611.html</t>
+          <t>/news,300587,1230722829.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天铁股份09月22日获深股通增持10.73万股</t>
+          <t>天铁股份09月23日被深股通减持31.3万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-23 07:49</t>
+          <t>09-24 07:55</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300587,1230234025.html</t>
+          <t>/news,300587,1230641459.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>533</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天铁股份09月21日被深股通减持97.43万股</t>
+          <t>未就相关借款事项履行审议程序和信披义务 天铁股份收监管函</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-22 07:58</t>
+          <t>09-23 21:02</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300587,1229811963.html</t>
+          <t>/news,300587,1230598079.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>816</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天铁股份09月20日获深股通增持45.47万股</t>
+          <t>深交所向浙江天铁实业股份有限公司发出监管函</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-21 07:39</t>
+          <t>09-23 16:42</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300587,1229380978.html</t>
+          <t>/news,300587,1230548611.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,39 +2675,39 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少1386.89万元，居橡胶制品板块第二</t>
+          <t>天铁股份09月22日获深股通增持10.73万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-18 14:04</t>
+          <t>09-23 07:49</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300587,1228440788.html</t>
+          <t>/news,300587,1230234025.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天铁股份09月16日获深股通增持153.72万股</t>
+          <t>天铁股份09月21日被深股通减持97.43万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-17 09:03</t>
+          <t>09-22 07:58</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300587,1228363793.html</t>
+          <t>/news,300587,1229811963.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天铁股份09月15日被深股通减持62.16万股</t>
+          <t>天铁股份09月20日获深股通增持45.47万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-16 07:55</t>
+          <t>09-21 07:39</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300587,1227924159.html</t>
+          <t>/news,300587,1229380978.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>456</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,39 +2771,39 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天铁股份09月14日被深股通减持111.72万股</t>
+          <t>天铁股份本周深股通持股市值减少1386.89万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-15 08:13</t>
+          <t>09-18 14:04</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300587,1227431408.html</t>
+          <t>/news,300587,1228440788.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天铁股份：实控人新增质押4396.35万股公司股份</t>
+          <t>天铁股份09月16日获深股通增持153.72万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-14 22:53</t>
+          <t>09-17 09:03</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300587,1227405340.html</t>
+          <t>/news,300587,1228363793.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1006</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天铁股份：控股股东、实际控制人许吉锭质押约4396万股</t>
+          <t>天铁股份09月15日被深股通减持62.16万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,61 +2845,61 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-14 17:59</t>
+          <t>09-16 07:55</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300587,1227353074.html</t>
+          <t>/news,300587,1227924159.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少2918.42万元，居橡胶制品板块第一</t>
+          <t>天铁股份09月14日被深股通减持111.72万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-12 14:04</t>
+          <t>09-15 08:13</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300587,1226593127.html</t>
+          <t>/news,300587,1227431408.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>514</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天铁股份09月09日被深股通减持125.75万股</t>
+          <t>天铁股份：实控人新增质押4396.35万股公司股份</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-10 08:18</t>
+          <t>09-14 22:53</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300587,1226487541.html</t>
+          <t>/news,300587,1227405340.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>1012</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天铁股份09月08日被深股通减持137.76万股</t>
+          <t>天铁股份：控股股东、实际控制人许吉锭质押约4396万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-09 08:12</t>
+          <t>09-14 17:59</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300587,1226100823.html</t>
+          <t>/news,300587,1227353074.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天铁股份09月07日被深股通减持198.07万股</t>
+          <t>天铁股份本周深股通持股市值减少2918.42万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-08 08:15</t>
+          <t>09-12 14:04</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300587,1225665506.html</t>
+          <t>/news,300587,1226593127.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>736</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天铁股份09月06日被深股通减持80.24万股</t>
+          <t>天铁股份09月09日被深股通减持125.75万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-07 08:09</t>
+          <t>09-10 08:18</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300587,1225227783.html</t>
+          <t>/news,300587,1226487541.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>961</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -649,7 +649,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -713,7 +713,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -937,7 +937,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1289,7 +1289,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>720</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2281,7 +2281,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>819</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>931</t>
+          <t>934</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2633,7 +2633,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>818</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">

--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
+          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-08 08:51</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300587,1243983480.html</t>
+          <t>/news,300587,1244437480.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天铁股份11月07日获深股通增持169.7万股</t>
+          <t>天铁股份11月08日获深股通增持34.12万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300587,1243976306.html</t>
+          <t>/news,300587,1244425964.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
+          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-07 20:44</t>
+          <t>11-08 08:51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300587,1243901122.html</t>
+          <t>/news,300587,1243983480.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
+          <t>天铁股份11月07日获深股通增持169.7万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,51 +573,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-07 08:51</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300587,1243514018.html</t>
+          <t>/news,300587,1243976306.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>1127</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
+          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-06 20:21</t>
+          <t>11-07 20:44</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300587,1243448935.html</t>
+          <t>/news,300587,1243901122.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,93 +627,93 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
+          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-07 08:51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300587,1243409809.html</t>
+          <t>/news,300587,1243514018.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>393</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
+          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-06 20:21</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300587,1243404037.html</t>
+          <t>/news,300587,1243448935.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天铁股份11月04日获深股通增持52.8万股</t>
+          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-05 08:00</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300587,1243320258.html</t>
+          <t>/news,300587,1243409809.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,39 +723,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
+          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-04 08:54</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300587,1242827088.html</t>
+          <t>/news,300587,1243404037.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天铁股份11月03日获深股通增持170.86万股</t>
+          <t>天铁股份11月04日获深股通增持52.8万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-05 08:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300587,1242816603.html</t>
+          <t>/news,300587,1243320258.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
+          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-04 08:54</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300587,1242335086.html</t>
+          <t>/news,300587,1242827088.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天铁股份11月02日被深股通减持70.02万股</t>
+          <t>天铁股份11月03日获深股通增持170.86万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300587,1242326326.html</t>
+          <t>/news,300587,1242816603.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
+          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-02 08:54</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300587,1241810032.html</t>
+          <t>/news,300587,1242335086.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天铁股份11月01日获深股通增持146.09万股</t>
+          <t>天铁股份11月02日被深股通减持70.02万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-02 07:50</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300587,1241801272.html</t>
+          <t>/news,300587,1242326326.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
+          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-02 08:54</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300587,1241306996.html</t>
+          <t>/news,300587,1241810032.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天铁股份10月31日被深股通减持85.73万股</t>
+          <t>天铁股份11月01日获深股通增持146.09万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 07:50</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300587,1241296433.html</t>
+          <t>/news,300587,1241801272.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
+          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,51 +989,51 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-31 09:05</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300587,1240799120.html</t>
+          <t>/news,300587,1241306996.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
+          <t>天铁股份10月31日被深股通减持85.73万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-30 17:06</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300587,1240728156.html</t>
+          <t>/news,300587,1241296433.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,93 +1043,93 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-30 15:05</t>
+          <t>10-31 09:05</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300587,1240711829.html</t>
+          <t>/news,300587,1240799120.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>777</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
+          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 17:06</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300587,1240706844.html</t>
+          <t>/news,300587,1240728156.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天铁股份10月28日被深股通减持67.49万股</t>
+          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 15:05</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300587,1240599842.html</t>
+          <t>/news,300587,1240711829.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,39 +1139,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
+          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-28 09:13</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300587,1240062748.html</t>
+          <t>/news,300587,1240706844.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天铁股份10月27日被深股通减持13.22万股</t>
+          <t>天铁股份10月28日被深股通减持67.49万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300587,1240048400.html</t>
+          <t>/news,300587,1240599842.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
+          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-27 08:58</t>
+          <t>10-28 09:13</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300587,1239507542.html</t>
+          <t>/news,300587,1240062748.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天铁股份10月26日获深股通增持106.73万股</t>
+          <t>天铁股份10月27日被深股通减持13.22万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-27 07:56</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300587,1239498479.html</t>
+          <t>/news,300587,1240048400.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,39 +1267,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
+          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-26 18:35</t>
+          <t>10-27 08:58</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300587,1239380764.html</t>
+          <t>/news,300587,1239507542.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
+          <t>天铁股份10月26日获深股通增持106.73万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,61 +1309,61 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-26 17:37</t>
+          <t>10-27 07:56</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300587,1239367913.html</t>
+          <t>/news,300587,1239498479.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天铁股份第三季度净利润增长8%</t>
+          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-26 10:29</t>
+          <t>10-26 18:35</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300587,1239102506.html</t>
+          <t>/news,300587,1239380764.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>748</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
+          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-26 08:53</t>
+          <t>10-26 17:37</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300587,1238978851.html</t>
+          <t>/news,300587,1239367913.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>456</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天铁股份10月25日被深股通减持33.32万股</t>
+          <t>天铁股份第三季度净利润增长8%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-26 07:49</t>
+          <t>10-26 10:29</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300587,1238968622.html</t>
+          <t>/news,300587,1239102506.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
+          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-25 21:18</t>
+          <t>10-26 08:53</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300587,1238893659.html</t>
+          <t>/news,300587,1238978851.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
+          <t>天铁股份10月25日被深股通减持33.32万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-25 20:02</t>
+          <t>10-26 07:49</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300587,1238880385.html</t>
+          <t>/news,300587,1238968622.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
+          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-25 18:13</t>
+          <t>10-25 21:18</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300587,1238841617.html</t>
+          <t>/news,300587,1238893659.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
+          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-25 17:03</t>
+          <t>10-25 20:02</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300587,1238822064.html</t>
+          <t>/news,300587,1238880385.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,39 +1555,39 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
+          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 17:00</t>
+          <t>10-25 18:13</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300587,1238818458.html</t>
+          <t>/news,300587,1238841617.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
+          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-25 08:59</t>
+          <t>10-25 17:03</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300587,1238459878.html</t>
+          <t>/news,300587,1238822064.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>668</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,71 +1619,71 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天铁股份10月24日被深股通减持25.39万股</t>
+          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 07:50</t>
+          <t>10-25 17:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300587,1238448360.html</t>
+          <t>/news,300587,1238818458.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
+          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-25 08:59</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300587,1237859666.html</t>
+          <t>/news,300587,1238459878.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天铁股份10月21日获深股通增持51.45万股</t>
+          <t>天铁股份10月24日被深股通减持25.39万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 07:50</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300587,1237796589.html</t>
+          <t>/news,300587,1238448360.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,39 +1715,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天铁股份10月20日被深股通减持13.78万股</t>
+          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-21 07:52</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300587,1237348780.html</t>
+          <t>/news,300587,1237859666.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天铁股份10月19日被深股通减持55.85万股</t>
+          <t>天铁股份10月21日获深股通增持51.45万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-20 07:53</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300587,1236889697.html</t>
+          <t>/news,300587,1237796589.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天铁股份10月17日获深股通增持58.05万股</t>
+          <t>天铁股份10月20日被深股通减持13.78万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-21 07:52</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300587,1236041360.html</t>
+          <t>/news,300587,1237348780.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
+          <t>天铁股份10月19日被深股通减持55.85万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-20 07:53</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300587,1235575452.html</t>
+          <t>/news,300587,1236889697.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天铁股份10月14日获深股通增持81.14万股</t>
+          <t>天铁股份10月17日获深股通增持58.05万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-15 07:57</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300587,1235512570.html</t>
+          <t>/news,300587,1236041360.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天铁股份10月13日被深股通减持32.4万股</t>
+          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-14 07:56</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300587,1235083260.html</t>
+          <t>/news,300587,1235575452.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
+          <t>天铁股份10月14日获深股通增持81.14万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-13 20:33</t>
+          <t>10-15 07:57</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300587,1234996435.html</t>
+          <t>/news,300587,1235512570.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天铁股份10月12日被深股通减持13.49万股</t>
+          <t>天铁股份10月13日被深股通减持32.4万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-13 07:51</t>
+          <t>10-14 07:56</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300587,1234645891.html</t>
+          <t>/news,300587,1235083260.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天铁股份10月11日获深股通增持19.18万股</t>
+          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,61 +1981,61 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-12 07:53</t>
+          <t>10-13 20:33</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300587,1234213360.html</t>
+          <t>/news,300587,1234996435.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
+          <t>天铁股份10月12日被深股通减持13.49万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-11 17:51</t>
+          <t>10-13 07:51</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300587,1234106982.html</t>
+          <t>/news,300587,1234645891.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
+          <t>天铁股份10月11日获深股通增持19.18万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,51 +2045,51 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-11 11:42</t>
+          <t>10-12 07:53</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300587,1233980598.html</t>
+          <t>/news,300587,1234213360.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>697</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天铁股份10月10日被深股通减持1.52万股</t>
+          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-11 07:46</t>
+          <t>10-11 17:51</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300587,1233836058.html</t>
+          <t>/news,300587,1234106982.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
+          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-10 16:58</t>
+          <t>10-11 11:42</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300587,1233707709.html</t>
+          <t>/news,300587,1233980598.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天铁股份：签署2900万元温州市域铁路二号线项目合同</t>
+          <t>天铁股份10月10日被深股通减持1.52万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-09 21:12</t>
+          <t>10-11 07:46</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300587,1233352991.html</t>
+          <t>/news,300587,1233836058.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天铁股份：与温州市域铁路二号线项目有限公司签署《合同文件》</t>
+          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-09 16:43</t>
+          <t>10-10 16:58</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300587,1233331178.html</t>
+          <t>/news,300587,1233707709.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,39 +2195,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少1680.19万元，居橡胶制品板块第三</t>
+          <t>天铁股份：签署2900万元温州市域铁路二号线项目合同</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-09 14:05</t>
+          <t>10-09 21:12</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300587,1233316782.html</t>
+          <t>/news,300587,1233352991.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天铁股份：签订3148万元橡胶浮置板销售合同</t>
+          <t>天铁股份：与温州市域铁路二号线项目有限公司签署《合同文件》</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-30 20:06</t>
+          <t>10-09 16:43</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300587,1232873600.html</t>
+          <t>/news,300587,1233331178.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,39 +2259,39 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天铁股份：签署3148.47万元橡胶浮置板采购合同</t>
+          <t>天铁股份本周深股通持股市值减少1680.19万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-30 18:32</t>
+          <t>10-09 14:05</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300587,1232863060.html</t>
+          <t>/news,300587,1233316782.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>539</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天铁股份：签订3148万元橡胶浮置板采购合同</t>
+          <t>天铁股份：签订3148万元橡胶浮置板销售合同</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-30 18:15</t>
+          <t>09-30 20:06</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300587,1232854497.html</t>
+          <t>/news,300587,1232873600.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天铁股份：签订《橡胶浮置板采购合同》 合同金额约3148万元</t>
+          <t>天铁股份：签署3148.47万元橡胶浮置板采购合同</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-30 18:05</t>
+          <t>09-30 18:32</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300587,1232853670.html</t>
+          <t>/news,300587,1232863060.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>821</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天铁股份09月29日获深股通增持34.44万股</t>
+          <t>天铁股份：签订3148万元橡胶浮置板采购合同</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-30 07:47</t>
+          <t>09-30 18:15</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300587,1232535590.html</t>
+          <t>/news,300587,1232854497.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天铁股份09月28日被深股通减持163.06万股</t>
+          <t>天铁股份：签订《橡胶浮置板采购合同》 合同金额约3148万元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-29 08:06</t>
+          <t>09-30 18:05</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300587,1232090171.html</t>
+          <t>/news,300587,1232853670.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>934</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天铁股份：定增募资25.41亿元申请获深交所受理</t>
+          <t>天铁股份09月29日获深股通增持34.44万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-29 08:02</t>
+          <t>09-30 07:47</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300587,1232089622.html</t>
+          <t>/news,300587,1232535590.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>大宗交易：天铁股份成交825.51万元，折价13.38%（09-28）</t>
+          <t>天铁股份09月28日被深股通减持163.06万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-28 18:00</t>
+          <t>09-29 08:06</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300587,1231976573.html</t>
+          <t>/news,300587,1232090171.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>940</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天铁股份09月27日获深股通增持27.97万股</t>
+          <t>天铁股份：定增募资25.41亿元申请获深交所受理</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-28 07:55</t>
+          <t>09-29 08:02</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300587,1231638163.html</t>
+          <t>/news,300587,1232089622.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>619</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天铁股份09月26日获深股通增持20.09万股</t>
+          <t>大宗交易：天铁股份成交825.51万元，折价13.38%（09-28）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,51 +2525,51 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-27 07:56</t>
+          <t>09-28 18:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300587,1231248389.html</t>
+          <t>/news,300587,1231976573.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加1123.11万元，居橡胶制品板块第四</t>
+          <t>天铁股份09月27日获深股通增持27.97万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-25 14:05</t>
+          <t>09-28 07:55</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300587,1230722829.html</t>
+          <t>/news,300587,1231638163.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天铁股份09月23日被深股通减持31.3万股</t>
+          <t>天铁股份09月26日获深股通增持20.09万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,61 +2589,61 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-24 07:55</t>
+          <t>09-27 07:56</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300587,1230641459.html</t>
+          <t>/news,300587,1231248389.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>未就相关借款事项履行审议程序和信披义务 天铁股份收监管函</t>
+          <t>天铁股份本周深股通持股市值增加1123.11万元，居橡胶制品板块第四</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-23 21:02</t>
+          <t>09-25 14:05</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300587,1230598079.html</t>
+          <t>/news,300587,1230722829.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>深交所向浙江天铁实业股份有限公司发出监管函</t>
+          <t>天铁股份09月23日被深股通减持31.3万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-23 16:42</t>
+          <t>09-24 07:55</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300587,1230548611.html</t>
+          <t>/news,300587,1230641459.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>533</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天铁股份09月22日获深股通增持10.73万股</t>
+          <t>未就相关借款事项履行审议程序和信披义务 天铁股份收监管函</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-23 07:49</t>
+          <t>09-23 21:02</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300587,1230234025.html</t>
+          <t>/news,300587,1230598079.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>818</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天铁股份09月21日被深股通减持97.43万股</t>
+          <t>深交所向浙江天铁实业股份有限公司发出监管函</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-22 07:58</t>
+          <t>09-23 16:42</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300587,1229811963.html</t>
+          <t>/news,300587,1230548611.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天铁股份09月20日获深股通增持45.47万股</t>
+          <t>天铁股份09月22日获深股通增持10.73万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,51 +2749,51 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-21 07:39</t>
+          <t>09-23 07:49</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300587,1229380978.html</t>
+          <t>/news,300587,1230234025.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少1386.89万元，居橡胶制品板块第二</t>
+          <t>天铁股份09月21日被深股通减持97.43万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-18 14:04</t>
+          <t>09-22 07:58</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300587,1228440788.html</t>
+          <t>/news,300587,1229811963.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天铁股份09月16日获深股通增持153.72万股</t>
+          <t>天铁股份09月20日获深股通增持45.47万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,61 +2813,61 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-17 09:03</t>
+          <t>09-21 07:39</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300587,1228363793.html</t>
+          <t>/news,300587,1229380978.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>456</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天铁股份09月15日被深股通减持62.16万股</t>
+          <t>天铁股份本周深股通持股市值减少1386.89万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-16 07:55</t>
+          <t>09-18 14:04</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300587,1227924159.html</t>
+          <t>/news,300587,1228440788.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天铁股份09月14日被深股通减持111.72万股</t>
+          <t>天铁股份09月16日获深股通增持153.72万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-15 08:13</t>
+          <t>09-17 09:03</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300587,1227431408.html</t>
+          <t>/news,300587,1228363793.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天铁股份：实控人新增质押4396.35万股公司股份</t>
+          <t>天铁股份09月15日被深股通减持62.16万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-14 22:53</t>
+          <t>09-16 07:55</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300587,1227405340.html</t>
+          <t>/news,300587,1227924159.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1012</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天铁股份：控股股东、实际控制人许吉锭质押约4396万股</t>
+          <t>天铁股份09月14日被深股通减持111.72万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-14 17:59</t>
+          <t>09-15 08:13</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300587,1227353074.html</t>
+          <t>/news,300587,1227431408.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>518</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少2918.42万元，居橡胶制品板块第一</t>
+          <t>天铁股份：实控人新增质押4396.35万股公司股份</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-12 14:04</t>
+          <t>09-14 22:53</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300587,1226593127.html</t>
+          <t>/news,300587,1227405340.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>1019</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天铁股份09月09日被深股通减持125.75万股</t>
+          <t>天铁股份：控股股东、实际控制人许吉锭质押约4396万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-10 08:18</t>
+          <t>09-14 17:59</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300587,1226487541.html</t>
+          <t>/news,300587,1227353074.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
+          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300587,1244437480.html</t>
+          <t>/news,300587,1244900300.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天铁股份11月08日获深股通增持34.12万股</t>
+          <t>天铁股份11月09日被深股通减持39.12万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300587,1244425964.html</t>
+          <t>/news,300587,1244890086.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
+          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-08 08:51</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300587,1243983480.html</t>
+          <t>/news,300587,1244437480.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天铁股份11月07日获深股通增持169.7万股</t>
+          <t>天铁股份11月08日获深股通增持34.12万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300587,1243976306.html</t>
+          <t>/news,300587,1244425964.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1127</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
+          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-07 20:44</t>
+          <t>11-08 08:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300587,1243901122.html</t>
+          <t>/news,300587,1243983480.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
+          <t>天铁股份11月07日获深股通增持169.7万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,51 +637,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-07 08:51</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300587,1243514018.html</t>
+          <t>/news,300587,1243976306.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>1182</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
+          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-06 20:21</t>
+          <t>11-07 20:44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300587,1243448935.html</t>
+          <t>/news,300587,1243901122.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,93 +691,93 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
+          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-07 08:51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300587,1243409809.html</t>
+          <t>/news,300587,1243514018.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
+          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-06 20:21</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300587,1243404037.html</t>
+          <t>/news,300587,1243448935.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天铁股份11月04日获深股通增持52.8万股</t>
+          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-05 08:00</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300587,1243320258.html</t>
+          <t>/news,300587,1243409809.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
+          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-04 08:54</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300587,1242827088.html</t>
+          <t>/news,300587,1243404037.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天铁股份11月03日获深股通增持170.86万股</t>
+          <t>天铁股份11月04日获深股通增持52.8万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-05 08:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300587,1242816603.html</t>
+          <t>/news,300587,1243320258.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
+          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-04 08:54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300587,1242335086.html</t>
+          <t>/news,300587,1242827088.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天铁股份11月02日被深股通减持70.02万股</t>
+          <t>天铁股份11月03日获深股通增持170.86万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300587,1242326326.html</t>
+          <t>/news,300587,1242816603.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
+          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-02 08:54</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300587,1241810032.html</t>
+          <t>/news,300587,1242335086.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天铁股份11月01日获深股通增持146.09万股</t>
+          <t>天铁股份11月02日被深股通减持70.02万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-02 07:50</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300587,1241801272.html</t>
+          <t>/news,300587,1242326326.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
+          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-02 08:54</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300587,1241306996.html</t>
+          <t>/news,300587,1241810032.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天铁股份10月31日被深股通减持85.73万股</t>
+          <t>天铁股份11月01日获深股通增持146.09万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 07:50</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300587,1241296433.html</t>
+          <t>/news,300587,1241801272.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
+          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,51 +1053,51 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-31 09:05</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300587,1240799120.html</t>
+          <t>/news,300587,1241306996.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
+          <t>天铁股份10月31日被深股通减持85.73万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-30 17:06</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300587,1240728156.html</t>
+          <t>/news,300587,1241296433.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,93 +1107,93 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-30 15:05</t>
+          <t>10-31 09:05</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300587,1240711829.html</t>
+          <t>/news,300587,1240799120.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>777</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
+          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 17:06</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300587,1240706844.html</t>
+          <t>/news,300587,1240728156.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天铁股份10月28日被深股通减持67.49万股</t>
+          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 15:05</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300587,1240599842.html</t>
+          <t>/news,300587,1240711829.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,39 +1203,39 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
+          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-28 09:13</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300587,1240062748.html</t>
+          <t>/news,300587,1240706844.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>471</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天铁股份10月27日被深股通减持13.22万股</t>
+          <t>天铁股份10月28日被深股通减持67.49万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300587,1240048400.html</t>
+          <t>/news,300587,1240599842.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
+          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-27 08:58</t>
+          <t>10-28 09:13</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300587,1239507542.html</t>
+          <t>/news,300587,1240062748.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天铁股份10月26日获深股通增持106.73万股</t>
+          <t>天铁股份10月27日被深股通减持13.22万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-27 07:56</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300587,1239498479.html</t>
+          <t>/news,300587,1240048400.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,39 +1331,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
+          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-26 18:35</t>
+          <t>10-27 08:58</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300587,1239380764.html</t>
+          <t>/news,300587,1239507542.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
+          <t>天铁股份10月26日获深股通增持106.73万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,61 +1373,61 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-26 17:37</t>
+          <t>10-27 07:56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300587,1239367913.html</t>
+          <t>/news,300587,1239498479.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天铁股份第三季度净利润增长8%</t>
+          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-26 10:29</t>
+          <t>10-26 18:35</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300587,1239102506.html</t>
+          <t>/news,300587,1239380764.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>805</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
+          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-26 08:53</t>
+          <t>10-26 17:37</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300587,1238978851.html</t>
+          <t>/news,300587,1239367913.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天铁股份10月25日被深股通减持33.32万股</t>
+          <t>天铁股份第三季度净利润增长8%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-26 07:49</t>
+          <t>10-26 10:29</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300587,1238968622.html</t>
+          <t>/news,300587,1239102506.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
+          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-25 21:18</t>
+          <t>10-26 08:53</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300587,1238893659.html</t>
+          <t>/news,300587,1238978851.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
+          <t>天铁股份10月25日被深股通减持33.32万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-25 20:02</t>
+          <t>10-26 07:49</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300587,1238880385.html</t>
+          <t>/news,300587,1238968622.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
+          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 18:13</t>
+          <t>10-25 21:18</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300587,1238841617.html</t>
+          <t>/news,300587,1238893659.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
+          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-25 17:03</t>
+          <t>10-25 20:02</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300587,1238822064.html</t>
+          <t>/news,300587,1238880385.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,39 +1619,39 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
+          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 17:00</t>
+          <t>10-25 18:13</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300587,1238818458.html</t>
+          <t>/news,300587,1238841617.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
+          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-25 08:59</t>
+          <t>10-25 17:03</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300587,1238459878.html</t>
+          <t>/news,300587,1238822064.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>668</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,71 +1683,71 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天铁股份10月24日被深股通减持25.39万股</t>
+          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 07:50</t>
+          <t>10-25 17:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300587,1238448360.html</t>
+          <t>/news,300587,1238818458.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
+          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-25 08:59</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300587,1237859666.html</t>
+          <t>/news,300587,1238459878.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天铁股份10月21日获深股通增持51.45万股</t>
+          <t>天铁股份10月24日被深股通减持25.39万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 07:50</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300587,1237796589.html</t>
+          <t>/news,300587,1238448360.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,39 +1779,39 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天铁股份10月20日被深股通减持13.78万股</t>
+          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-21 07:52</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300587,1237348780.html</t>
+          <t>/news,300587,1237859666.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天铁股份10月19日被深股通减持55.85万股</t>
+          <t>天铁股份10月21日获深股通增持51.45万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-20 07:53</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300587,1236889697.html</t>
+          <t>/news,300587,1237796589.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天铁股份10月17日获深股通增持58.05万股</t>
+          <t>天铁股份10月20日被深股通减持13.78万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-21 07:52</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300587,1236041360.html</t>
+          <t>/news,300587,1237348780.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
+          <t>天铁股份10月19日被深股通减持55.85万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-20 07:53</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300587,1235575452.html</t>
+          <t>/news,300587,1236889697.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天铁股份10月14日获深股通增持81.14万股</t>
+          <t>天铁股份10月17日获深股通增持58.05万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-15 07:57</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300587,1235512570.html</t>
+          <t>/news,300587,1236041360.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天铁股份10月13日被深股通减持32.4万股</t>
+          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-14 07:56</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300587,1235083260.html</t>
+          <t>/news,300587,1235575452.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
+          <t>天铁股份10月14日获深股通增持81.14万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-13 20:33</t>
+          <t>10-15 07:57</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300587,1234996435.html</t>
+          <t>/news,300587,1235512570.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天铁股份10月12日被深股通减持13.49万股</t>
+          <t>天铁股份10月13日被深股通减持32.4万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-13 07:51</t>
+          <t>10-14 07:56</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300587,1234645891.html</t>
+          <t>/news,300587,1235083260.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天铁股份10月11日获深股通增持19.18万股</t>
+          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,61 +2045,61 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-12 07:53</t>
+          <t>10-13 20:33</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300587,1234213360.html</t>
+          <t>/news,300587,1234996435.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
+          <t>天铁股份10月12日被深股通减持13.49万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-11 17:51</t>
+          <t>10-13 07:51</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300587,1234106982.html</t>
+          <t>/news,300587,1234645891.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
+          <t>天铁股份10月11日获深股通增持19.18万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,51 +2109,51 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-11 11:42</t>
+          <t>10-12 07:53</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300587,1233980598.html</t>
+          <t>/news,300587,1234213360.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>697</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天铁股份10月10日被深股通减持1.52万股</t>
+          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-11 07:46</t>
+          <t>10-11 17:51</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300587,1233836058.html</t>
+          <t>/news,300587,1234106982.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
+          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-10 16:58</t>
+          <t>10-11 11:42</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300587,1233707709.html</t>
+          <t>/news,300587,1233980598.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天铁股份：签署2900万元温州市域铁路二号线项目合同</t>
+          <t>天铁股份10月10日被深股通减持1.52万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-09 21:12</t>
+          <t>10-11 07:46</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300587,1233352991.html</t>
+          <t>/news,300587,1233836058.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天铁股份：与温州市域铁路二号线项目有限公司签署《合同文件》</t>
+          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-09 16:43</t>
+          <t>10-10 16:58</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300587,1233331178.html</t>
+          <t>/news,300587,1233707709.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,39 +2259,39 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少1680.19万元，居橡胶制品板块第三</t>
+          <t>天铁股份：签署2900万元温州市域铁路二号线项目合同</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-09 14:05</t>
+          <t>10-09 21:12</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300587,1233316782.html</t>
+          <t>/news,300587,1233352991.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天铁股份：签订3148万元橡胶浮置板销售合同</t>
+          <t>天铁股份：与温州市域铁路二号线项目有限公司签署《合同文件》</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-30 20:06</t>
+          <t>10-09 16:43</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300587,1232873600.html</t>
+          <t>/news,300587,1233331178.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,39 +2323,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天铁股份：签署3148.47万元橡胶浮置板采购合同</t>
+          <t>天铁股份本周深股通持股市值减少1680.19万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-30 18:32</t>
+          <t>10-09 14:05</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300587,1232863060.html</t>
+          <t>/news,300587,1233316782.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>540</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天铁股份：签订3148万元橡胶浮置板采购合同</t>
+          <t>天铁股份：签订3148万元橡胶浮置板销售合同</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-30 18:15</t>
+          <t>09-30 20:06</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300587,1232854497.html</t>
+          <t>/news,300587,1232873600.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天铁股份：签订《橡胶浮置板采购合同》 合同金额约3148万元</t>
+          <t>天铁股份：签署3148.47万元橡胶浮置板采购合同</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-30 18:05</t>
+          <t>09-30 18:32</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300587,1232853670.html</t>
+          <t>/news,300587,1232863060.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>821</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天铁股份09月29日获深股通增持34.44万股</t>
+          <t>天铁股份：签订3148万元橡胶浮置板采购合同</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-30 07:47</t>
+          <t>09-30 18:15</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300587,1232535590.html</t>
+          <t>/news,300587,1232854497.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天铁股份09月28日被深股通减持163.06万股</t>
+          <t>天铁股份：签订《橡胶浮置板采购合同》 合同金额约3148万元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-29 08:06</t>
+          <t>09-30 18:05</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300587,1232090171.html</t>
+          <t>/news,300587,1232853670.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天铁股份：定增募资25.41亿元申请获深交所受理</t>
+          <t>天铁股份09月29日获深股通增持34.44万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-29 08:02</t>
+          <t>09-30 07:47</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300587,1232089622.html</t>
+          <t>/news,300587,1232535590.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>大宗交易：天铁股份成交825.51万元，折价13.38%（09-28）</t>
+          <t>天铁股份09月28日被深股通减持163.06万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-28 18:00</t>
+          <t>09-29 08:06</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300587,1231976573.html</t>
+          <t>/news,300587,1232090171.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>947</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天铁股份09月27日获深股通增持27.97万股</t>
+          <t>天铁股份：定增募资25.41亿元申请获深交所受理</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-28 07:55</t>
+          <t>09-29 08:02</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300587,1231638163.html</t>
+          <t>/news,300587,1232089622.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>619</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天铁股份09月26日获深股通增持20.09万股</t>
+          <t>大宗交易：天铁股份成交825.51万元，折价13.38%（09-28）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,51 +2589,51 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-27 07:56</t>
+          <t>09-28 18:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300587,1231248389.html</t>
+          <t>/news,300587,1231976573.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加1123.11万元，居橡胶制品板块第四</t>
+          <t>天铁股份09月27日获深股通增持27.97万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-25 14:05</t>
+          <t>09-28 07:55</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300587,1230722829.html</t>
+          <t>/news,300587,1231638163.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天铁股份09月23日被深股通减持31.3万股</t>
+          <t>天铁股份09月26日获深股通增持20.09万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,61 +2653,61 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-24 07:55</t>
+          <t>09-27 07:56</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300587,1230641459.html</t>
+          <t>/news,300587,1231248389.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>未就相关借款事项履行审议程序和信披义务 天铁股份收监管函</t>
+          <t>天铁股份本周深股通持股市值增加1123.11万元，居橡胶制品板块第四</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-23 21:02</t>
+          <t>09-25 14:05</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300587,1230598079.html</t>
+          <t>/news,300587,1230722829.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>深交所向浙江天铁实业股份有限公司发出监管函</t>
+          <t>天铁股份09月23日被深股通减持31.3万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-23 16:42</t>
+          <t>09-24 07:55</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300587,1230548611.html</t>
+          <t>/news,300587,1230641459.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>534</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天铁股份09月22日获深股通增持10.73万股</t>
+          <t>未就相关借款事项履行审议程序和信披义务 天铁股份收监管函</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-23 07:49</t>
+          <t>09-23 21:02</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300587,1230234025.html</t>
+          <t>/news,300587,1230598079.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>826</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天铁股份09月21日被深股通减持97.43万股</t>
+          <t>深交所向浙江天铁实业股份有限公司发出监管函</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-22 07:58</t>
+          <t>09-23 16:42</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300587,1229811963.html</t>
+          <t>/news,300587,1230548611.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天铁股份09月20日获深股通增持45.47万股</t>
+          <t>天铁股份09月22日获深股通增持10.73万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,51 +2813,51 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-21 07:39</t>
+          <t>09-23 07:49</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300587,1229380978.html</t>
+          <t>/news,300587,1230234025.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少1386.89万元，居橡胶制品板块第二</t>
+          <t>天铁股份09月21日被深股通减持97.43万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-18 14:04</t>
+          <t>09-22 07:58</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300587,1228440788.html</t>
+          <t>/news,300587,1229811963.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天铁股份09月16日获深股通增持153.72万股</t>
+          <t>天铁股份09月20日获深股通增持45.47万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,61 +2877,61 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-17 09:03</t>
+          <t>09-21 07:39</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300587,1228363793.html</t>
+          <t>/news,300587,1229380978.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>456</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天铁股份09月15日被深股通减持62.16万股</t>
+          <t>天铁股份本周深股通持股市值减少1386.89万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-16 07:55</t>
+          <t>09-18 14:04</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300587,1227924159.html</t>
+          <t>/news,300587,1228440788.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天铁股份09月14日被深股通减持111.72万股</t>
+          <t>天铁股份09月16日获深股通增持153.72万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-15 08:13</t>
+          <t>09-17 09:03</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300587,1227431408.html</t>
+          <t>/news,300587,1228363793.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天铁股份：实控人新增质押4396.35万股公司股份</t>
+          <t>天铁股份09月15日被深股通减持62.16万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-14 22:53</t>
+          <t>09-16 07:55</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300587,1227405340.html</t>
+          <t>/news,300587,1227924159.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1019</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天铁股份：控股股东、实际控制人许吉锭质押约4396万股</t>
+          <t>天铁股份09月14日被深股通减持111.72万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-14 17:59</t>
+          <t>09-15 08:13</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300587,1227353074.html</t>
+          <t>/news,300587,1227431408.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
+          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-11 08:55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300587,1244900300.html</t>
+          <t>/news,300587,1245425823.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天铁股份11月09日被深股通减持39.12万股</t>
+          <t>天铁股份11月10日被深股通减持153.54万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300587,1244890086.html</t>
+          <t>/news,300587,1245414654.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>947</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
+          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-10 20:19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300587,1244437480.html</t>
+          <t>/news,300587,1245310258.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>1272</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天铁股份11月08日获深股通增持34.12万股</t>
+          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-10 16:37</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300587,1244425964.html</t>
+          <t>/news,300587,1245255362.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
+          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-08 08:51</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300587,1243983480.html</t>
+          <t>/news,300587,1244900300.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天铁股份11月07日获深股通增持169.7万股</t>
+          <t>天铁股份11月09日被深股通减持39.12万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300587,1243976306.html</t>
+          <t>/news,300587,1244890086.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1182</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
+          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-07 20:44</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300587,1243901122.html</t>
+          <t>/news,300587,1244437480.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
+          <t>天铁股份11月08日获深股通增持34.12万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,51 +701,51 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-07 08:51</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300587,1243514018.html</t>
+          <t>/news,300587,1244425964.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
+          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-06 20:21</t>
+          <t>11-08 08:51</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300587,1243448935.html</t>
+          <t>/news,300587,1243983480.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,71 +755,71 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
+          <t>天铁股份11月07日获深股通增持169.7万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300587,1243409809.html</t>
+          <t>/news,300587,1243976306.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
+          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-07 20:44</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300587,1243404037.html</t>
+          <t>/news,300587,1243901122.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天铁股份11月04日获深股通增持52.8万股</t>
+          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,51 +829,51 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-05 08:00</t>
+          <t>11-07 08:51</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300587,1243320258.html</t>
+          <t>/news,300587,1243514018.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
+          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-04 08:54</t>
+          <t>11-06 20:21</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300587,1242827088.html</t>
+          <t>/news,300587,1243448935.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天铁股份11月03日获深股通增持170.86万股</t>
+          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300587,1242816603.html</t>
+          <t>/news,300587,1243409809.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,39 +915,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
+          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300587,1242335086.html</t>
+          <t>/news,300587,1243404037.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>644</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天铁股份11月02日被深股通减持70.02万股</t>
+          <t>天铁股份11月04日获深股通增持52.8万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-05 08:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300587,1242326326.html</t>
+          <t>/news,300587,1243320258.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
+          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-02 08:54</t>
+          <t>11-04 08:54</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300587,1241810032.html</t>
+          <t>/news,300587,1242827088.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天铁股份11月01日获深股通增持146.09万股</t>
+          <t>天铁股份11月03日获深股通增持170.86万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-02 07:50</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300587,1241801272.html</t>
+          <t>/news,300587,1242816603.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
+          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300587,1241306996.html</t>
+          <t>/news,300587,1242335086.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天铁股份10月31日被深股通减持85.73万股</t>
+          <t>天铁股份11月02日被深股通减持70.02万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300587,1241296433.html</t>
+          <t>/news,300587,1242326326.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
+          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,51 +1117,51 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-31 09:05</t>
+          <t>11-02 08:54</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300587,1240799120.html</t>
+          <t>/news,300587,1241810032.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
+          <t>天铁股份11月01日获深股通增持146.09万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-30 17:06</t>
+          <t>11-02 07:50</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300587,1240728156.html</t>
+          <t>/news,300587,1241801272.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,71 +1171,71 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-30 15:05</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300587,1240711829.html</t>
+          <t>/news,300587,1241306996.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
+          <t>天铁股份10月31日被深股通减持85.73万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300587,1240706844.html</t>
+          <t>/news,300587,1241296433.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天铁股份10月28日被深股通减持67.49万股</t>
+          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,51 +1245,51 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-31 09:05</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300587,1240599842.html</t>
+          <t>/news,300587,1240799120.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>782</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
+          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-28 09:13</t>
+          <t>10-30 17:06</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300587,1240062748.html</t>
+          <t>/news,300587,1240728156.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天铁股份10月27日被深股通减持13.22万股</t>
+          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-30 15:05</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300587,1240048400.html</t>
+          <t>/news,300587,1240711829.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,39 +1331,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
+          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-27 08:58</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300587,1239507542.html</t>
+          <t>/news,300587,1240706844.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>473</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天铁股份10月26日获深股通增持106.73万股</t>
+          <t>天铁股份10月28日被深股通减持67.49万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-27 07:56</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300587,1239498479.html</t>
+          <t>/news,300587,1240599842.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,39 +1395,39 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
+          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-26 18:35</t>
+          <t>10-28 09:13</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300587,1239380764.html</t>
+          <t>/news,300587,1240062748.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
+          <t>天铁股份10月27日被深股通减持13.22万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-26 17:37</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300587,1239367913.html</t>
+          <t>/news,300587,1240048400.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天铁股份第三季度净利润增长8%</t>
+          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-26 10:29</t>
+          <t>10-27 08:58</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300587,1239102506.html</t>
+          <t>/news,300587,1239507542.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
+          <t>天铁股份10月26日获深股通增持106.73万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,61 +1501,61 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-26 08:53</t>
+          <t>10-27 07:56</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300587,1238978851.html</t>
+          <t>/news,300587,1239498479.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天铁股份10月25日被深股通减持33.32万股</t>
+          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-26 07:49</t>
+          <t>10-26 18:35</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300587,1238968622.html</t>
+          <t>/news,300587,1239380764.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>830</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
+          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 21:18</t>
+          <t>10-26 17:37</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300587,1238893659.html</t>
+          <t>/news,300587,1239367913.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
+          <t>天铁股份第三季度净利润增长8%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-25 20:02</t>
+          <t>10-26 10:29</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300587,1238880385.html</t>
+          <t>/news,300587,1239102506.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
+          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 18:13</t>
+          <t>10-26 08:53</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300587,1238841617.html</t>
+          <t>/news,300587,1238978851.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
+          <t>天铁股份10月25日被深股通减持33.32万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,61 +1661,61 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-25 17:03</t>
+          <t>10-26 07:49</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300587,1238822064.html</t>
+          <t>/news,300587,1238968622.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>393</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
+          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 17:00</t>
+          <t>10-25 21:18</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300587,1238818458.html</t>
+          <t>/news,300587,1238893659.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
+          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 08:59</t>
+          <t>10-25 20:02</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300587,1238459878.html</t>
+          <t>/news,300587,1238880385.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天铁股份10月24日被深股通减持25.39万股</t>
+          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,93 +1757,93 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 07:50</t>
+          <t>10-25 18:13</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300587,1238448360.html</t>
+          <t>/news,300587,1238841617.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
+          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-25 17:03</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300587,1237859666.html</t>
+          <t>/news,300587,1238822064.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>670</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天铁股份10月21日获深股通增持51.45万股</t>
+          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 17:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300587,1237796589.html</t>
+          <t>/news,300587,1238818458.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天铁股份10月20日被深股通减持13.78万股</t>
+          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-21 07:52</t>
+          <t>10-25 08:59</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300587,1237348780.html</t>
+          <t>/news,300587,1238459878.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天铁股份10月19日被深股通减持55.85万股</t>
+          <t>天铁股份10月24日被深股通减持25.39万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-20 07:53</t>
+          <t>10-25 07:50</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300587,1236889697.html</t>
+          <t>/news,300587,1238448360.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,22 +1907,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天铁股份10月17日获深股通增持58.05万股</t>
+          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300587,1236041360.html</t>
+          <t>/news,300587,1237859666.html</t>
         </is>
       </c>
     </row>
@@ -1934,34 +1934,34 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
+          <t>天铁股份10月21日获深股通增持51.45万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300587,1235575452.html</t>
+          <t>/news,300587,1237796589.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天铁股份10月14日获深股通增持81.14万股</t>
+          <t>天铁股份10月20日被深股通减持13.78万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-15 07:57</t>
+          <t>10-21 07:52</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300587,1235512570.html</t>
+          <t>/news,300587,1237348780.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天铁股份10月13日被深股通减持32.4万股</t>
+          <t>天铁股份10月19日被深股通减持55.85万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-14 07:56</t>
+          <t>10-20 07:53</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300587,1235083260.html</t>
+          <t>/news,300587,1236889697.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
+          <t>天铁股份10月17日获深股通增持58.05万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-13 20:33</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300587,1234996435.html</t>
+          <t>/news,300587,1236041360.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,39 +2067,39 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天铁股份10月12日被深股通减持13.49万股</t>
+          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-13 07:51</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300587,1234645891.html</t>
+          <t>/news,300587,1235575452.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天铁股份10月11日获深股通增持19.18万股</t>
+          <t>天铁股份10月14日获深股通增持81.14万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,51 +2109,51 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-12 07:53</t>
+          <t>10-15 07:57</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300587,1234213360.html</t>
+          <t>/news,300587,1235512570.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
+          <t>天铁股份10月13日被深股通减持32.4万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-11 17:51</t>
+          <t>10-14 07:56</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300587,1234106982.html</t>
+          <t>/news,300587,1235083260.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
+          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-11 11:42</t>
+          <t>10-13 20:33</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300587,1233980598.html</t>
+          <t>/news,300587,1234996435.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天铁股份10月10日被深股通减持1.52万股</t>
+          <t>天铁股份10月12日被深股通减持13.49万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-11 07:46</t>
+          <t>10-13 07:51</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300587,1233836058.html</t>
+          <t>/news,300587,1234645891.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
+          <t>天铁股份10月11日获深股通增持19.18万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,61 +2237,61 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-10 16:58</t>
+          <t>10-12 07:53</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300587,1233707709.html</t>
+          <t>/news,300587,1234213360.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>697</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天铁股份：签署2900万元温州市域铁路二号线项目合同</t>
+          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-09 21:12</t>
+          <t>10-11 17:51</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300587,1233352991.html</t>
+          <t>/news,300587,1234106982.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天铁股份：与温州市域铁路二号线项目有限公司签署《合同文件》</t>
+          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-09 16:43</t>
+          <t>10-11 11:42</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300587,1233331178.html</t>
+          <t>/news,300587,1233980598.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少1680.19万元，居橡胶制品板块第三</t>
+          <t>天铁股份10月10日被深股通减持1.52万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-09 14:05</t>
+          <t>10-11 07:46</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300587,1233316782.html</t>
+          <t>/news,300587,1233836058.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天铁股份：签订3148万元橡胶浮置板销售合同</t>
+          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-30 20:06</t>
+          <t>10-10 16:58</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300587,1232873600.html</t>
+          <t>/news,300587,1233707709.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天铁股份：签署3148.47万元橡胶浮置板采购合同</t>
+          <t>天铁股份：签署2900万元温州市域铁路二号线项目合同</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-30 18:32</t>
+          <t>10-09 21:12</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300587,1232863060.html</t>
+          <t>/news,300587,1233352991.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天铁股份：签订3148万元橡胶浮置板采购合同</t>
+          <t>天铁股份：与温州市域铁路二号线项目有限公司签署《合同文件》</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-30 18:15</t>
+          <t>10-09 16:43</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300587,1232854497.html</t>
+          <t>/news,300587,1233331178.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天铁股份：签订《橡胶浮置板采购合同》 合同金额约3148万元</t>
+          <t>天铁股份本周深股通持股市值减少1680.19万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-30 18:05</t>
+          <t>10-09 14:05</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300587,1232853670.html</t>
+          <t>/news,300587,1233316782.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>542</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天铁股份09月29日获深股通增持34.44万股</t>
+          <t>天铁股份：签订3148万元橡胶浮置板销售合同</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-30 07:47</t>
+          <t>09-30 20:06</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300587,1232535590.html</t>
+          <t>/news,300587,1232873600.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天铁股份09月28日被深股通减持163.06万股</t>
+          <t>天铁股份：签署3148.47万元橡胶浮置板采购合同</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-29 08:06</t>
+          <t>09-30 18:32</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300587,1232090171.html</t>
+          <t>/news,300587,1232863060.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>947</t>
+          <t>828</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天铁股份：定增募资25.41亿元申请获深交所受理</t>
+          <t>天铁股份：签订3148万元橡胶浮置板采购合同</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-29 08:02</t>
+          <t>09-30 18:15</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300587,1232089622.html</t>
+          <t>/news,300587,1232854497.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>大宗交易：天铁股份成交825.51万元，折价13.38%（09-28）</t>
+          <t>天铁股份：签订《橡胶浮置板采购合同》 合同金额约3148万元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-28 18:00</t>
+          <t>09-30 18:05</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300587,1231976573.html</t>
+          <t>/news,300587,1232853670.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天铁股份09月27日获深股通增持27.97万股</t>
+          <t>天铁股份09月29日获深股通增持34.44万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-28 07:55</t>
+          <t>09-30 07:47</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300587,1231638163.html</t>
+          <t>/news,300587,1232535590.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天铁股份09月26日获深股通增持20.09万股</t>
+          <t>天铁股份09月28日被深股通减持163.06万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,61 +2653,61 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-27 07:56</t>
+          <t>09-29 08:06</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300587,1231248389.html</t>
+          <t>/news,300587,1232090171.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>954</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加1123.11万元，居橡胶制品板块第四</t>
+          <t>天铁股份：定增募资25.41亿元申请获深交所受理</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-25 14:05</t>
+          <t>09-29 08:02</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300587,1230722829.html</t>
+          <t>/news,300587,1232089622.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天铁股份09月23日被深股通减持31.3万股</t>
+          <t>大宗交易：天铁股份成交825.51万元，折价13.38%（09-28）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-24 07:55</t>
+          <t>09-28 18:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300587,1230641459.html</t>
+          <t>/news,300587,1231976573.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>未就相关借款事项履行审议程序和信披义务 天铁股份收监管函</t>
+          <t>天铁股份09月27日获深股通增持27.97万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-23 21:02</t>
+          <t>09-28 07:55</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300587,1230598079.html</t>
+          <t>/news,300587,1231638163.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>深交所向浙江天铁实业股份有限公司发出监管函</t>
+          <t>天铁股份09月26日获深股通增持20.09万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,61 +2781,61 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-23 16:42</t>
+          <t>09-27 07:56</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300587,1230548611.html</t>
+          <t>/news,300587,1231248389.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>551</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天铁股份09月22日获深股通增持10.73万股</t>
+          <t>天铁股份本周深股通持股市值增加1123.11万元，居橡胶制品板块第四</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-23 07:49</t>
+          <t>09-25 14:05</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300587,1230234025.html</t>
+          <t>/news,300587,1230722829.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天铁股份09月21日被深股通减持97.43万股</t>
+          <t>天铁股份09月23日被深股通减持31.3万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-22 07:58</t>
+          <t>09-24 07:55</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300587,1229811963.html</t>
+          <t>/news,300587,1230641459.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>535</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天铁股份09月20日获深股通增持45.47万股</t>
+          <t>未就相关借款事项履行审议程序和信披义务 天铁股份收监管函</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,61 +2877,61 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-21 07:39</t>
+          <t>09-23 21:02</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300587,1229380978.html</t>
+          <t>/news,300587,1230598079.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>829</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少1386.89万元，居橡胶制品板块第二</t>
+          <t>深交所向浙江天铁实业股份有限公司发出监管函</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-18 14:04</t>
+          <t>09-23 16:42</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300587,1228440788.html</t>
+          <t>/news,300587,1230548611.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天铁股份09月16日获深股通增持153.72万股</t>
+          <t>天铁股份09月22日获深股通增持10.73万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-17 09:03</t>
+          <t>09-23 07:49</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300587,1228363793.html</t>
+          <t>/news,300587,1230234025.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天铁股份09月15日被深股通减持62.16万股</t>
+          <t>天铁股份09月21日被深股通减持97.43万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-16 07:55</t>
+          <t>09-22 07:58</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300587,1227924159.html</t>
+          <t>/news,300587,1229811963.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天铁股份09月14日被深股通减持111.72万股</t>
+          <t>天铁股份09月20日获深股通增持45.47万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-15 08:13</t>
+          <t>09-21 07:39</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300587,1227431408.html</t>
+          <t>/news,300587,1229380978.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,71 +467,71 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
+          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-11 08:55</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300587,1245425823.html</t>
+          <t>/news,300587,1246098593.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天铁股份11月10日被深股通减持153.54万股</t>
+          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-13 14:03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300587,1245414654.html</t>
+          <t>/news,300587,1246092986.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>947</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
+          <t>天铁股份11月11日获深股通增持37.92万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-10 20:19</t>
+          <t>11-12 07:56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300587,1245310258.html</t>
+          <t>/news,300587,1245987709.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1272</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
+          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,12 +573,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-10 16:37</t>
+          <t>11-11 08:55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300587,1245255362.html</t>
+          <t>/news,300587,1245425823.html</t>
         </is>
       </c>
     </row>
@@ -590,12 +590,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
+          <t>天铁股份11月10日被深股通减持153.54万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300587,1244900300.html</t>
+          <t>/news,300587,1245414654.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>1087</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天铁股份11月09日被深股通减持39.12万股</t>
+          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-10 20:19</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300587,1244890086.html</t>
+          <t>/news,300587,1245310258.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>1338</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
+          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-10 16:37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300587,1244437480.html</t>
+          <t>/news,300587,1245255362.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天铁股份11月08日获深股通增持34.12万股</t>
+          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300587,1244425964.html</t>
+          <t>/news,300587,1244900300.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
+          <t>天铁股份11月09日被深股通减持39.12万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-08 08:51</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300587,1243983480.html</t>
+          <t>/news,300587,1244890086.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天铁股份11月07日获深股通增持169.7万股</t>
+          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300587,1243976306.html</t>
+          <t>/news,300587,1244437480.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1211</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
+          <t>天铁股份11月08日获深股通增持34.12万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-07 20:44</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300587,1243901122.html</t>
+          <t>/news,300587,1244425964.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
+          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,83 +829,83 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-07 08:51</t>
+          <t>11-08 08:51</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300587,1243514018.html</t>
+          <t>/news,300587,1243983480.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
+          <t>天铁股份11月07日获深股通增持169.7万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-06 20:21</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300587,1243448935.html</t>
+          <t>/news,300587,1243976306.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>1238</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
+          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-07 20:44</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300587,1243409809.html</t>
+          <t>/news,300587,1243901122.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,61 +915,61 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-07 08:51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300587,1243404037.html</t>
+          <t>/news,300587,1243514018.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天铁股份11月04日获深股通增持52.8万股</t>
+          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-05 08:00</t>
+          <t>11-06 20:21</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300587,1243320258.html</t>
+          <t>/news,300587,1243448935.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
+          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-04 08:54</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300587,1242827088.html</t>
+          <t>/news,300587,1243409809.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,39 +1011,39 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天铁股份11月03日获深股通增持170.86万股</t>
+          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300587,1242816603.html</t>
+          <t>/news,300587,1243404037.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
+          <t>天铁股份11月04日获深股通增持52.8万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-05 08:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300587,1242335086.html</t>
+          <t>/news,300587,1243320258.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天铁股份11月02日被深股通减持70.02万股</t>
+          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 08:54</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300587,1242326326.html</t>
+          <t>/news,300587,1242827088.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
+          <t>天铁股份11月03日获深股通增持170.86万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-02 08:54</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300587,1241810032.html</t>
+          <t>/news,300587,1242816603.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天铁股份11月01日获深股通增持146.09万股</t>
+          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-02 07:50</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300587,1241801272.html</t>
+          <t>/news,300587,1242335086.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
+          <t>天铁股份11月02日被深股通减持70.02万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300587,1241306996.html</t>
+          <t>/news,300587,1242326326.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天铁股份10月31日被深股通减持85.73万股</t>
+          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 08:54</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300587,1241296433.html</t>
+          <t>/news,300587,1241810032.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
+          <t>天铁股份11月01日获深股通增持146.09万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,83 +1245,83 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-31 09:05</t>
+          <t>11-02 07:50</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300587,1240799120.html</t>
+          <t>/news,300587,1241801272.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
+          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-30 17:06</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300587,1240728156.html</t>
+          <t>/news,300587,1241306996.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
+          <t>天铁股份10月31日被深股通减持85.73万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-30 15:05</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300587,1240711829.html</t>
+          <t>/news,300587,1241296433.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,61 +1331,61 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
+          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 09:05</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300587,1240706844.html</t>
+          <t>/news,300587,1240799120.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>796</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天铁股份10月28日被深股通减持67.49万股</t>
+          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 17:06</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300587,1240599842.html</t>
+          <t>/news,300587,1240728156.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
+          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-28 09:13</t>
+          <t>10-30 15:05</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300587,1240062748.html</t>
+          <t>/news,300587,1240711829.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,39 +1427,39 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天铁股份10月27日被深股通减持13.22万股</t>
+          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300587,1240048400.html</t>
+          <t>/news,300587,1240706844.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
+          <t>天铁股份10月28日被深股通减持67.49万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-27 08:58</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300587,1239507542.html</t>
+          <t>/news,300587,1240599842.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天铁股份10月26日获深股通增持106.73万股</t>
+          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-27 07:56</t>
+          <t>10-28 09:13</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300587,1239498479.html</t>
+          <t>/news,300587,1240062748.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,39 +1523,39 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
+          <t>天铁股份10月27日被深股通减持13.22万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-26 18:35</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300587,1239380764.html</t>
+          <t>/news,300587,1240048400.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
+          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-26 17:37</t>
+          <t>10-27 08:58</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300587,1239367913.html</t>
+          <t>/news,300587,1239507542.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天铁股份第三季度净利润增长8%</t>
+          <t>天铁股份10月26日获深股通增持106.73万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-26 10:29</t>
+          <t>10-27 07:56</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300587,1239102506.html</t>
+          <t>/news,300587,1239498479.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,39 +1619,39 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
+          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-26 08:53</t>
+          <t>10-26 18:35</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300587,1238978851.html</t>
+          <t>/news,300587,1239380764.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>857</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天铁股份10月25日被深股通减持33.32万股</t>
+          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-26 07:49</t>
+          <t>10-26 17:37</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300587,1238968622.html</t>
+          <t>/news,300587,1239367913.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
+          <t>天铁股份第三季度净利润增长8%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 21:18</t>
+          <t>10-26 10:29</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300587,1238893659.html</t>
+          <t>/news,300587,1239102506.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
+          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 20:02</t>
+          <t>10-26 08:53</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300587,1238880385.html</t>
+          <t>/news,300587,1238978851.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
+          <t>天铁股份10月25日被深股通减持33.32万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 18:13</t>
+          <t>10-26 07:49</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300587,1238841617.html</t>
+          <t>/news,300587,1238968622.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
+          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,61 +1789,61 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 17:03</t>
+          <t>10-25 21:18</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300587,1238822064.html</t>
+          <t>/news,300587,1238893659.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
+          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 17:00</t>
+          <t>10-25 20:02</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300587,1238818458.html</t>
+          <t>/news,300587,1238880385.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
+          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 08:59</t>
+          <t>10-25 18:13</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300587,1238459878.html</t>
+          <t>/news,300587,1238841617.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天铁股份10月24日被深股通减持25.39万股</t>
+          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 07:50</t>
+          <t>10-25 17:03</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300587,1238448360.html</t>
+          <t>/news,300587,1238822064.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>671</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,39 +1907,39 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
+          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-25 17:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300587,1237859666.html</t>
+          <t>/news,300587,1238818458.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天铁股份10月21日获深股通增持51.45万股</t>
+          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 08:59</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300587,1237796589.html</t>
+          <t>/news,300587,1238459878.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天铁股份10月20日被深股通减持13.78万股</t>
+          <t>天铁股份10月24日被深股通减持25.39万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-21 07:52</t>
+          <t>10-25 07:50</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300587,1237348780.html</t>
+          <t>/news,300587,1238448360.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,39 +2003,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天铁股份10月19日被深股通减持55.85万股</t>
+          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-20 07:53</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300587,1236889697.html</t>
+          <t>/news,300587,1237859666.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天铁股份10月17日获深股通增持58.05万股</t>
+          <t>天铁股份10月21日获深股通增持51.45万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300587,1236041360.html</t>
+          <t>/news,300587,1237796589.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
+          <t>天铁股份10月20日被深股通减持13.78万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-21 07:52</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300587,1235575452.html</t>
+          <t>/news,300587,1237348780.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天铁股份10月14日获深股通增持81.14万股</t>
+          <t>天铁股份10月19日被深股通减持55.85万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-15 07:57</t>
+          <t>10-20 07:53</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300587,1235512570.html</t>
+          <t>/news,300587,1236889697.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天铁股份10月13日被深股通减持32.4万股</t>
+          <t>天铁股份10月17日获深股通增持58.05万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-14 07:56</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300587,1235083260.html</t>
+          <t>/news,300587,1236041360.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
+          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-13 20:33</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300587,1234996435.html</t>
+          <t>/news,300587,1235575452.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天铁股份10月12日被深股通减持13.49万股</t>
+          <t>天铁股份10月14日获深股通增持81.14万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-13 07:51</t>
+          <t>10-15 07:57</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300587,1234645891.html</t>
+          <t>/news,300587,1235512570.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天铁股份10月11日获深股通增持19.18万股</t>
+          <t>天铁股份10月13日被深股通减持32.4万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,51 +2237,51 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-12 07:53</t>
+          <t>10-14 07:56</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300587,1234213360.html</t>
+          <t>/news,300587,1235083260.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
+          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-11 17:51</t>
+          <t>10-13 20:33</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300587,1234106982.html</t>
+          <t>/news,300587,1234996435.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
+          <t>天铁股份10月12日被深股通减持13.49万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-11 11:42</t>
+          <t>10-13 07:51</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300587,1233980598.html</t>
+          <t>/news,300587,1234645891.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天铁股份10月10日被深股通减持1.52万股</t>
+          <t>天铁股份10月11日获深股通增持19.18万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,51 +2333,51 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-11 07:46</t>
+          <t>10-12 07:53</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300587,1233836058.html</t>
+          <t>/news,300587,1234213360.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>697</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
+          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-10 16:58</t>
+          <t>10-11 17:51</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300587,1233707709.html</t>
+          <t>/news,300587,1234106982.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天铁股份：签署2900万元温州市域铁路二号线项目合同</t>
+          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-09 21:12</t>
+          <t>10-11 11:42</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300587,1233352991.html</t>
+          <t>/news,300587,1233980598.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天铁股份：与温州市域铁路二号线项目有限公司签署《合同文件》</t>
+          <t>天铁股份10月10日被深股通减持1.52万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-09 16:43</t>
+          <t>10-11 07:46</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300587,1233331178.html</t>
+          <t>/news,300587,1233836058.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少1680.19万元，居橡胶制品板块第三</t>
+          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-09 14:05</t>
+          <t>10-10 16:58</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300587,1233316782.html</t>
+          <t>/news,300587,1233707709.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天铁股份：签订3148万元橡胶浮置板销售合同</t>
+          <t>天铁股份：签署2900万元温州市域铁路二号线项目合同</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-30 20:06</t>
+          <t>10-09 21:12</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300587,1232873600.html</t>
+          <t>/news,300587,1233352991.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天铁股份：签署3148.47万元橡胶浮置板采购合同</t>
+          <t>天铁股份：与温州市域铁路二号线项目有限公司签署《合同文件》</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,51 +2525,51 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-30 18:32</t>
+          <t>10-09 16:43</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300587,1232863060.html</t>
+          <t>/news,300587,1233331178.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天铁股份：签订3148万元橡胶浮置板采购合同</t>
+          <t>天铁股份本周深股通持股市值减少1680.19万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-30 18:15</t>
+          <t>10-09 14:05</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300587,1232854497.html</t>
+          <t>/news,300587,1233316782.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>543</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天铁股份：签订《橡胶浮置板采购合同》 合同金额约3148万元</t>
+          <t>天铁股份：签订3148万元橡胶浮置板销售合同</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-30 18:05</t>
+          <t>09-30 20:06</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300587,1232853670.html</t>
+          <t>/news,300587,1232873600.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天铁股份09月29日获深股通增持34.44万股</t>
+          <t>天铁股份：签署3148.47万元橡胶浮置板采购合同</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-30 07:47</t>
+          <t>09-30 18:32</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300587,1232535590.html</t>
+          <t>/news,300587,1232863060.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>829</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天铁股份09月28日被深股通减持163.06万股</t>
+          <t>天铁股份：签订3148万元橡胶浮置板采购合同</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-29 08:06</t>
+          <t>09-30 18:15</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300587,1232090171.html</t>
+          <t>/news,300587,1232854497.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>954</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天铁股份：定增募资25.41亿元申请获深交所受理</t>
+          <t>天铁股份：签订《橡胶浮置板采购合同》 合同金额约3148万元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-29 08:02</t>
+          <t>09-30 18:05</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300587,1232089622.html</t>
+          <t>/news,300587,1232853670.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>大宗交易：天铁股份成交825.51万元，折价13.38%（09-28）</t>
+          <t>天铁股份09月29日获深股通增持34.44万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-28 18:00</t>
+          <t>09-30 07:47</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300587,1231976573.html</t>
+          <t>/news,300587,1232535590.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天铁股份09月27日获深股通增持27.97万股</t>
+          <t>天铁股份09月28日被深股通减持163.06万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-28 07:55</t>
+          <t>09-29 08:06</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300587,1231638163.html</t>
+          <t>/news,300587,1232090171.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>955</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天铁股份09月26日获深股通增持20.09万股</t>
+          <t>天铁股份：定增募资25.41亿元申请获深交所受理</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,61 +2781,61 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-27 07:56</t>
+          <t>09-29 08:02</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300587,1231248389.html</t>
+          <t>/news,300587,1232089622.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加1123.11万元，居橡胶制品板块第四</t>
+          <t>大宗交易：天铁股份成交825.51万元，折价13.38%（09-28）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-25 14:05</t>
+          <t>09-28 18:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300587,1230722829.html</t>
+          <t>/news,300587,1231976573.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天铁股份09月23日被深股通减持31.3万股</t>
+          <t>天铁股份09月27日获深股通增持27.97万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-24 07:55</t>
+          <t>09-28 07:55</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300587,1230641459.html</t>
+          <t>/news,300587,1231638163.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>未就相关借款事项履行审议程序和信披义务 天铁股份收监管函</t>
+          <t>天铁股份09月26日获深股通增持20.09万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,51 +2877,51 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-23 21:02</t>
+          <t>09-27 07:56</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300587,1230598079.html</t>
+          <t>/news,300587,1231248389.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>551</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>深交所向浙江天铁实业股份有限公司发出监管函</t>
+          <t>天铁股份本周深股通持股市值增加1123.11万元，居橡胶制品板块第四</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-23 16:42</t>
+          <t>09-25 14:05</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300587,1230548611.html</t>
+          <t>/news,300587,1230722829.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天铁股份09月22日获深股通增持10.73万股</t>
+          <t>天铁股份09月23日被深股通减持31.3万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-23 07:49</t>
+          <t>09-24 07:55</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300587,1230234025.html</t>
+          <t>/news,300587,1230641459.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>538</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天铁股份09月21日被深股通减持97.43万股</t>
+          <t>未就相关借款事项履行审议程序和信披义务 天铁股份收监管函</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-22 07:58</t>
+          <t>09-23 21:02</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300587,1229811963.html</t>
+          <t>/news,300587,1230598079.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>831</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天铁股份09月20日获深股通增持45.47万股</t>
+          <t>深交所向浙江天铁实业股份有限公司发出监管函</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-21 07:39</t>
+          <t>09-23 16:42</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300587,1229380978.html</t>
+          <t>/news,300587,1230548611.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,61 +467,61 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
+          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-15 08:52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300587,1246098593.html</t>
+          <t>/news,300587,1246698742.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
+          <t>天铁股份11月14日获深股通增持191.83万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-13 14:03</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300587,1246092986.html</t>
+          <t>/news,300587,1246689937.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天铁股份11月11日获深股通增持37.92万股</t>
+          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-12 07:56</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300587,1245987709.html</t>
+          <t>/news,300587,1246196638.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,71 +563,71 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
+          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-11 08:55</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300587,1245425823.html</t>
+          <t>/news,300587,1246098593.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天铁股份11月10日被深股通减持153.54万股</t>
+          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-13 14:03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300587,1245414654.html</t>
+          <t>/news,300587,1246092986.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1087</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
+          <t>天铁股份11月11日获深股通增持37.92万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-10 20:19</t>
+          <t>11-12 07:56</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300587,1245310258.html</t>
+          <t>/news,300587,1245987709.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1338</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
+          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-10 16:37</t>
+          <t>11-11 08:55</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300587,1245255362.html</t>
+          <t>/news,300587,1245425823.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
+          <t>天铁股份11月10日被深股通减持153.54万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300587,1244900300.html</t>
+          <t>/news,300587,1245414654.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天铁股份11月09日被深股通减持39.12万股</t>
+          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-10 20:19</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300587,1244890086.html</t>
+          <t>/news,300587,1245310258.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>1363</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
+          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-10 16:37</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300587,1244437480.html</t>
+          <t>/news,300587,1245255362.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天铁股份11月08日获深股通增持34.12万股</t>
+          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300587,1244425964.html</t>
+          <t>/news,300587,1244900300.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
+          <t>天铁股份11月09日被深股通减持39.12万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-08 08:51</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300587,1243983480.html</t>
+          <t>/news,300587,1244890086.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天铁股份11月07日获深股通增持169.7万股</t>
+          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300587,1243976306.html</t>
+          <t>/news,300587,1244437480.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1238</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
+          <t>天铁股份11月08日获深股通增持34.12万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-07 20:44</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300587,1243901122.html</t>
+          <t>/news,300587,1244425964.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
+          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,83 +925,83 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-07 08:51</t>
+          <t>11-08 08:51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300587,1243514018.html</t>
+          <t>/news,300587,1243983480.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
+          <t>天铁股份11月07日获深股通增持169.7万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-06 20:21</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300587,1243448935.html</t>
+          <t>/news,300587,1243976306.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>1248</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
+          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-07 20:44</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300587,1243409809.html</t>
+          <t>/news,300587,1243901122.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,61 +1011,61 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-07 08:51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300587,1243404037.html</t>
+          <t>/news,300587,1243514018.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>475</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天铁股份11月04日获深股通增持52.8万股</t>
+          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-05 08:00</t>
+          <t>11-06 20:21</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300587,1243320258.html</t>
+          <t>/news,300587,1243448935.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
+          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-04 08:54</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300587,1242827088.html</t>
+          <t>/news,300587,1243409809.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,39 +1107,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天铁股份11月03日获深股通增持170.86万股</t>
+          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300587,1242816603.html</t>
+          <t>/news,300587,1243404037.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
+          <t>天铁股份11月04日获深股通增持52.8万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-05 08:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300587,1242335086.html</t>
+          <t>/news,300587,1243320258.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天铁股份11月02日被深股通减持70.02万股</t>
+          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 08:54</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300587,1242326326.html</t>
+          <t>/news,300587,1242827088.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
+          <t>天铁股份11月03日获深股通增持170.86万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-02 08:54</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300587,1241810032.html</t>
+          <t>/news,300587,1242816603.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天铁股份11月01日获深股通增持146.09万股</t>
+          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-02 07:50</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300587,1241801272.html</t>
+          <t>/news,300587,1242335086.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
+          <t>天铁股份11月02日被深股通减持70.02万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300587,1241306996.html</t>
+          <t>/news,300587,1242326326.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天铁股份10月31日被深股通减持85.73万股</t>
+          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 08:54</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300587,1241296433.html</t>
+          <t>/news,300587,1241810032.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
+          <t>天铁股份11月01日获深股通增持146.09万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,83 +1341,83 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-31 09:05</t>
+          <t>11-02 07:50</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300587,1240799120.html</t>
+          <t>/news,300587,1241801272.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
+          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-30 17:06</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300587,1240728156.html</t>
+          <t>/news,300587,1241306996.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
+          <t>天铁股份10月31日被深股通减持85.73万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-30 15:05</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300587,1240711829.html</t>
+          <t>/news,300587,1241296433.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,61 +1427,61 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
+          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 09:05</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300587,1240706844.html</t>
+          <t>/news,300587,1240799120.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>799</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天铁股份10月28日被深股通减持67.49万股</t>
+          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 17:06</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300587,1240599842.html</t>
+          <t>/news,300587,1240728156.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
+          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 09:13</t>
+          <t>10-30 15:05</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300587,1240062748.html</t>
+          <t>/news,300587,1240711829.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,39 +1523,39 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天铁股份10月27日被深股通减持13.22万股</t>
+          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300587,1240048400.html</t>
+          <t>/news,300587,1240706844.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
+          <t>天铁股份10月28日被深股通减持67.49万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-27 08:58</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300587,1239507542.html</t>
+          <t>/news,300587,1240599842.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天铁股份10月26日获深股通增持106.73万股</t>
+          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-27 07:56</t>
+          <t>10-28 09:13</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300587,1239498479.html</t>
+          <t>/news,300587,1240062748.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,39 +1619,39 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
+          <t>天铁股份10月27日被深股通减持13.22万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-26 18:35</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300587,1239380764.html</t>
+          <t>/news,300587,1240048400.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
+          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-26 17:37</t>
+          <t>10-27 08:58</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300587,1239367913.html</t>
+          <t>/news,300587,1239507542.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天铁股份第三季度净利润增长8%</t>
+          <t>天铁股份10月26日获深股通增持106.73万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-26 10:29</t>
+          <t>10-27 07:56</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300587,1239102506.html</t>
+          <t>/news,300587,1239498479.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,39 +1715,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
+          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-26 08:53</t>
+          <t>10-26 18:35</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300587,1238978851.html</t>
+          <t>/news,300587,1239380764.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>863</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天铁股份10月25日被深股通减持33.32万股</t>
+          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-26 07:49</t>
+          <t>10-26 17:37</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300587,1238968622.html</t>
+          <t>/news,300587,1239367913.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>471</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
+          <t>天铁股份第三季度净利润增长8%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 21:18</t>
+          <t>10-26 10:29</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300587,1238893659.html</t>
+          <t>/news,300587,1239102506.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
+          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 20:02</t>
+          <t>10-26 08:53</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300587,1238880385.html</t>
+          <t>/news,300587,1238978851.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
+          <t>天铁股份10月25日被深股通减持33.32万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 18:13</t>
+          <t>10-26 07:49</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300587,1238841617.html</t>
+          <t>/news,300587,1238968622.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
+          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,61 +1885,61 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 17:03</t>
+          <t>10-25 21:18</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300587,1238822064.html</t>
+          <t>/news,300587,1238893659.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
+          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-25 17:00</t>
+          <t>10-25 20:02</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300587,1238818458.html</t>
+          <t>/news,300587,1238880385.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
+          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 08:59</t>
+          <t>10-25 18:13</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300587,1238459878.html</t>
+          <t>/news,300587,1238841617.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天铁股份10月24日被深股通减持25.39万股</t>
+          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 07:50</t>
+          <t>10-25 17:03</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300587,1238448360.html</t>
+          <t>/news,300587,1238822064.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>671</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,39 +2003,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
+          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-25 17:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300587,1237859666.html</t>
+          <t>/news,300587,1238818458.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天铁股份10月21日获深股通增持51.45万股</t>
+          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 08:59</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300587,1237796589.html</t>
+          <t>/news,300587,1238459878.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天铁股份10月20日被深股通减持13.78万股</t>
+          <t>天铁股份10月24日被深股通减持25.39万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-21 07:52</t>
+          <t>10-25 07:50</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300587,1237348780.html</t>
+          <t>/news,300587,1238448360.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,39 +2099,39 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天铁股份10月19日被深股通减持55.85万股</t>
+          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-20 07:53</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300587,1236889697.html</t>
+          <t>/news,300587,1237859666.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天铁股份10月17日获深股通增持58.05万股</t>
+          <t>天铁股份10月21日获深股通增持51.45万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300587,1236041360.html</t>
+          <t>/news,300587,1237796589.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
+          <t>天铁股份10月20日被深股通减持13.78万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-21 07:52</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300587,1235575452.html</t>
+          <t>/news,300587,1237348780.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天铁股份10月14日获深股通增持81.14万股</t>
+          <t>天铁股份10月19日被深股通减持55.85万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-15 07:57</t>
+          <t>10-20 07:53</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300587,1235512570.html</t>
+          <t>/news,300587,1236889697.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天铁股份10月13日被深股通减持32.4万股</t>
+          <t>天铁股份10月17日获深股通增持58.05万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-14 07:56</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300587,1235083260.html</t>
+          <t>/news,300587,1236041360.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
+          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-13 20:33</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300587,1234996435.html</t>
+          <t>/news,300587,1235575452.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天铁股份10月12日被深股通减持13.49万股</t>
+          <t>天铁股份10月14日获深股通增持81.14万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-13 07:51</t>
+          <t>10-15 07:57</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300587,1234645891.html</t>
+          <t>/news,300587,1235512570.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天铁股份10月11日获深股通增持19.18万股</t>
+          <t>天铁股份10月13日被深股通减持32.4万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,51 +2333,51 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-12 07:53</t>
+          <t>10-14 07:56</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300587,1234213360.html</t>
+          <t>/news,300587,1235083260.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
+          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-11 17:51</t>
+          <t>10-13 20:33</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300587,1234106982.html</t>
+          <t>/news,300587,1234996435.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
+          <t>天铁股份10月12日被深股通减持13.49万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-11 11:42</t>
+          <t>10-13 07:51</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300587,1233980598.html</t>
+          <t>/news,300587,1234645891.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天铁股份10月10日被深股通减持1.52万股</t>
+          <t>天铁股份10月11日获深股通增持19.18万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,51 +2429,51 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-11 07:46</t>
+          <t>10-12 07:53</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300587,1233836058.html</t>
+          <t>/news,300587,1234213360.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>697</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
+          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-10 16:58</t>
+          <t>10-11 17:51</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300587,1233707709.html</t>
+          <t>/news,300587,1234106982.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天铁股份：签署2900万元温州市域铁路二号线项目合同</t>
+          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-09 21:12</t>
+          <t>10-11 11:42</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300587,1233352991.html</t>
+          <t>/news,300587,1233980598.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天铁股份：与温州市域铁路二号线项目有限公司签署《合同文件》</t>
+          <t>天铁股份10月10日被深股通减持1.52万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-09 16:43</t>
+          <t>10-11 07:46</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300587,1233331178.html</t>
+          <t>/news,300587,1233836058.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少1680.19万元，居橡胶制品板块第三</t>
+          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-09 14:05</t>
+          <t>10-10 16:58</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300587,1233316782.html</t>
+          <t>/news,300587,1233707709.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天铁股份：签订3148万元橡胶浮置板销售合同</t>
+          <t>天铁股份：签署2900万元温州市域铁路二号线项目合同</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-30 20:06</t>
+          <t>10-09 21:12</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300587,1232873600.html</t>
+          <t>/news,300587,1233352991.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天铁股份：签署3148.47万元橡胶浮置板采购合同</t>
+          <t>天铁股份：与温州市域铁路二号线项目有限公司签署《合同文件》</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,51 +2621,51 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-30 18:32</t>
+          <t>10-09 16:43</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300587,1232863060.html</t>
+          <t>/news,300587,1233331178.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天铁股份：签订3148万元橡胶浮置板采购合同</t>
+          <t>天铁股份本周深股通持股市值减少1680.19万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-30 18:15</t>
+          <t>10-09 14:05</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300587,1232854497.html</t>
+          <t>/news,300587,1233316782.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>543</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天铁股份：签订《橡胶浮置板采购合同》 合同金额约3148万元</t>
+          <t>天铁股份：签订3148万元橡胶浮置板销售合同</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-30 18:05</t>
+          <t>09-30 20:06</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300587,1232853670.html</t>
+          <t>/news,300587,1232873600.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天铁股份09月29日获深股通增持34.44万股</t>
+          <t>天铁股份：签署3148.47万元橡胶浮置板采购合同</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-30 07:47</t>
+          <t>09-30 18:32</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300587,1232535590.html</t>
+          <t>/news,300587,1232863060.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>825</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天铁股份09月28日被深股通减持163.06万股</t>
+          <t>天铁股份：签订3148万元橡胶浮置板采购合同</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-29 08:06</t>
+          <t>09-30 18:15</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300587,1232090171.html</t>
+          <t>/news,300587,1232854497.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>955</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天铁股份：定增募资25.41亿元申请获深交所受理</t>
+          <t>天铁股份：签订《橡胶浮置板采购合同》 合同金额约3148万元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-29 08:02</t>
+          <t>09-30 18:05</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300587,1232089622.html</t>
+          <t>/news,300587,1232853670.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>大宗交易：天铁股份成交825.51万元，折价13.38%（09-28）</t>
+          <t>天铁股份09月29日获深股通增持34.44万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-28 18:00</t>
+          <t>09-30 07:47</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300587,1231976573.html</t>
+          <t>/news,300587,1232535590.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天铁股份09月27日获深股通增持27.97万股</t>
+          <t>天铁股份09月28日被深股通减持163.06万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-28 07:55</t>
+          <t>09-29 08:06</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300587,1231638163.html</t>
+          <t>/news,300587,1232090171.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>956</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天铁股份09月26日获深股通增持20.09万股</t>
+          <t>天铁股份：定增募资25.41亿元申请获深交所受理</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,61 +2877,61 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-27 07:56</t>
+          <t>09-29 08:02</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300587,1231248389.html</t>
+          <t>/news,300587,1232089622.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加1123.11万元，居橡胶制品板块第四</t>
+          <t>大宗交易：天铁股份成交825.51万元，折价13.38%（09-28）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-25 14:05</t>
+          <t>09-28 18:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300587,1230722829.html</t>
+          <t>/news,300587,1231976573.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天铁股份09月23日被深股通减持31.3万股</t>
+          <t>天铁股份09月27日获深股通增持27.97万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-24 07:55</t>
+          <t>09-28 07:55</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300587,1230641459.html</t>
+          <t>/news,300587,1231638163.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>未就相关借款事项履行审议程序和信披义务 天铁股份收监管函</t>
+          <t>天铁股份09月26日获深股通增持20.09万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-23 21:02</t>
+          <t>09-27 07:56</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300587,1230598079.html</t>
+          <t>/news,300587,1231248389.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>551</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>深交所向浙江天铁实业股份有限公司发出监管函</t>
+          <t>天铁股份本周深股通持股市值增加1123.11万元，居橡胶制品板块第四</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-23 16:42</t>
+          <t>09-25 14:05</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300587,1230548611.html</t>
+          <t>/news,300587,1230722829.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
+          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-15 08:52</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300587,1246698742.html</t>
+          <t>/news,300587,1247677306.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天铁股份11月14日获深股通增持191.83万股</t>
+          <t>天铁股份11月16日获深股通增持3.97万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300587,1246689937.html</t>
+          <t>/news,300587,1247665362.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
+          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300587,1246196638.html</t>
+          <t>/news,300587,1247183873.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月15日被深股通减持47.76万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300587,1246098593.html</t>
+          <t>/news,300587,1247176104.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-13 14:03</t>
+          <t>11-15 08:52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300587,1246092986.html</t>
+          <t>/news,300587,1246698742.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>518</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天铁股份11月11日获深股通增持37.92万股</t>
+          <t>天铁股份11月14日获深股通增持191.83万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-12 07:56</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300587,1245987709.html</t>
+          <t>/news,300587,1246689937.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
+          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,83 +669,83 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-11 08:55</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300587,1245425823.html</t>
+          <t>/news,300587,1246196638.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天铁股份11月10日被深股通减持153.54万股</t>
+          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300587,1245414654.html</t>
+          <t>/news,300587,1246098593.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
+          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-10 20:19</t>
+          <t>11-13 14:03</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300587,1245310258.html</t>
+          <t>/news,300587,1246092986.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1363</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
+          <t>天铁股份11月11日获深股通增持37.92万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-10 16:37</t>
+          <t>11-12 07:56</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300587,1245255362.html</t>
+          <t>/news,300587,1245987709.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
+          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-11 08:55</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300587,1244900300.html</t>
+          <t>/news,300587,1245425823.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天铁股份11月09日被深股通减持39.12万股</t>
+          <t>天铁股份11月10日被深股通减持153.54万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300587,1244890086.html</t>
+          <t>/news,300587,1245414654.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>1145</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
+          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-10 20:19</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300587,1244437480.html</t>
+          <t>/news,300587,1245310258.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>1413</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天铁股份11月08日获深股通增持34.12万股</t>
+          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-10 16:37</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300587,1244425964.html</t>
+          <t>/news,300587,1245255362.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
+          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-08 08:51</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300587,1243983480.html</t>
+          <t>/news,300587,1244900300.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天铁股份11月07日获深股通增持169.7万股</t>
+          <t>天铁股份11月09日被深股通减持39.12万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300587,1243976306.html</t>
+          <t>/news,300587,1244890086.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1248</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
+          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-07 20:44</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300587,1243901122.html</t>
+          <t>/news,300587,1244437480.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
+          <t>天铁股份11月08日获深股通增持34.12万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,51 +1021,51 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-07 08:51</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300587,1243514018.html</t>
+          <t>/news,300587,1244425964.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
+          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-06 20:21</t>
+          <t>11-08 08:51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300587,1243448935.html</t>
+          <t>/news,300587,1243983480.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,71 +1075,71 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
+          <t>天铁股份11月07日获深股通增持169.7万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300587,1243409809.html</t>
+          <t>/news,300587,1243976306.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>1283</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
+          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-07 20:44</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300587,1243404037.html</t>
+          <t>/news,300587,1243901122.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天铁股份11月04日获深股通增持52.8万股</t>
+          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,51 +1149,51 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-05 08:00</t>
+          <t>11-07 08:51</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300587,1243320258.html</t>
+          <t>/news,300587,1243514018.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
+          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-04 08:54</t>
+          <t>11-06 20:21</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300587,1242827088.html</t>
+          <t>/news,300587,1243448935.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天铁股份11月03日获深股通增持170.86万股</t>
+          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300587,1242816603.html</t>
+          <t>/news,300587,1243409809.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,39 +1235,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
+          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300587,1242335086.html</t>
+          <t>/news,300587,1243404037.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>661</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天铁股份11月02日被深股通减持70.02万股</t>
+          <t>天铁股份11月04日获深股通增持52.8万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-05 08:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300587,1242326326.html</t>
+          <t>/news,300587,1243320258.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
+          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-02 08:54</t>
+          <t>11-04 08:54</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300587,1241810032.html</t>
+          <t>/news,300587,1242827088.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天铁股份11月01日获深股通增持146.09万股</t>
+          <t>天铁股份11月03日获深股通增持170.86万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-02 07:50</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300587,1241801272.html</t>
+          <t>/news,300587,1242816603.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
+          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300587,1241306996.html</t>
+          <t>/news,300587,1242335086.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天铁股份10月31日被深股通减持85.73万股</t>
+          <t>天铁股份11月02日被深股通减持70.02万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300587,1241296433.html</t>
+          <t>/news,300587,1242326326.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
+          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,51 +1437,51 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-31 09:05</t>
+          <t>11-02 08:54</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300587,1240799120.html</t>
+          <t>/news,300587,1241810032.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
+          <t>天铁股份11月01日获深股通增持146.09万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-30 17:06</t>
+          <t>11-02 07:50</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300587,1240728156.html</t>
+          <t>/news,300587,1241801272.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,71 +1491,71 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-30 15:05</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300587,1240711829.html</t>
+          <t>/news,300587,1241306996.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
+          <t>天铁股份10月31日被深股通减持85.73万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300587,1240706844.html</t>
+          <t>/news,300587,1241296433.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天铁股份10月28日被深股通减持67.49万股</t>
+          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,51 +1565,51 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-31 09:05</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300587,1240599842.html</t>
+          <t>/news,300587,1240799120.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>804</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
+          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-28 09:13</t>
+          <t>10-30 17:06</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300587,1240062748.html</t>
+          <t>/news,300587,1240728156.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天铁股份10月27日被深股通减持13.22万股</t>
+          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-30 15:05</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300587,1240048400.html</t>
+          <t>/news,300587,1240711829.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,39 +1651,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
+          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-27 08:58</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300587,1239507542.html</t>
+          <t>/news,300587,1240706844.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>481</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天铁股份10月26日获深股通增持106.73万股</t>
+          <t>天铁股份10月28日被深股通减持67.49万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-27 07:56</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300587,1239498479.html</t>
+          <t>/news,300587,1240599842.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,39 +1715,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
+          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-26 18:35</t>
+          <t>10-28 09:13</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300587,1239380764.html</t>
+          <t>/news,300587,1240062748.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
+          <t>天铁股份10月27日被深股通减持13.22万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-26 17:37</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300587,1239367913.html</t>
+          <t>/news,300587,1240048400.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天铁股份第三季度净利润增长8%</t>
+          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-26 10:29</t>
+          <t>10-27 08:58</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300587,1239102506.html</t>
+          <t>/news,300587,1239507542.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
+          <t>天铁股份10月26日获深股通增持106.73万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,61 +1821,61 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-26 08:53</t>
+          <t>10-27 07:56</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300587,1238978851.html</t>
+          <t>/news,300587,1239498479.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天铁股份10月25日被深股通减持33.32万股</t>
+          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-26 07:49</t>
+          <t>10-26 18:35</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300587,1238968622.html</t>
+          <t>/news,300587,1239380764.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>882</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
+          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 21:18</t>
+          <t>10-26 17:37</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300587,1238893659.html</t>
+          <t>/news,300587,1239367913.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
+          <t>天铁股份第三季度净利润增长8%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-25 20:02</t>
+          <t>10-26 10:29</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300587,1238880385.html</t>
+          <t>/news,300587,1239102506.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
+          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 18:13</t>
+          <t>10-26 08:53</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300587,1238841617.html</t>
+          <t>/news,300587,1238978851.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
+          <t>天铁股份10月25日被深股通减持33.32万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,61 +1981,61 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 17:03</t>
+          <t>10-26 07:49</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300587,1238822064.html</t>
+          <t>/news,300587,1238968622.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
+          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 17:00</t>
+          <t>10-25 21:18</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300587,1238818458.html</t>
+          <t>/news,300587,1238893659.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
+          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-25 08:59</t>
+          <t>10-25 20:02</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300587,1238459878.html</t>
+          <t>/news,300587,1238880385.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天铁股份10月24日被深股通减持25.39万股</t>
+          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,93 +2077,93 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 07:50</t>
+          <t>10-25 18:13</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300587,1238448360.html</t>
+          <t>/news,300587,1238841617.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
+          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-25 17:03</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300587,1237859666.html</t>
+          <t>/news,300587,1238822064.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天铁股份10月21日获深股通增持51.45万股</t>
+          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 17:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300587,1237796589.html</t>
+          <t>/news,300587,1238818458.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天铁股份10月20日被深股通减持13.78万股</t>
+          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-21 07:52</t>
+          <t>10-25 08:59</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300587,1237348780.html</t>
+          <t>/news,300587,1238459878.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天铁股份10月19日被深股通减持55.85万股</t>
+          <t>天铁股份10月24日被深股通减持25.39万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-20 07:53</t>
+          <t>10-25 07:50</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300587,1236889697.html</t>
+          <t>/news,300587,1238448360.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,61 +2227,61 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天铁股份10月17日获深股通增持58.05万股</t>
+          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300587,1236041360.html</t>
+          <t>/news,300587,1237859666.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
+          <t>天铁股份10月21日获深股通增持51.45万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300587,1235575452.html</t>
+          <t>/news,300587,1237796589.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天铁股份10月14日获深股通增持81.14万股</t>
+          <t>天铁股份10月20日被深股通减持13.78万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-15 07:57</t>
+          <t>10-21 07:52</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300587,1235512570.html</t>
+          <t>/news,300587,1237348780.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天铁股份10月13日被深股通减持32.4万股</t>
+          <t>天铁股份10月19日被深股通减持55.85万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-14 07:56</t>
+          <t>10-20 07:53</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300587,1235083260.html</t>
+          <t>/news,300587,1236889697.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
+          <t>天铁股份10月17日获深股通增持58.05万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-13 20:33</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300587,1234996435.html</t>
+          <t>/news,300587,1236041360.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,39 +2387,39 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天铁股份10月12日被深股通减持13.49万股</t>
+          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-13 07:51</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300587,1234645891.html</t>
+          <t>/news,300587,1235575452.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天铁股份10月11日获深股通增持19.18万股</t>
+          <t>天铁股份10月14日获深股通增持81.14万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,51 +2429,51 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-12 07:53</t>
+          <t>10-15 07:57</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300587,1234213360.html</t>
+          <t>/news,300587,1235512570.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
+          <t>天铁股份10月13日被深股通减持32.4万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-11 17:51</t>
+          <t>10-14 07:56</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300587,1234106982.html</t>
+          <t>/news,300587,1235083260.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
+          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-11 11:42</t>
+          <t>10-13 20:33</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300587,1233980598.html</t>
+          <t>/news,300587,1234996435.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天铁股份10月10日被深股通减持1.52万股</t>
+          <t>天铁股份10月12日被深股通减持13.49万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-11 07:46</t>
+          <t>10-13 07:51</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300587,1233836058.html</t>
+          <t>/news,300587,1234645891.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
+          <t>天铁股份10月11日获深股通增持19.18万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,61 +2557,61 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-10 16:58</t>
+          <t>10-12 07:53</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300587,1233707709.html</t>
+          <t>/news,300587,1234213360.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>698</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天铁股份：签署2900万元温州市域铁路二号线项目合同</t>
+          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-09 21:12</t>
+          <t>10-11 17:51</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300587,1233352991.html</t>
+          <t>/news,300587,1234106982.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天铁股份：与温州市域铁路二号线项目有限公司签署《合同文件》</t>
+          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-09 16:43</t>
+          <t>10-11 11:42</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300587,1233331178.html</t>
+          <t>/news,300587,1233980598.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少1680.19万元，居橡胶制品板块第三</t>
+          <t>天铁股份10月10日被深股通减持1.52万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-09 14:05</t>
+          <t>10-11 07:46</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300587,1233316782.html</t>
+          <t>/news,300587,1233836058.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天铁股份：签订3148万元橡胶浮置板销售合同</t>
+          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-30 20:06</t>
+          <t>10-10 16:58</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300587,1232873600.html</t>
+          <t>/news,300587,1233707709.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天铁股份：签署3148.47万元橡胶浮置板采购合同</t>
+          <t>天铁股份：签署2900万元温州市域铁路二号线项目合同</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-30 18:32</t>
+          <t>10-09 21:12</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300587,1232863060.html</t>
+          <t>/news,300587,1233352991.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天铁股份：签订3148万元橡胶浮置板采购合同</t>
+          <t>天铁股份：与温州市域铁路二号线项目有限公司签署《合同文件》</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-30 18:15</t>
+          <t>10-09 16:43</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300587,1232854497.html</t>
+          <t>/news,300587,1233331178.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天铁股份：签订《橡胶浮置板采购合同》 合同金额约3148万元</t>
+          <t>天铁股份本周深股通持股市值减少1680.19万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-30 18:05</t>
+          <t>10-09 14:05</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300587,1232853670.html</t>
+          <t>/news,300587,1233316782.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天铁股份09月29日获深股通增持34.44万股</t>
+          <t>天铁股份：签订3148万元橡胶浮置板销售合同</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-30 07:47</t>
+          <t>09-30 20:06</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300587,1232535590.html</t>
+          <t>/news,300587,1232873600.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天铁股份09月28日被深股通减持163.06万股</t>
+          <t>天铁股份：签署3148.47万元橡胶浮置板采购合同</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-29 08:06</t>
+          <t>09-30 18:32</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300587,1232090171.html</t>
+          <t>/news,300587,1232863060.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>956</t>
+          <t>826</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天铁股份：定增募资25.41亿元申请获深交所受理</t>
+          <t>天铁股份：签订3148万元橡胶浮置板采购合同</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-29 08:02</t>
+          <t>09-30 18:15</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300587,1232089622.html</t>
+          <t>/news,300587,1232854497.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>大宗交易：天铁股份成交825.51万元，折价13.38%（09-28）</t>
+          <t>天铁股份：签订《橡胶浮置板采购合同》 合同金额约3148万元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-28 18:00</t>
+          <t>09-30 18:05</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300587,1231976573.html</t>
+          <t>/news,300587,1232853670.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天铁股份09月27日获深股通增持27.97万股</t>
+          <t>天铁股份09月29日获深股通增持34.44万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-28 07:55</t>
+          <t>09-30 07:47</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300587,1231638163.html</t>
+          <t>/news,300587,1232535590.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天铁股份09月26日获深股通增持20.09万股</t>
+          <t>天铁股份09月28日被深股通减持163.06万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-27 07:56</t>
+          <t>09-29 08:06</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300587,1231248389.html</t>
+          <t>/news,300587,1232090171.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>958</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加1123.11万元，居橡胶制品板块第四</t>
+          <t>天铁股份：定增募资25.41亿元申请获深交所受理</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-25 14:05</t>
+          <t>09-29 08:02</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300587,1230722829.html</t>
+          <t>/news,300587,1232089622.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>98</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
+          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-18 08:51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300587,1247677306.html</t>
+          <t>/news,300587,1248163248.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天铁股份11月16日获深股通增持3.97万股</t>
+          <t>天铁股份11月17日获深股通增持12.78万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-18 08:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300587,1247665362.html</t>
+          <t>/news,300587,1248155326.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
+          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300587,1247183873.html</t>
+          <t>/news,300587,1247677306.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天铁股份11月15日被深股通减持47.76万股</t>
+          <t>天铁股份11月16日获深股通增持3.97万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300587,1247176104.html</t>
+          <t>/news,300587,1247665362.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
+          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-15 08:52</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300587,1246698742.html</t>
+          <t>/news,300587,1247183873.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天铁股份11月14日获深股通增持191.83万股</t>
+          <t>天铁股份11月15日被深股通减持47.76万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300587,1246689937.html</t>
+          <t>/news,300587,1247176104.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
+          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,51 +669,51 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:52</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300587,1246196638.html</t>
+          <t>/news,300587,1246698742.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>529</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月14日获深股通增持191.83万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300587,1246098593.html</t>
+          <t>/news,300587,1246689937.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
+          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-13 14:03</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300587,1246092986.html</t>
+          <t>/news,300587,1246196638.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天铁股份11月11日获深股通增持37.92万股</t>
+          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-12 07:56</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300587,1245987709.html</t>
+          <t>/news,300587,1246098593.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
+          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-11 08:55</t>
+          <t>11-13 14:03</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300587,1245425823.html</t>
+          <t>/news,300587,1246092986.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天铁股份11月10日被深股通减持153.54万股</t>
+          <t>天铁股份11月11日获深股通增持37.92万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-12 07:56</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300587,1245414654.html</t>
+          <t>/news,300587,1245987709.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1145</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
+          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-10 20:19</t>
+          <t>11-11 08:55</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300587,1245310258.html</t>
+          <t>/news,300587,1245425823.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1413</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
+          <t>天铁股份11月10日被深股通减持153.54万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-10 16:37</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300587,1245255362.html</t>
+          <t>/news,300587,1245414654.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>1154</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
+          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-10 20:19</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300587,1244900300.html</t>
+          <t>/news,300587,1245310258.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>1428</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天铁股份11月09日被深股通减持39.12万股</t>
+          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-10 16:37</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300587,1244890086.html</t>
+          <t>/news,300587,1245255362.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
+          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300587,1244437480.html</t>
+          <t>/news,300587,1244900300.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天铁股份11月08日获深股通增持34.12万股</t>
+          <t>天铁股份11月09日被深股通减持39.12万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300587,1244425964.html</t>
+          <t>/news,300587,1244890086.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
+          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-08 08:51</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300587,1243983480.html</t>
+          <t>/news,300587,1244437480.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天铁股份11月07日获深股通增持169.7万股</t>
+          <t>天铁股份11月08日获深股通增持34.12万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300587,1243976306.html</t>
+          <t>/news,300587,1244425964.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1283</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
+          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-07 20:44</t>
+          <t>11-08 08:51</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300587,1243901122.html</t>
+          <t>/news,300587,1243983480.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
+          <t>天铁股份11月07日获深股通增持169.7万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,51 +1149,51 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-07 08:51</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300587,1243514018.html</t>
+          <t>/news,300587,1243976306.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>1286</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
+          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-06 20:21</t>
+          <t>11-07 20:44</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300587,1243448935.html</t>
+          <t>/news,300587,1243901122.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,93 +1203,93 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
+          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-07 08:51</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300587,1243409809.html</t>
+          <t>/news,300587,1243514018.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
+          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-06 20:21</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300587,1243404037.html</t>
+          <t>/news,300587,1243448935.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天铁股份11月04日获深股通增持52.8万股</t>
+          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-05 08:00</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300587,1243320258.html</t>
+          <t>/news,300587,1243409809.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,39 +1299,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
+          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-04 08:54</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300587,1242827088.html</t>
+          <t>/news,300587,1243404037.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>662</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天铁股份11月03日获深股通增持170.86万股</t>
+          <t>天铁股份11月04日获深股通增持52.8万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-05 08:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300587,1242816603.html</t>
+          <t>/news,300587,1243320258.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
+          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-04 08:54</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300587,1242335086.html</t>
+          <t>/news,300587,1242827088.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天铁股份11月02日被深股通减持70.02万股</t>
+          <t>天铁股份11月03日获深股通增持170.86万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300587,1242326326.html</t>
+          <t>/news,300587,1242816603.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
+          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-02 08:54</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300587,1241810032.html</t>
+          <t>/news,300587,1242335086.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天铁股份11月01日获深股通增持146.09万股</t>
+          <t>天铁股份11月02日被深股通减持70.02万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-02 07:50</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300587,1241801272.html</t>
+          <t>/news,300587,1242326326.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
+          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-02 08:54</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300587,1241306996.html</t>
+          <t>/news,300587,1241810032.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天铁股份10月31日被深股通减持85.73万股</t>
+          <t>天铁股份11月01日获深股通增持146.09万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 07:50</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300587,1241296433.html</t>
+          <t>/news,300587,1241801272.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
+          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,51 +1565,51 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-31 09:05</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300587,1240799120.html</t>
+          <t>/news,300587,1241306996.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
+          <t>天铁股份10月31日被深股通减持85.73万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-30 17:06</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300587,1240728156.html</t>
+          <t>/news,300587,1241296433.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,93 +1619,93 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-30 15:05</t>
+          <t>10-31 09:05</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300587,1240711829.html</t>
+          <t>/news,300587,1240799120.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>805</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
+          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 17:06</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300587,1240706844.html</t>
+          <t>/news,300587,1240728156.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天铁股份10月28日被深股通减持67.49万股</t>
+          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 15:05</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300587,1240599842.html</t>
+          <t>/news,300587,1240711829.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,39 +1715,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
+          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-28 09:13</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300587,1240062748.html</t>
+          <t>/news,300587,1240706844.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天铁股份10月27日被深股通减持13.22万股</t>
+          <t>天铁股份10月28日被深股通减持67.49万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300587,1240048400.html</t>
+          <t>/news,300587,1240599842.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
+          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-27 08:58</t>
+          <t>10-28 09:13</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300587,1239507542.html</t>
+          <t>/news,300587,1240062748.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天铁股份10月26日获深股通增持106.73万股</t>
+          <t>天铁股份10月27日被深股通减持13.22万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-27 07:56</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300587,1239498479.html</t>
+          <t>/news,300587,1240048400.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,39 +1843,39 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
+          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-26 18:35</t>
+          <t>10-27 08:58</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300587,1239380764.html</t>
+          <t>/news,300587,1239507542.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>882</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
+          <t>天铁股份10月26日获深股通增持106.73万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,61 +1885,61 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-26 17:37</t>
+          <t>10-27 07:56</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300587,1239367913.html</t>
+          <t>/news,300587,1239498479.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天铁股份第三季度净利润增长8%</t>
+          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-26 10:29</t>
+          <t>10-26 18:35</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300587,1239102506.html</t>
+          <t>/news,300587,1239380764.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>893</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
+          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-26 08:53</t>
+          <t>10-26 17:37</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300587,1238978851.html</t>
+          <t>/news,300587,1239367913.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天铁股份10月25日被深股通减持33.32万股</t>
+          <t>天铁股份第三季度净利润增长8%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-26 07:49</t>
+          <t>10-26 10:29</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300587,1238968622.html</t>
+          <t>/news,300587,1239102506.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
+          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 21:18</t>
+          <t>10-26 08:53</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300587,1238893659.html</t>
+          <t>/news,300587,1238978851.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
+          <t>天铁股份10月25日被深股通减持33.32万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-25 20:02</t>
+          <t>10-26 07:49</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300587,1238880385.html</t>
+          <t>/news,300587,1238968622.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
+          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 18:13</t>
+          <t>10-25 21:18</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300587,1238841617.html</t>
+          <t>/news,300587,1238893659.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
+          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-25 17:03</t>
+          <t>10-25 20:02</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300587,1238822064.html</t>
+          <t>/news,300587,1238880385.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,39 +2131,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
+          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-25 17:00</t>
+          <t>10-25 18:13</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300587,1238818458.html</t>
+          <t>/news,300587,1238841617.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>496</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
+          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-25 08:59</t>
+          <t>10-25 17:03</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300587,1238459878.html</t>
+          <t>/news,300587,1238822064.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>673</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,71 +2195,71 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天铁股份10月24日被深股通减持25.39万股</t>
+          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-25 07:50</t>
+          <t>10-25 17:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300587,1238448360.html</t>
+          <t>/news,300587,1238818458.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
+          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-25 08:59</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300587,1237859666.html</t>
+          <t>/news,300587,1238459878.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天铁股份10月21日获深股通增持51.45万股</t>
+          <t>天铁股份10月24日被深股通减持25.39万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 07:50</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300587,1237796589.html</t>
+          <t>/news,300587,1238448360.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,39 +2291,39 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天铁股份10月20日被深股通减持13.78万股</t>
+          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-21 07:52</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300587,1237348780.html</t>
+          <t>/news,300587,1237859666.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天铁股份10月19日被深股通减持55.85万股</t>
+          <t>天铁股份10月21日获深股通增持51.45万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-20 07:53</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300587,1236889697.html</t>
+          <t>/news,300587,1237796589.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天铁股份10月17日获深股通增持58.05万股</t>
+          <t>天铁股份10月20日被深股通减持13.78万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-21 07:52</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300587,1236041360.html</t>
+          <t>/news,300587,1237348780.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
+          <t>天铁股份10月19日被深股通减持55.85万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-20 07:53</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300587,1235575452.html</t>
+          <t>/news,300587,1236889697.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天铁股份10月14日获深股通增持81.14万股</t>
+          <t>天铁股份10月17日获深股通增持58.05万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-15 07:57</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300587,1235512570.html</t>
+          <t>/news,300587,1236041360.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天铁股份10月13日被深股通减持32.4万股</t>
+          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-14 07:56</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300587,1235083260.html</t>
+          <t>/news,300587,1235575452.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
+          <t>天铁股份10月14日获深股通增持81.14万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-13 20:33</t>
+          <t>10-15 07:57</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300587,1234996435.html</t>
+          <t>/news,300587,1235512570.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天铁股份10月12日被深股通减持13.49万股</t>
+          <t>天铁股份10月13日被深股通减持32.4万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-13 07:51</t>
+          <t>10-14 07:56</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300587,1234645891.html</t>
+          <t>/news,300587,1235083260.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天铁股份10月11日获深股通增持19.18万股</t>
+          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,61 +2557,61 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-12 07:53</t>
+          <t>10-13 20:33</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300587,1234213360.html</t>
+          <t>/news,300587,1234996435.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
+          <t>天铁股份10月12日被深股通减持13.49万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-11 17:51</t>
+          <t>10-13 07:51</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300587,1234106982.html</t>
+          <t>/news,300587,1234645891.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
+          <t>天铁股份10月11日获深股通增持19.18万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,51 +2621,51 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-11 11:42</t>
+          <t>10-12 07:53</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300587,1233980598.html</t>
+          <t>/news,300587,1234213360.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>698</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天铁股份10月10日被深股通减持1.52万股</t>
+          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-11 07:46</t>
+          <t>10-11 17:51</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300587,1233836058.html</t>
+          <t>/news,300587,1234106982.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
+          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-10 16:58</t>
+          <t>10-11 11:42</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300587,1233707709.html</t>
+          <t>/news,300587,1233980598.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天铁股份：签署2900万元温州市域铁路二号线项目合同</t>
+          <t>天铁股份10月10日被深股通减持1.52万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-09 21:12</t>
+          <t>10-11 07:46</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300587,1233352991.html</t>
+          <t>/news,300587,1233836058.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天铁股份：与温州市域铁路二号线项目有限公司签署《合同文件》</t>
+          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-09 16:43</t>
+          <t>10-10 16:58</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300587,1233331178.html</t>
+          <t>/news,300587,1233707709.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,39 +2771,39 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少1680.19万元，居橡胶制品板块第三</t>
+          <t>天铁股份：签署2900万元温州市域铁路二号线项目合同</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-09 14:05</t>
+          <t>10-09 21:12</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300587,1233316782.html</t>
+          <t>/news,300587,1233352991.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天铁股份：签订3148万元橡胶浮置板销售合同</t>
+          <t>天铁股份：与温州市域铁路二号线项目有限公司签署《合同文件》</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-30 20:06</t>
+          <t>10-09 16:43</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300587,1232873600.html</t>
+          <t>/news,300587,1233331178.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,39 +2835,39 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天铁股份：签署3148.47万元橡胶浮置板采购合同</t>
+          <t>天铁股份本周深股通持股市值减少1680.19万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-30 18:32</t>
+          <t>10-09 14:05</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300587,1232863060.html</t>
+          <t>/news,300587,1233316782.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天铁股份：签订3148万元橡胶浮置板采购合同</t>
+          <t>天铁股份：签订3148万元橡胶浮置板销售合同</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-30 18:15</t>
+          <t>09-30 20:06</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300587,1232854497.html</t>
+          <t>/news,300587,1232873600.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天铁股份：签订《橡胶浮置板采购合同》 合同金额约3148万元</t>
+          <t>天铁股份：签署3148.47万元橡胶浮置板采购合同</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-30 18:05</t>
+          <t>09-30 18:32</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300587,1232853670.html</t>
+          <t>/news,300587,1232863060.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>826</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天铁股份09月29日获深股通增持34.44万股</t>
+          <t>天铁股份：签订3148万元橡胶浮置板采购合同</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-30 07:47</t>
+          <t>09-30 18:15</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300587,1232535590.html</t>
+          <t>/news,300587,1232854497.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天铁股份09月28日被深股通减持163.06万股</t>
+          <t>天铁股份：签订《橡胶浮置板采购合同》 合同金额约3148万元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-29 08:06</t>
+          <t>09-30 18:05</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300587,1232090171.html</t>
+          <t>/news,300587,1232853670.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天铁股份：定增募资25.41亿元申请获深交所受理</t>
+          <t>天铁股份09月29日获深股通增持34.44万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-29 08:02</t>
+          <t>09-30 07:47</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300587,1232089622.html</t>
+          <t>/news,300587,1232535590.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>107</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
+          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-18 08:51</t>
+          <t>11-21 08:53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300587,1248163248.html</t>
+          <t>/news,300587,1248873328.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天铁股份11月17日获深股通增持12.78万股</t>
+          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-18 08:00</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300587,1248155326.html</t>
+          <t>/news,300587,1248768250.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
+          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-20 14:04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300587,1247677306.html</t>
+          <t>/news,300587,1248762611.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天铁股份11月16日获深股通增持3.97万股</t>
+          <t>天铁股份11月18日被深股通减持97.57万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-19 07:49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300587,1247665362.html</t>
+          <t>/news,300587,1248638070.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
+          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-18 08:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300587,1247183873.html</t>
+          <t>/news,300587,1248163248.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天铁股份11月15日被深股通减持47.76万股</t>
+          <t>天铁股份11月17日获深股通增持12.78万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-18 08:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300587,1247176104.html</t>
+          <t>/news,300587,1248155326.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
+          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-15 08:52</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300587,1246698742.html</t>
+          <t>/news,300587,1247677306.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天铁股份11月14日获深股通增持191.83万股</t>
+          <t>天铁股份11月16日获深股通增持3.97万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300587,1246689937.html</t>
+          <t>/news,300587,1247665362.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
+          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,51 +733,51 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300587,1246196638.html</t>
+          <t>/news,300587,1247183873.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月15日被深股通减持47.76万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300587,1246098593.html</t>
+          <t>/news,300587,1247176104.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-13 14:03</t>
+          <t>11-15 08:52</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300587,1246092986.html</t>
+          <t>/news,300587,1246698742.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>543</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天铁股份11月11日获深股通增持37.92万股</t>
+          <t>天铁股份11月14日获深股通增持191.83万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-12 07:56</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300587,1245987709.html</t>
+          <t>/news,300587,1246689937.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
+          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,83 +861,83 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-11 08:55</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300587,1245425823.html</t>
+          <t>/news,300587,1246196638.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天铁股份11月10日被深股通减持153.54万股</t>
+          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300587,1245414654.html</t>
+          <t>/news,300587,1246098593.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1154</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
+          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-10 20:19</t>
+          <t>11-13 14:03</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300587,1245310258.html</t>
+          <t>/news,300587,1246092986.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1428</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
+          <t>天铁股份11月11日获深股通增持37.92万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-10 16:37</t>
+          <t>11-12 07:56</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300587,1245255362.html</t>
+          <t>/news,300587,1245987709.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
+          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-11 08:55</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300587,1244900300.html</t>
+          <t>/news,300587,1245425823.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天铁股份11月09日被深股通减持39.12万股</t>
+          <t>天铁股份11月10日被深股通减持153.54万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300587,1244890086.html</t>
+          <t>/news,300587,1245414654.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
+          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-10 20:19</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300587,1244437480.html</t>
+          <t>/news,300587,1245310258.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>1452</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天铁股份11月08日获深股通增持34.12万股</t>
+          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-10 16:37</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300587,1244425964.html</t>
+          <t>/news,300587,1245255362.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
+          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-08 08:51</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300587,1243983480.html</t>
+          <t>/news,300587,1244900300.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天铁股份11月07日获深股通增持169.7万股</t>
+          <t>天铁股份11月09日被深股通减持39.12万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300587,1243976306.html</t>
+          <t>/news,300587,1244890086.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1286</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
+          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-07 20:44</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300587,1243901122.html</t>
+          <t>/news,300587,1244437480.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
+          <t>天铁股份11月08日获深股通增持34.12万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,51 +1213,51 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-07 08:51</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300587,1243514018.html</t>
+          <t>/news,300587,1244425964.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
+          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-06 20:21</t>
+          <t>11-08 08:51</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300587,1243448935.html</t>
+          <t>/news,300587,1243983480.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,71 +1267,71 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
+          <t>天铁股份11月07日获深股通增持169.7万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300587,1243409809.html</t>
+          <t>/news,300587,1243976306.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>1310</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
+          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-07 20:44</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300587,1243404037.html</t>
+          <t>/news,300587,1243901122.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天铁股份11月04日获深股通增持52.8万股</t>
+          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,51 +1341,51 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-05 08:00</t>
+          <t>11-07 08:51</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300587,1243320258.html</t>
+          <t>/news,300587,1243514018.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>499</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
+          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-04 08:54</t>
+          <t>11-06 20:21</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300587,1242827088.html</t>
+          <t>/news,300587,1243448935.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天铁股份11月03日获深股通增持170.86万股</t>
+          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300587,1242816603.html</t>
+          <t>/news,300587,1243409809.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,39 +1427,39 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
+          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300587,1242335086.html</t>
+          <t>/news,300587,1243404037.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>668</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天铁股份11月02日被深股通减持70.02万股</t>
+          <t>天铁股份11月04日获深股通增持52.8万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-05 08:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300587,1242326326.html</t>
+          <t>/news,300587,1243320258.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
+          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-02 08:54</t>
+          <t>11-04 08:54</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300587,1241810032.html</t>
+          <t>/news,300587,1242827088.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天铁股份11月01日获深股通增持146.09万股</t>
+          <t>天铁股份11月03日获深股通增持170.86万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-02 07:50</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300587,1241801272.html</t>
+          <t>/news,300587,1242816603.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
+          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300587,1241306996.html</t>
+          <t>/news,300587,1242335086.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天铁股份10月31日被深股通减持85.73万股</t>
+          <t>天铁股份11月02日被深股通减持70.02万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300587,1241296433.html</t>
+          <t>/news,300587,1242326326.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
+          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,51 +1629,51 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-31 09:05</t>
+          <t>11-02 08:54</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300587,1240799120.html</t>
+          <t>/news,300587,1241810032.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
+          <t>天铁股份11月01日获深股通增持146.09万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-30 17:06</t>
+          <t>11-02 07:50</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300587,1240728156.html</t>
+          <t>/news,300587,1241801272.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,71 +1683,71 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-30 15:05</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300587,1240711829.html</t>
+          <t>/news,300587,1241306996.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
+          <t>天铁股份10月31日被深股通减持85.73万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300587,1240706844.html</t>
+          <t>/news,300587,1241296433.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天铁股份10月28日被深股通减持67.49万股</t>
+          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,51 +1757,51 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-31 09:05</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300587,1240599842.html</t>
+          <t>/news,300587,1240799120.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>809</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
+          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-28 09:13</t>
+          <t>10-30 17:06</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300587,1240062748.html</t>
+          <t>/news,300587,1240728156.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天铁股份10月27日被深股通减持13.22万股</t>
+          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-30 15:05</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300587,1240048400.html</t>
+          <t>/news,300587,1240711829.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,39 +1843,39 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
+          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-27 08:58</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300587,1239507542.html</t>
+          <t>/news,300587,1240706844.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天铁股份10月26日获深股通增持106.73万股</t>
+          <t>天铁股份10月28日被深股通减持67.49万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-27 07:56</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300587,1239498479.html</t>
+          <t>/news,300587,1240599842.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,39 +1907,39 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
+          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-26 18:35</t>
+          <t>10-28 09:13</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300587,1239380764.html</t>
+          <t>/news,300587,1240062748.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>893</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
+          <t>天铁股份10月27日被深股通减持13.22万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-26 17:37</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300587,1239367913.html</t>
+          <t>/news,300587,1240048400.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天铁股份第三季度净利润增长8%</t>
+          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-26 10:29</t>
+          <t>10-27 08:58</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300587,1239102506.html</t>
+          <t>/news,300587,1239507542.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
+          <t>天铁股份10月26日获深股通增持106.73万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,61 +2013,61 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-26 08:53</t>
+          <t>10-27 07:56</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300587,1238978851.html</t>
+          <t>/news,300587,1239498479.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天铁股份10月25日被深股通减持33.32万股</t>
+          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-26 07:49</t>
+          <t>10-26 18:35</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300587,1238968622.html</t>
+          <t>/news,300587,1239380764.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>912</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
+          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 21:18</t>
+          <t>10-26 17:37</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300587,1238893659.html</t>
+          <t>/news,300587,1239367913.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
+          <t>天铁股份第三季度净利润增长8%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-25 20:02</t>
+          <t>10-26 10:29</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300587,1238880385.html</t>
+          <t>/news,300587,1239102506.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
+          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-25 18:13</t>
+          <t>10-26 08:53</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300587,1238841617.html</t>
+          <t>/news,300587,1238978851.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
+          <t>天铁股份10月25日被深股通减持33.32万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,61 +2173,61 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-25 17:03</t>
+          <t>10-26 07:49</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300587,1238822064.html</t>
+          <t>/news,300587,1238968622.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
+          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-25 17:00</t>
+          <t>10-25 21:18</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300587,1238818458.html</t>
+          <t>/news,300587,1238893659.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
+          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 08:59</t>
+          <t>10-25 20:02</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300587,1238459878.html</t>
+          <t>/news,300587,1238880385.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天铁股份10月24日被深股通减持25.39万股</t>
+          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,93 +2269,93 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 07:50</t>
+          <t>10-25 18:13</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300587,1238448360.html</t>
+          <t>/news,300587,1238841617.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>500</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
+          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-25 17:03</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300587,1237859666.html</t>
+          <t>/news,300587,1238822064.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>676</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天铁股份10月21日获深股通增持51.45万股</t>
+          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 17:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300587,1237796589.html</t>
+          <t>/news,300587,1238818458.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天铁股份10月20日被深股通减持13.78万股</t>
+          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-21 07:52</t>
+          <t>10-25 08:59</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300587,1237348780.html</t>
+          <t>/news,300587,1238459878.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天铁股份10月19日被深股通减持55.85万股</t>
+          <t>天铁股份10月24日被深股通减持25.39万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-20 07:53</t>
+          <t>10-25 07:50</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300587,1236889697.html</t>
+          <t>/news,300587,1238448360.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,61 +2419,61 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天铁股份10月17日获深股通增持58.05万股</t>
+          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300587,1236041360.html</t>
+          <t>/news,300587,1237859666.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
+          <t>天铁股份10月21日获深股通增持51.45万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300587,1235575452.html</t>
+          <t>/news,300587,1237796589.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天铁股份10月14日获深股通增持81.14万股</t>
+          <t>天铁股份10月20日被深股通减持13.78万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-15 07:57</t>
+          <t>10-21 07:52</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300587,1235512570.html</t>
+          <t>/news,300587,1237348780.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天铁股份10月13日被深股通减持32.4万股</t>
+          <t>天铁股份10月19日被深股通减持55.85万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-14 07:56</t>
+          <t>10-20 07:53</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300587,1235083260.html</t>
+          <t>/news,300587,1236889697.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
+          <t>天铁股份10月17日获深股通增持58.05万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-13 20:33</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300587,1234996435.html</t>
+          <t>/news,300587,1236041360.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,39 +2579,39 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天铁股份10月12日被深股通减持13.49万股</t>
+          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-13 07:51</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300587,1234645891.html</t>
+          <t>/news,300587,1235575452.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天铁股份10月11日获深股通增持19.18万股</t>
+          <t>天铁股份10月14日获深股通增持81.14万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,51 +2621,51 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-12 07:53</t>
+          <t>10-15 07:57</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300587,1234213360.html</t>
+          <t>/news,300587,1235512570.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
+          <t>天铁股份10月13日被深股通减持32.4万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-11 17:51</t>
+          <t>10-14 07:56</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300587,1234106982.html</t>
+          <t>/news,300587,1235083260.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
+          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-11 11:42</t>
+          <t>10-13 20:33</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300587,1233980598.html</t>
+          <t>/news,300587,1234996435.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天铁股份10月10日被深股通减持1.52万股</t>
+          <t>天铁股份10月12日被深股通减持13.49万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-11 07:46</t>
+          <t>10-13 07:51</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300587,1233836058.html</t>
+          <t>/news,300587,1234645891.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
+          <t>天铁股份10月11日获深股通增持19.18万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,61 +2749,61 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-10 16:58</t>
+          <t>10-12 07:53</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300587,1233707709.html</t>
+          <t>/news,300587,1234213360.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>700</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天铁股份：签署2900万元温州市域铁路二号线项目合同</t>
+          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-09 21:12</t>
+          <t>10-11 17:51</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300587,1233352991.html</t>
+          <t>/news,300587,1234106982.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天铁股份：与温州市域铁路二号线项目有限公司签署《合同文件》</t>
+          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-09 16:43</t>
+          <t>10-11 11:42</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300587,1233331178.html</t>
+          <t>/news,300587,1233980598.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少1680.19万元，居橡胶制品板块第三</t>
+          <t>天铁股份10月10日被深股通减持1.52万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-09 14:05</t>
+          <t>10-11 07:46</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300587,1233316782.html</t>
+          <t>/news,300587,1233836058.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天铁股份：签订3148万元橡胶浮置板销售合同</t>
+          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-30 20:06</t>
+          <t>10-10 16:58</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300587,1232873600.html</t>
+          <t>/news,300587,1233707709.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天铁股份：签署3148.47万元橡胶浮置板采购合同</t>
+          <t>天铁股份：签署2900万元温州市域铁路二号线项目合同</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-30 18:32</t>
+          <t>10-09 21:12</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300587,1232863060.html</t>
+          <t>/news,300587,1233352991.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天铁股份：签订3148万元橡胶浮置板采购合同</t>
+          <t>天铁股份：与温州市域铁路二号线项目有限公司签署《合同文件》</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-30 18:15</t>
+          <t>10-09 16:43</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300587,1232854497.html</t>
+          <t>/news,300587,1233331178.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天铁股份：签订《橡胶浮置板采购合同》 合同金额约3148万元</t>
+          <t>天铁股份本周深股通持股市值减少1680.19万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-30 18:05</t>
+          <t>10-09 14:05</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300587,1232853670.html</t>
+          <t>/news,300587,1233316782.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>548</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天铁股份09月29日获深股通增持34.44万股</t>
+          <t>天铁股份：签订3148万元橡胶浮置板销售合同</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-30 07:47</t>
+          <t>09-30 20:06</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300587,1232535590.html</t>
+          <t>/news,300587,1232873600.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -905,7 +905,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1452</t>
+          <t>1453</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2985,7 +2985,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">

--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
+          <t>天铁股份：融资净买入742.86万元，融资余额3.36亿元（11-21）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-21 08:53</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300587,1248873328.html</t>
+          <t>/news,300587,1249356793.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月21日获深股通增持19.59万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300587,1248768250.html</t>
+          <t>/news,300587,1249348156.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-20 14:04</t>
+          <t>11-21 08:53</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300587,1248762611.html</t>
+          <t>/news,300587,1248873328.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天铁股份11月18日被深股通减持97.57万股</t>
+          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-19 07:49</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300587,1248638070.html</t>
+          <t>/news,300587,1248768250.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
+          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-18 08:51</t>
+          <t>11-20 14:04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300587,1248163248.html</t>
+          <t>/news,300587,1248762611.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天铁股份11月17日获深股通增持12.78万股</t>
+          <t>天铁股份11月18日被深股通减持97.57万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-18 08:00</t>
+          <t>11-19 07:49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300587,1248155326.html</t>
+          <t>/news,300587,1248638070.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
+          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-18 08:51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300587,1247677306.html</t>
+          <t>/news,300587,1248163248.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天铁股份11月16日获深股通增持3.97万股</t>
+          <t>天铁股份11月17日获深股通增持12.78万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-18 08:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300587,1247665362.html</t>
+          <t>/news,300587,1248155326.html</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
+          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300587,1247183873.html</t>
+          <t>/news,300587,1247677306.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天铁股份11月15日被深股通减持47.76万股</t>
+          <t>天铁股份11月16日获深股通增持3.97万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300587,1247176104.html</t>
+          <t>/news,300587,1247665362.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
+          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-15 08:52</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300587,1246698742.html</t>
+          <t>/news,300587,1247183873.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天铁股份11月14日获深股通增持191.83万股</t>
+          <t>天铁股份11月15日被深股通减持47.76万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300587,1246689937.html</t>
+          <t>/news,300587,1247176104.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
+          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,51 +861,51 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:52</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300587,1246196638.html</t>
+          <t>/news,300587,1246698742.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月14日获深股通增持191.83万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300587,1246098593.html</t>
+          <t>/news,300587,1246689937.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
+          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-13 14:03</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300587,1246092986.html</t>
+          <t>/news,300587,1246196638.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天铁股份11月11日获深股通增持37.92万股</t>
+          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-12 07:56</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300587,1245987709.html</t>
+          <t>/news,300587,1246098593.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,39 +979,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
+          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-11 08:55</t>
+          <t>11-13 14:03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300587,1245425823.html</t>
+          <t>/news,300587,1246092986.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天铁股份11月10日被深股通减持153.54万股</t>
+          <t>天铁股份11月11日获深股通增持37.92万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-12 07:56</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300587,1245414654.html</t>
+          <t>/news,300587,1245987709.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
+          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-10 20:19</t>
+          <t>11-11 08:55</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300587,1245310258.html</t>
+          <t>/news,300587,1245425823.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1453</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
+          <t>天铁股份11月10日被深股通减持153.54万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-10 16:37</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300587,1245255362.html</t>
+          <t>/news,300587,1245414654.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>1179</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
+          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-10 20:19</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300587,1244900300.html</t>
+          <t>/news,300587,1245310258.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>1473</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天铁股份11月09日被深股通减持39.12万股</t>
+          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-10 16:37</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300587,1244890086.html</t>
+          <t>/news,300587,1245255362.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
+          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300587,1244437480.html</t>
+          <t>/news,300587,1244900300.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天铁股份11月08日获深股通增持34.12万股</t>
+          <t>天铁股份11月09日被深股通减持39.12万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300587,1244425964.html</t>
+          <t>/news,300587,1244890086.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
+          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-08 08:51</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300587,1243983480.html</t>
+          <t>/news,300587,1244437480.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天铁股份11月07日获深股通增持169.7万股</t>
+          <t>天铁股份11月08日获深股通增持34.12万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300587,1243976306.html</t>
+          <t>/news,300587,1244425964.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1310</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
+          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-07 20:44</t>
+          <t>11-08 08:51</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300587,1243901122.html</t>
+          <t>/news,300587,1243983480.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
+          <t>天铁股份11月07日获深股通增持169.7万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,51 +1341,51 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-07 08:51</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300587,1243514018.html</t>
+          <t>/news,300587,1243976306.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>1314</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
+          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-06 20:21</t>
+          <t>11-07 20:44</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300587,1243448935.html</t>
+          <t>/news,300587,1243901122.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,93 +1395,93 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
+          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-07 08:51</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300587,1243409809.html</t>
+          <t>/news,300587,1243514018.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
+          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-06 20:21</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300587,1243404037.html</t>
+          <t>/news,300587,1243448935.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天铁股份11月04日获深股通增持52.8万股</t>
+          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-05 08:00</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300587,1243320258.html</t>
+          <t>/news,300587,1243409809.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,39 +1491,39 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
+          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-04 08:54</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300587,1242827088.html</t>
+          <t>/news,300587,1243404037.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>670</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天铁股份11月03日获深股通增持170.86万股</t>
+          <t>天铁股份11月04日获深股通增持52.8万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-05 08:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300587,1242816603.html</t>
+          <t>/news,300587,1243320258.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
+          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-04 08:54</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300587,1242335086.html</t>
+          <t>/news,300587,1242827088.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天铁股份11月02日被深股通减持70.02万股</t>
+          <t>天铁股份11月03日获深股通增持170.86万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300587,1242326326.html</t>
+          <t>/news,300587,1242816603.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
+          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-02 08:54</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300587,1241810032.html</t>
+          <t>/news,300587,1242335086.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天铁股份11月01日获深股通增持146.09万股</t>
+          <t>天铁股份11月02日被深股通减持70.02万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-02 07:50</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300587,1241801272.html</t>
+          <t>/news,300587,1242326326.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
+          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-02 08:54</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300587,1241306996.html</t>
+          <t>/news,300587,1241810032.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天铁股份10月31日被深股通减持85.73万股</t>
+          <t>天铁股份11月01日获深股通增持146.09万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 07:50</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300587,1241296433.html</t>
+          <t>/news,300587,1241801272.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
+          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,51 +1757,51 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-31 09:05</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300587,1240799120.html</t>
+          <t>/news,300587,1241306996.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
+          <t>天铁股份10月31日被深股通减持85.73万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-30 17:06</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300587,1240728156.html</t>
+          <t>/news,300587,1241296433.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,93 +1811,93 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-30 15:05</t>
+          <t>10-31 09:05</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300587,1240711829.html</t>
+          <t>/news,300587,1240799120.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>810</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
+          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 17:06</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300587,1240706844.html</t>
+          <t>/news,300587,1240728156.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天铁股份10月28日被深股通减持67.49万股</t>
+          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 15:05</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300587,1240599842.html</t>
+          <t>/news,300587,1240711829.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,39 +1907,39 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
+          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-28 09:13</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300587,1240062748.html</t>
+          <t>/news,300587,1240706844.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天铁股份10月27日被深股通减持13.22万股</t>
+          <t>天铁股份10月28日被深股通减持67.49万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300587,1240048400.html</t>
+          <t>/news,300587,1240599842.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
+          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-27 08:58</t>
+          <t>10-28 09:13</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300587,1239507542.html</t>
+          <t>/news,300587,1240062748.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天铁股份10月26日获深股通增持106.73万股</t>
+          <t>天铁股份10月27日被深股通减持13.22万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-27 07:56</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300587,1239498479.html</t>
+          <t>/news,300587,1240048400.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,39 +2035,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
+          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-26 18:35</t>
+          <t>10-27 08:58</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300587,1239380764.html</t>
+          <t>/news,300587,1239507542.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>912</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
+          <t>天铁股份10月26日获深股通增持106.73万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,61 +2077,61 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-26 17:37</t>
+          <t>10-27 07:56</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300587,1239367913.html</t>
+          <t>/news,300587,1239498479.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天铁股份第三季度净利润增长8%</t>
+          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-26 10:29</t>
+          <t>10-26 18:35</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300587,1239102506.html</t>
+          <t>/news,300587,1239380764.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>923</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
+          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-26 08:53</t>
+          <t>10-26 17:37</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300587,1238978851.html</t>
+          <t>/news,300587,1239367913.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天铁股份10月25日被深股通减持33.32万股</t>
+          <t>天铁股份第三季度净利润增长8%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-26 07:49</t>
+          <t>10-26 10:29</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300587,1238968622.html</t>
+          <t>/news,300587,1239102506.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
+          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-25 21:18</t>
+          <t>10-26 08:53</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300587,1238893659.html</t>
+          <t>/news,300587,1238978851.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
+          <t>天铁股份10月25日被深股通减持33.32万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 20:02</t>
+          <t>10-26 07:49</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300587,1238880385.html</t>
+          <t>/news,300587,1238968622.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
+          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 18:13</t>
+          <t>10-25 21:18</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300587,1238841617.html</t>
+          <t>/news,300587,1238893659.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
+          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-25 17:03</t>
+          <t>10-25 20:02</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300587,1238822064.html</t>
+          <t>/news,300587,1238880385.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,39 +2323,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
+          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 17:00</t>
+          <t>10-25 18:13</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300587,1238818458.html</t>
+          <t>/news,300587,1238841617.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>504</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
+          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 08:59</t>
+          <t>10-25 17:03</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300587,1238459878.html</t>
+          <t>/news,300587,1238822064.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>679</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,71 +2387,71 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天铁股份10月24日被深股通减持25.39万股</t>
+          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 07:50</t>
+          <t>10-25 17:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300587,1238448360.html</t>
+          <t>/news,300587,1238818458.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
+          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-25 08:59</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300587,1237859666.html</t>
+          <t>/news,300587,1238459878.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天铁股份10月21日获深股通增持51.45万股</t>
+          <t>天铁股份10月24日被深股通减持25.39万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 07:50</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300587,1237796589.html</t>
+          <t>/news,300587,1238448360.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,39 +2483,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天铁股份10月20日被深股通减持13.78万股</t>
+          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-21 07:52</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300587,1237348780.html</t>
+          <t>/news,300587,1237859666.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天铁股份10月19日被深股通减持55.85万股</t>
+          <t>天铁股份10月21日获深股通增持51.45万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-20 07:53</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300587,1236889697.html</t>
+          <t>/news,300587,1237796589.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天铁股份10月17日获深股通增持58.05万股</t>
+          <t>天铁股份10月20日被深股通减持13.78万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-21 07:52</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300587,1236041360.html</t>
+          <t>/news,300587,1237348780.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
+          <t>天铁股份10月19日被深股通减持55.85万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-20 07:53</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300587,1235575452.html</t>
+          <t>/news,300587,1236889697.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天铁股份10月14日获深股通增持81.14万股</t>
+          <t>天铁股份10月17日获深股通增持58.05万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-15 07:57</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300587,1235512570.html</t>
+          <t>/news,300587,1236041360.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天铁股份10月13日被深股通减持32.4万股</t>
+          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-14 07:56</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300587,1235083260.html</t>
+          <t>/news,300587,1235575452.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
+          <t>天铁股份10月14日获深股通增持81.14万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-13 20:33</t>
+          <t>10-15 07:57</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300587,1234996435.html</t>
+          <t>/news,300587,1235512570.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天铁股份10月12日被深股通减持13.49万股</t>
+          <t>天铁股份10月13日被深股通减持32.4万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-13 07:51</t>
+          <t>10-14 07:56</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300587,1234645891.html</t>
+          <t>/news,300587,1235083260.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天铁股份10月11日获深股通增持19.18万股</t>
+          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,61 +2749,61 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-12 07:53</t>
+          <t>10-13 20:33</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300587,1234213360.html</t>
+          <t>/news,300587,1234996435.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
+          <t>天铁股份10月12日被深股通减持13.49万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-11 17:51</t>
+          <t>10-13 07:51</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300587,1234106982.html</t>
+          <t>/news,300587,1234645891.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
+          <t>天铁股份10月11日获深股通增持19.18万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,51 +2813,51 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-11 11:42</t>
+          <t>10-12 07:53</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300587,1233980598.html</t>
+          <t>/news,300587,1234213360.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>702</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天铁股份10月10日被深股通减持1.52万股</t>
+          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-11 07:46</t>
+          <t>10-11 17:51</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300587,1233836058.html</t>
+          <t>/news,300587,1234106982.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
+          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-10 16:58</t>
+          <t>10-11 11:42</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300587,1233707709.html</t>
+          <t>/news,300587,1233980598.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天铁股份：签署2900万元温州市域铁路二号线项目合同</t>
+          <t>天铁股份10月10日被深股通减持1.52万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-09 21:12</t>
+          <t>10-11 07:46</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300587,1233352991.html</t>
+          <t>/news,300587,1233836058.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天铁股份：与温州市域铁路二号线项目有限公司签署《合同文件》</t>
+          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-09 16:43</t>
+          <t>10-10 16:58</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300587,1233331178.html</t>
+          <t>/news,300587,1233707709.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,39 +2963,39 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少1680.19万元，居橡胶制品板块第三</t>
+          <t>天铁股份：签署2900万元温州市域铁路二号线项目合同</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-09 14:05</t>
+          <t>10-09 21:12</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300587,1233316782.html</t>
+          <t>/news,300587,1233352991.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>496</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天铁股份：签订3148万元橡胶浮置板销售合同</t>
+          <t>天铁股份：与温州市域铁路二号线项目有限公司签署《合同文件》</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-30 20:06</t>
+          <t>10-09 16:43</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300587,1232873600.html</t>
+          <t>/news,300587,1233331178.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入742.86万元，融资余额3.36亿元（11-21）</t>
+          <t>天铁股份：连续3日融资净买入累计4172.27万元（11-22）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-23 08:47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300587,1249356793.html</t>
+          <t>/news,300587,1249883621.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天铁股份11月21日获深股通增持19.59万股</t>
+          <t>天铁股份11月22日被深股通减持61.45万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-22 07:49</t>
+          <t>11-23 07:56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300587,1249348156.html</t>
+          <t>/news,300587,1249876845.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
+          <t>天铁股份：融资净买入742.86万元，融资余额3.36亿元（11-21）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-21 08:53</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300587,1248873328.html</t>
+          <t>/news,300587,1249356793.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月21日获深股通增持19.59万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300587,1248768250.html</t>
+          <t>/news,300587,1249348156.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-20 14:04</t>
+          <t>11-21 08:53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300587,1248762611.html</t>
+          <t>/news,300587,1248873328.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天铁股份11月18日被深股通减持97.57万股</t>
+          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-19 07:49</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300587,1248638070.html</t>
+          <t>/news,300587,1248768250.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
+          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-18 08:51</t>
+          <t>11-20 14:04</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300587,1248163248.html</t>
+          <t>/news,300587,1248762611.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天铁股份11月17日获深股通增持12.78万股</t>
+          <t>天铁股份11月18日被深股通减持97.57万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-18 08:00</t>
+          <t>11-19 07:49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300587,1248155326.html</t>
+          <t>/news,300587,1248638070.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
+          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-18 08:51</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300587,1247677306.html</t>
+          <t>/news,300587,1248163248.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天铁股份11月16日获深股通增持3.97万股</t>
+          <t>天铁股份11月17日获深股通增持12.78万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-18 08:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300587,1247665362.html</t>
+          <t>/news,300587,1248155326.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
+          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300587,1247183873.html</t>
+          <t>/news,300587,1247677306.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天铁股份11月15日被深股通减持47.76万股</t>
+          <t>天铁股份11月16日获深股通增持3.97万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300587,1247176104.html</t>
+          <t>/news,300587,1247665362.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
+          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-15 08:52</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300587,1246698742.html</t>
+          <t>/news,300587,1247183873.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天铁股份11月14日获深股通增持191.83万股</t>
+          <t>天铁股份11月15日被深股通减持47.76万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300587,1246689937.html</t>
+          <t>/news,300587,1247176104.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
+          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,51 +925,51 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:52</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300587,1246196638.html</t>
+          <t>/news,300587,1246698742.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月14日获深股通增持191.83万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300587,1246098593.html</t>
+          <t>/news,300587,1246689937.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
+          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-13 14:03</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300587,1246092986.html</t>
+          <t>/news,300587,1246196638.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天铁股份11月11日获深股通增持37.92万股</t>
+          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-12 07:56</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300587,1245987709.html</t>
+          <t>/news,300587,1246098593.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,39 +1043,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
+          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-11 08:55</t>
+          <t>11-13 14:03</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300587,1245425823.html</t>
+          <t>/news,300587,1246092986.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天铁股份11月10日被深股通减持153.54万股</t>
+          <t>天铁股份11月11日获深股通增持37.92万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-12 07:56</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300587,1245414654.html</t>
+          <t>/news,300587,1245987709.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1179</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
+          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-10 20:19</t>
+          <t>11-11 08:55</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300587,1245310258.html</t>
+          <t>/news,300587,1245425823.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1473</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
+          <t>天铁股份11月10日被深股通减持153.54万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-10 16:37</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300587,1245255362.html</t>
+          <t>/news,300587,1245414654.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>1182</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
+          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-10 20:19</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300587,1244900300.html</t>
+          <t>/news,300587,1245310258.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>1481</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天铁股份11月09日被深股通减持39.12万股</t>
+          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-10 16:37</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300587,1244890086.html</t>
+          <t>/news,300587,1245255362.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
+          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300587,1244437480.html</t>
+          <t>/news,300587,1244900300.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天铁股份11月08日获深股通增持34.12万股</t>
+          <t>天铁股份11月09日被深股通减持39.12万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300587,1244425964.html</t>
+          <t>/news,300587,1244890086.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
+          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-08 08:51</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300587,1243983480.html</t>
+          <t>/news,300587,1244437480.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天铁股份11月07日获深股通增持169.7万股</t>
+          <t>天铁股份11月08日获深股通增持34.12万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300587,1243976306.html</t>
+          <t>/news,300587,1244425964.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1314</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
+          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-07 20:44</t>
+          <t>11-08 08:51</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300587,1243901122.html</t>
+          <t>/news,300587,1243983480.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
+          <t>天铁股份11月07日获深股通增持169.7万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,51 +1405,51 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-07 08:51</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300587,1243514018.html</t>
+          <t>/news,300587,1243976306.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>1316</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
+          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-06 20:21</t>
+          <t>11-07 20:44</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300587,1243448935.html</t>
+          <t>/news,300587,1243901122.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,93 +1459,93 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
+          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-07 08:51</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300587,1243409809.html</t>
+          <t>/news,300587,1243514018.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
+          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-06 20:21</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300587,1243404037.html</t>
+          <t>/news,300587,1243448935.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天铁股份11月04日获深股通增持52.8万股</t>
+          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-05 08:00</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300587,1243320258.html</t>
+          <t>/news,300587,1243409809.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,39 +1555,39 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
+          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-04 08:54</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300587,1242827088.html</t>
+          <t>/news,300587,1243404037.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>671</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天铁股份11月03日获深股通增持170.86万股</t>
+          <t>天铁股份11月04日获深股通增持52.8万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-05 08:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300587,1242816603.html</t>
+          <t>/news,300587,1243320258.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
+          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-04 08:54</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300587,1242335086.html</t>
+          <t>/news,300587,1242827088.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天铁股份11月02日被深股通减持70.02万股</t>
+          <t>天铁股份11月03日获深股通增持170.86万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300587,1242326326.html</t>
+          <t>/news,300587,1242816603.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
+          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-02 08:54</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300587,1241810032.html</t>
+          <t>/news,300587,1242335086.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天铁股份11月01日获深股通增持146.09万股</t>
+          <t>天铁股份11月02日被深股通减持70.02万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-02 07:50</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300587,1241801272.html</t>
+          <t>/news,300587,1242326326.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
+          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-02 08:54</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300587,1241306996.html</t>
+          <t>/news,300587,1241810032.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天铁股份10月31日被深股通减持85.73万股</t>
+          <t>天铁股份11月01日获深股通增持146.09万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 07:50</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300587,1241296433.html</t>
+          <t>/news,300587,1241801272.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
+          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,51 +1821,51 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-31 09:05</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300587,1240799120.html</t>
+          <t>/news,300587,1241306996.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
+          <t>天铁股份10月31日被深股通减持85.73万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-30 17:06</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300587,1240728156.html</t>
+          <t>/news,300587,1241296433.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,93 +1875,93 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-30 15:05</t>
+          <t>10-31 09:05</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300587,1240711829.html</t>
+          <t>/news,300587,1240799120.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>811</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
+          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 17:06</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300587,1240706844.html</t>
+          <t>/news,300587,1240728156.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天铁股份10月28日被深股通减持67.49万股</t>
+          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 15:05</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300587,1240599842.html</t>
+          <t>/news,300587,1240711829.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,39 +1971,39 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
+          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-28 09:13</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300587,1240062748.html</t>
+          <t>/news,300587,1240706844.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天铁股份10月27日被深股通减持13.22万股</t>
+          <t>天铁股份10月28日被深股通减持67.49万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300587,1240048400.html</t>
+          <t>/news,300587,1240599842.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
+          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-27 08:58</t>
+          <t>10-28 09:13</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300587,1239507542.html</t>
+          <t>/news,300587,1240062748.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天铁股份10月26日获深股通增持106.73万股</t>
+          <t>天铁股份10月27日被深股通减持13.22万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-27 07:56</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300587,1239498479.html</t>
+          <t>/news,300587,1240048400.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,39 +2099,39 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
+          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-26 18:35</t>
+          <t>10-27 08:58</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300587,1239380764.html</t>
+          <t>/news,300587,1239507542.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
+          <t>天铁股份10月26日获深股通增持106.73万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,61 +2141,61 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-26 17:37</t>
+          <t>10-27 07:56</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300587,1239367913.html</t>
+          <t>/news,300587,1239498479.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天铁股份第三季度净利润增长8%</t>
+          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-26 10:29</t>
+          <t>10-26 18:35</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300587,1239102506.html</t>
+          <t>/news,300587,1239380764.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>929</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
+          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-26 08:53</t>
+          <t>10-26 17:37</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300587,1238978851.html</t>
+          <t>/news,300587,1239367913.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天铁股份10月25日被深股通减持33.32万股</t>
+          <t>天铁股份第三季度净利润增长8%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-26 07:49</t>
+          <t>10-26 10:29</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300587,1238968622.html</t>
+          <t>/news,300587,1239102506.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
+          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 21:18</t>
+          <t>10-26 08:53</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300587,1238893659.html</t>
+          <t>/news,300587,1238978851.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
+          <t>天铁股份10月25日被深股通减持33.32万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-25 20:02</t>
+          <t>10-26 07:49</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300587,1238880385.html</t>
+          <t>/news,300587,1238968622.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
+          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 18:13</t>
+          <t>10-25 21:18</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300587,1238841617.html</t>
+          <t>/news,300587,1238893659.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
+          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 17:03</t>
+          <t>10-25 20:02</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300587,1238822064.html</t>
+          <t>/news,300587,1238880385.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,39 +2387,39 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
+          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 17:00</t>
+          <t>10-25 18:13</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300587,1238818458.html</t>
+          <t>/news,300587,1238841617.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>504</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
+          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 08:59</t>
+          <t>10-25 17:03</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300587,1238459878.html</t>
+          <t>/news,300587,1238822064.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>679</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,71 +2451,71 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天铁股份10月24日被深股通减持25.39万股</t>
+          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 07:50</t>
+          <t>10-25 17:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300587,1238448360.html</t>
+          <t>/news,300587,1238818458.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
+          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-25 08:59</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300587,1237859666.html</t>
+          <t>/news,300587,1238459878.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天铁股份10月21日获深股通增持51.45万股</t>
+          <t>天铁股份10月24日被深股通减持25.39万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 07:50</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300587,1237796589.html</t>
+          <t>/news,300587,1238448360.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,39 +2547,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天铁股份10月20日被深股通减持13.78万股</t>
+          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-21 07:52</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300587,1237348780.html</t>
+          <t>/news,300587,1237859666.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天铁股份10月19日被深股通减持55.85万股</t>
+          <t>天铁股份10月21日获深股通增持51.45万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-20 07:53</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300587,1236889697.html</t>
+          <t>/news,300587,1237796589.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天铁股份10月17日获深股通增持58.05万股</t>
+          <t>天铁股份10月20日被深股通减持13.78万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-21 07:52</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300587,1236041360.html</t>
+          <t>/news,300587,1237348780.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
+          <t>天铁股份10月19日被深股通减持55.85万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-20 07:53</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300587,1235575452.html</t>
+          <t>/news,300587,1236889697.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天铁股份10月14日获深股通增持81.14万股</t>
+          <t>天铁股份10月17日获深股通增持58.05万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-15 07:57</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300587,1235512570.html</t>
+          <t>/news,300587,1236041360.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天铁股份10月13日被深股通减持32.4万股</t>
+          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-14 07:56</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300587,1235083260.html</t>
+          <t>/news,300587,1235575452.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
+          <t>天铁股份10月14日获深股通增持81.14万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-13 20:33</t>
+          <t>10-15 07:57</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300587,1234996435.html</t>
+          <t>/news,300587,1235512570.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天铁股份10月12日被深股通减持13.49万股</t>
+          <t>天铁股份10月13日被深股通减持32.4万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-13 07:51</t>
+          <t>10-14 07:56</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300587,1234645891.html</t>
+          <t>/news,300587,1235083260.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天铁股份10月11日获深股通增持19.18万股</t>
+          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,61 +2813,61 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-12 07:53</t>
+          <t>10-13 20:33</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300587,1234213360.html</t>
+          <t>/news,300587,1234996435.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
+          <t>天铁股份10月12日被深股通减持13.49万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-11 17:51</t>
+          <t>10-13 07:51</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300587,1234106982.html</t>
+          <t>/news,300587,1234645891.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
+          <t>天铁股份10月11日获深股通增持19.18万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,51 +2877,51 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-11 11:42</t>
+          <t>10-12 07:53</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300587,1233980598.html</t>
+          <t>/news,300587,1234213360.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>702</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天铁股份10月10日被深股通减持1.52万股</t>
+          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-11 07:46</t>
+          <t>10-11 17:51</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300587,1233836058.html</t>
+          <t>/news,300587,1234106982.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
+          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-10 16:58</t>
+          <t>10-11 11:42</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300587,1233707709.html</t>
+          <t>/news,300587,1233980598.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天铁股份：签署2900万元温州市域铁路二号线项目合同</t>
+          <t>天铁股份10月10日被深股通减持1.52万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-09 21:12</t>
+          <t>10-11 07:46</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300587,1233352991.html</t>
+          <t>/news,300587,1233836058.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天铁股份：与温州市域铁路二号线项目有限公司签署《合同文件》</t>
+          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-09 16:43</t>
+          <t>10-10 16:58</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300587,1233331178.html</t>
+          <t>/news,300587,1233707709.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>116</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计4172.27万元（11-22）</t>
+          <t>天铁股份：连续4日融资净买入累计5640.49万元（11-23）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-23 08:47</t>
+          <t>11-24 09:03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300587,1249883621.html</t>
+          <t>/news,300587,1250432329.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天铁股份11月22日被深股通减持61.45万股</t>
+          <t>天铁股份11月23日被深股通减持26.35万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-23 07:56</t>
+          <t>11-24 07:51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300587,1249876845.html</t>
+          <t>/news,300587,1250420308.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入742.86万元，融资余额3.36亿元（11-21）</t>
+          <t>天铁股份：连续3日融资净买入累计4172.27万元（11-22）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-23 08:47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300587,1249356793.html</t>
+          <t>/news,300587,1249883621.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天铁股份11月21日获深股通增持19.59万股</t>
+          <t>天铁股份11月22日被深股通减持61.45万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-22 07:49</t>
+          <t>11-23 07:56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300587,1249348156.html</t>
+          <t>/news,300587,1249876845.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
+          <t>天铁股份：融资净买入742.86万元，融资余额3.36亿元（11-21）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-21 08:53</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300587,1248873328.html</t>
+          <t>/news,300587,1249356793.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月21日获深股通增持19.59万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300587,1248768250.html</t>
+          <t>/news,300587,1249348156.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-20 14:04</t>
+          <t>11-21 08:53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300587,1248762611.html</t>
+          <t>/news,300587,1248873328.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天铁股份11月18日被深股通减持97.57万股</t>
+          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-19 07:49</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300587,1248638070.html</t>
+          <t>/news,300587,1248768250.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
+          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-18 08:51</t>
+          <t>11-20 14:04</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300587,1248163248.html</t>
+          <t>/news,300587,1248762611.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天铁股份11月17日获深股通增持12.78万股</t>
+          <t>天铁股份11月18日被深股通减持97.57万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-18 08:00</t>
+          <t>11-19 07:49</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300587,1248155326.html</t>
+          <t>/news,300587,1248638070.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
+          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-18 08:51</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300587,1247677306.html</t>
+          <t>/news,300587,1248163248.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天铁股份11月16日获深股通增持3.97万股</t>
+          <t>天铁股份11月17日获深股通增持12.78万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,12 +829,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-18 08:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300587,1247665362.html</t>
+          <t>/news,300587,1248155326.html</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
+          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300587,1247183873.html</t>
+          <t>/news,300587,1247677306.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天铁股份11月15日被深股通减持47.76万股</t>
+          <t>天铁股份11月16日获深股通增持3.97万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300587,1247176104.html</t>
+          <t>/news,300587,1247665362.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
+          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-15 08:52</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300587,1246698742.html</t>
+          <t>/news,300587,1247183873.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天铁股份11月14日获深股通增持191.83万股</t>
+          <t>天铁股份11月15日被深股通减持47.76万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300587,1246689937.html</t>
+          <t>/news,300587,1247176104.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
+          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,51 +989,51 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:52</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300587,1246196638.html</t>
+          <t>/news,300587,1246698742.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月14日获深股通增持191.83万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300587,1246098593.html</t>
+          <t>/news,300587,1246689937.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
+          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-13 14:03</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300587,1246092986.html</t>
+          <t>/news,300587,1246196638.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天铁股份11月11日获深股通增持37.92万股</t>
+          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-12 07:56</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300587,1245987709.html</t>
+          <t>/news,300587,1246098593.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,39 +1107,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
+          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-11 08:55</t>
+          <t>11-13 14:03</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300587,1245425823.html</t>
+          <t>/news,300587,1246092986.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天铁股份11月10日被深股通减持153.54万股</t>
+          <t>天铁股份11月11日获深股通增持37.92万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-12 07:56</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300587,1245414654.html</t>
+          <t>/news,300587,1245987709.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1182</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
+          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-10 20:19</t>
+          <t>11-11 08:55</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300587,1245310258.html</t>
+          <t>/news,300587,1245425823.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1481</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
+          <t>天铁股份11月10日被深股通减持153.54万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-10 16:37</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300587,1245255362.html</t>
+          <t>/news,300587,1245414654.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>1186</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
+          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-10 20:19</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300587,1244900300.html</t>
+          <t>/news,300587,1245310258.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>1494</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天铁股份11月09日被深股通减持39.12万股</t>
+          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-10 16:37</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300587,1244890086.html</t>
+          <t>/news,300587,1245255362.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
+          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300587,1244437480.html</t>
+          <t>/news,300587,1244900300.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天铁股份11月08日获深股通增持34.12万股</t>
+          <t>天铁股份11月09日被深股通减持39.12万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300587,1244425964.html</t>
+          <t>/news,300587,1244890086.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
+          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-08 08:51</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300587,1243983480.html</t>
+          <t>/news,300587,1244437480.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天铁股份11月07日获深股通增持169.7万股</t>
+          <t>天铁股份11月08日获深股通增持34.12万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300587,1243976306.html</t>
+          <t>/news,300587,1244425964.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
+          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-07 20:44</t>
+          <t>11-08 08:51</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300587,1243901122.html</t>
+          <t>/news,300587,1243983480.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
+          <t>天铁股份11月07日获深股通增持169.7万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,51 +1469,51 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-07 08:51</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300587,1243514018.html</t>
+          <t>/news,300587,1243976306.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>1325</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
+          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-06 20:21</t>
+          <t>11-07 20:44</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300587,1243448935.html</t>
+          <t>/news,300587,1243901122.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,93 +1523,93 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
+          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-07 08:51</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300587,1243409809.html</t>
+          <t>/news,300587,1243514018.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>512</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
+          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-06 20:21</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300587,1243404037.html</t>
+          <t>/news,300587,1243448935.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天铁股份11月04日获深股通增持52.8万股</t>
+          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-05 08:00</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300587,1243320258.html</t>
+          <t>/news,300587,1243409809.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,39 +1619,39 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
+          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-04 08:54</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300587,1242827088.html</t>
+          <t>/news,300587,1243404037.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>679</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天铁股份11月03日获深股通增持170.86万股</t>
+          <t>天铁股份11月04日获深股通增持52.8万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-05 08:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300587,1242816603.html</t>
+          <t>/news,300587,1243320258.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
+          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-04 08:54</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300587,1242335086.html</t>
+          <t>/news,300587,1242827088.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天铁股份11月02日被深股通减持70.02万股</t>
+          <t>天铁股份11月03日获深股通增持170.86万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300587,1242326326.html</t>
+          <t>/news,300587,1242816603.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
+          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-02 08:54</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300587,1241810032.html</t>
+          <t>/news,300587,1242335086.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天铁股份11月01日获深股通增持146.09万股</t>
+          <t>天铁股份11月02日被深股通减持70.02万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-02 07:50</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300587,1241801272.html</t>
+          <t>/news,300587,1242326326.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
+          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-02 08:54</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300587,1241306996.html</t>
+          <t>/news,300587,1241810032.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天铁股份10月31日被深股通减持85.73万股</t>
+          <t>天铁股份11月01日获深股通增持146.09万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 07:50</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300587,1241296433.html</t>
+          <t>/news,300587,1241801272.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
+          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,51 +1885,51 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-31 09:05</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300587,1240799120.html</t>
+          <t>/news,300587,1241306996.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
+          <t>天铁股份10月31日被深股通减持85.73万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-30 17:06</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300587,1240728156.html</t>
+          <t>/news,300587,1241296433.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,93 +1939,93 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-30 15:05</t>
+          <t>10-31 09:05</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300587,1240711829.html</t>
+          <t>/news,300587,1240799120.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>811</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
+          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 17:06</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300587,1240706844.html</t>
+          <t>/news,300587,1240728156.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天铁股份10月28日被深股通减持67.49万股</t>
+          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 15:05</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300587,1240599842.html</t>
+          <t>/news,300587,1240711829.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,39 +2035,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
+          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 09:13</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300587,1240062748.html</t>
+          <t>/news,300587,1240706844.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天铁股份10月27日被深股通减持13.22万股</t>
+          <t>天铁股份10月28日被深股通减持67.49万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300587,1240048400.html</t>
+          <t>/news,300587,1240599842.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
+          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-27 08:58</t>
+          <t>10-28 09:13</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300587,1239507542.html</t>
+          <t>/news,300587,1240062748.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天铁股份10月26日获深股通增持106.73万股</t>
+          <t>天铁股份10月27日被深股通减持13.22万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-27 07:56</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300587,1239498479.html</t>
+          <t>/news,300587,1240048400.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,39 +2163,39 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
+          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-26 18:35</t>
+          <t>10-27 08:58</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300587,1239380764.html</t>
+          <t>/news,300587,1239507542.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
+          <t>天铁股份10月26日获深股通增持106.73万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,61 +2205,61 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-26 17:37</t>
+          <t>10-27 07:56</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300587,1239367913.html</t>
+          <t>/news,300587,1239498479.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天铁股份第三季度净利润增长8%</t>
+          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-26 10:29</t>
+          <t>10-26 18:35</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300587,1239102506.html</t>
+          <t>/news,300587,1239380764.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>936</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
+          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-26 08:53</t>
+          <t>10-26 17:37</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300587,1238978851.html</t>
+          <t>/news,300587,1239367913.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天铁股份10月25日被深股通减持33.32万股</t>
+          <t>天铁股份第三季度净利润增长8%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-26 07:49</t>
+          <t>10-26 10:29</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300587,1238968622.html</t>
+          <t>/news,300587,1239102506.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
+          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 21:18</t>
+          <t>10-26 08:53</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300587,1238893659.html</t>
+          <t>/news,300587,1238978851.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
+          <t>天铁股份10月25日被深股通减持33.32万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 20:02</t>
+          <t>10-26 07:49</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300587,1238880385.html</t>
+          <t>/news,300587,1238968622.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
+          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 18:13</t>
+          <t>10-25 21:18</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300587,1238841617.html</t>
+          <t>/news,300587,1238893659.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
+          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 17:03</t>
+          <t>10-25 20:02</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300587,1238822064.html</t>
+          <t>/news,300587,1238880385.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,39 +2451,39 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
+          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 17:00</t>
+          <t>10-25 18:13</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300587,1238818458.html</t>
+          <t>/news,300587,1238841617.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>505</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
+          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 08:59</t>
+          <t>10-25 17:03</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300587,1238459878.html</t>
+          <t>/news,300587,1238822064.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>679</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,71 +2515,71 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天铁股份10月24日被深股通减持25.39万股</t>
+          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 07:50</t>
+          <t>10-25 17:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300587,1238448360.html</t>
+          <t>/news,300587,1238818458.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
+          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-25 08:59</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300587,1237859666.html</t>
+          <t>/news,300587,1238459878.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天铁股份10月21日获深股通增持51.45万股</t>
+          <t>天铁股份10月24日被深股通减持25.39万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 07:50</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300587,1237796589.html</t>
+          <t>/news,300587,1238448360.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,39 +2611,39 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天铁股份10月20日被深股通减持13.78万股</t>
+          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-21 07:52</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300587,1237348780.html</t>
+          <t>/news,300587,1237859666.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天铁股份10月19日被深股通减持55.85万股</t>
+          <t>天铁股份10月21日获深股通增持51.45万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-20 07:53</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300587,1236889697.html</t>
+          <t>/news,300587,1237796589.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天铁股份10月17日获深股通增持58.05万股</t>
+          <t>天铁股份10月20日被深股通减持13.78万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-21 07:52</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300587,1236041360.html</t>
+          <t>/news,300587,1237348780.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
+          <t>天铁股份10月19日被深股通减持55.85万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-20 07:53</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300587,1235575452.html</t>
+          <t>/news,300587,1236889697.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天铁股份10月14日获深股通增持81.14万股</t>
+          <t>天铁股份10月17日获深股通增持58.05万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-15 07:57</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300587,1235512570.html</t>
+          <t>/news,300587,1236041360.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天铁股份10月13日被深股通减持32.4万股</t>
+          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-14 07:56</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300587,1235083260.html</t>
+          <t>/news,300587,1235575452.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
+          <t>天铁股份10月14日获深股通增持81.14万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-13 20:33</t>
+          <t>10-15 07:57</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300587,1234996435.html</t>
+          <t>/news,300587,1235512570.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天铁股份10月12日被深股通减持13.49万股</t>
+          <t>天铁股份10月13日被深股通减持32.4万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-13 07:51</t>
+          <t>10-14 07:56</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300587,1234645891.html</t>
+          <t>/news,300587,1235083260.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天铁股份10月11日获深股通增持19.18万股</t>
+          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,61 +2877,61 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-12 07:53</t>
+          <t>10-13 20:33</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300587,1234213360.html</t>
+          <t>/news,300587,1234996435.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
+          <t>天铁股份10月12日被深股通减持13.49万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-11 17:51</t>
+          <t>10-13 07:51</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300587,1234106982.html</t>
+          <t>/news,300587,1234645891.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
+          <t>天铁股份10月11日获深股通增持19.18万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,51 +2941,51 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-11 11:42</t>
+          <t>10-12 07:53</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300587,1233980598.html</t>
+          <t>/news,300587,1234213360.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>702</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天铁股份10月10日被深股通减持1.52万股</t>
+          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-11 07:46</t>
+          <t>10-11 17:51</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300587,1233836058.html</t>
+          <t>/news,300587,1234106982.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天铁股份：“天铁转债”第三季度转股2489股</t>
+          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-10 16:58</t>
+          <t>10-11 11:42</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300587,1233707709.html</t>
+          <t>/news,300587,1233980598.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>108</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计5640.49万元（11-23）</t>
+          <t>天铁股份：连续5日融资净买入累计6439.99万元（11-24）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-24 09:03</t>
+          <t>11-25 08:56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300587,1250432329.html</t>
+          <t>/news,300587,1250952488.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>105</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天铁股份11月23日被深股通减持26.35万股</t>
+          <t>天铁股份11月24日获深股通增持12.78万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-24 07:51</t>
+          <t>11-25 07:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300587,1250420308.html</t>
+          <t>/news,300587,1250944013.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计4172.27万元（11-22）</t>
+          <t>天铁股份：连续4日融资净买入累计5640.49万元（11-23）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-23 08:47</t>
+          <t>11-24 09:03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300587,1249883621.html</t>
+          <t>/news,300587,1250432329.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天铁股份11月22日被深股通减持61.45万股</t>
+          <t>天铁股份11月23日被深股通减持26.35万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-23 07:56</t>
+          <t>11-24 07:51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300587,1249876845.html</t>
+          <t>/news,300587,1250420308.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入742.86万元，融资余额3.36亿元（11-21）</t>
+          <t>天铁股份：连续3日融资净买入累计4172.27万元（11-22）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-23 08:47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300587,1249356793.html</t>
+          <t>/news,300587,1249883621.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天铁股份11月21日获深股通增持19.59万股</t>
+          <t>天铁股份11月22日被深股通减持61.45万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-22 07:49</t>
+          <t>11-23 07:56</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300587,1249348156.html</t>
+          <t>/news,300587,1249876845.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
+          <t>天铁股份：融资净买入742.86万元，融资余额3.36亿元（11-21）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-21 08:53</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300587,1248873328.html</t>
+          <t>/news,300587,1249356793.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月21日获深股通增持19.59万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300587,1248768250.html</t>
+          <t>/news,300587,1249348156.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-20 14:04</t>
+          <t>11-21 08:53</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300587,1248762611.html</t>
+          <t>/news,300587,1248873328.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天铁股份11月18日被深股通减持97.57万股</t>
+          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-19 07:49</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300587,1248638070.html</t>
+          <t>/news,300587,1248768250.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
+          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-18 08:51</t>
+          <t>11-20 14:04</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300587,1248163248.html</t>
+          <t>/news,300587,1248762611.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天铁股份11月17日获深股通增持12.78万股</t>
+          <t>天铁股份11月18日被深股通减持97.57万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-18 08:00</t>
+          <t>11-19 07:49</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300587,1248155326.html</t>
+          <t>/news,300587,1248638070.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
+          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-18 08:51</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300587,1247677306.html</t>
+          <t>/news,300587,1248163248.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天铁股份11月16日获深股通增持3.97万股</t>
+          <t>天铁股份11月17日获深股通增持12.78万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-18 08:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300587,1247665362.html</t>
+          <t>/news,300587,1248155326.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
+          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300587,1247183873.html</t>
+          <t>/news,300587,1247677306.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天铁股份11月15日被深股通减持47.76万股</t>
+          <t>天铁股份11月16日获深股通增持3.97万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300587,1247176104.html</t>
+          <t>/news,300587,1247665362.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
+          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-15 08:52</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300587,1246698742.html</t>
+          <t>/news,300587,1247183873.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天铁股份11月14日获深股通增持191.83万股</t>
+          <t>天铁股份11月15日被深股通减持47.76万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300587,1246689937.html</t>
+          <t>/news,300587,1247176104.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
+          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,51 +1053,51 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:52</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300587,1246196638.html</t>
+          <t>/news,300587,1246698742.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>562</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月14日获深股通增持191.83万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300587,1246098593.html</t>
+          <t>/news,300587,1246689937.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
+          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-13 14:03</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300587,1246092986.html</t>
+          <t>/news,300587,1246196638.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天铁股份11月11日获深股通增持37.92万股</t>
+          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-12 07:56</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300587,1245987709.html</t>
+          <t>/news,300587,1246098593.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,39 +1171,39 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
+          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-11 08:55</t>
+          <t>11-13 14:03</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300587,1245425823.html</t>
+          <t>/news,300587,1246092986.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天铁股份11月10日被深股通减持153.54万股</t>
+          <t>天铁股份11月11日获深股通增持37.92万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-12 07:56</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300587,1245414654.html</t>
+          <t>/news,300587,1245987709.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1186</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
+          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-10 20:19</t>
+          <t>11-11 08:55</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300587,1245310258.html</t>
+          <t>/news,300587,1245425823.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
+          <t>天铁股份11月10日被深股通减持153.54万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-10 16:37</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300587,1245255362.html</t>
+          <t>/news,300587,1245414654.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>1202</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
+          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-10 20:19</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300587,1244900300.html</t>
+          <t>/news,300587,1245310258.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>1543</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天铁股份11月09日被深股通减持39.12万股</t>
+          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-10 16:37</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300587,1244890086.html</t>
+          <t>/news,300587,1245255362.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
+          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300587,1244437480.html</t>
+          <t>/news,300587,1244900300.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天铁股份11月08日获深股通增持34.12万股</t>
+          <t>天铁股份11月09日被深股通减持39.12万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300587,1244425964.html</t>
+          <t>/news,300587,1244890086.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
+          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-08 08:51</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300587,1243983480.html</t>
+          <t>/news,300587,1244437480.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天铁股份11月07日获深股通增持169.7万股</t>
+          <t>天铁股份11月08日获深股通增持34.12万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300587,1243976306.html</t>
+          <t>/news,300587,1244425964.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1325</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
+          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-07 20:44</t>
+          <t>11-08 08:51</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300587,1243901122.html</t>
+          <t>/news,300587,1243983480.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
+          <t>天铁股份11月07日获深股通增持169.7万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,51 +1533,51 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-07 08:51</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300587,1243514018.html</t>
+          <t>/news,300587,1243976306.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
+          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-06 20:21</t>
+          <t>11-07 20:44</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300587,1243448935.html</t>
+          <t>/news,300587,1243901122.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,93 +1587,93 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
+          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-07 08:51</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300587,1243409809.html</t>
+          <t>/news,300587,1243514018.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>513</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
+          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-06 20:21</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300587,1243404037.html</t>
+          <t>/news,300587,1243448935.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天铁股份11月04日获深股通增持52.8万股</t>
+          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-05 08:00</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300587,1243320258.html</t>
+          <t>/news,300587,1243409809.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,39 +1683,39 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
+          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-04 08:54</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300587,1242827088.html</t>
+          <t>/news,300587,1243404037.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>680</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天铁股份11月03日获深股通增持170.86万股</t>
+          <t>天铁股份11月04日获深股通增持52.8万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-05 08:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300587,1242816603.html</t>
+          <t>/news,300587,1243320258.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
+          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-04 08:54</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300587,1242335086.html</t>
+          <t>/news,300587,1242827088.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天铁股份11月02日被深股通减持70.02万股</t>
+          <t>天铁股份11月03日获深股通增持170.86万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300587,1242326326.html</t>
+          <t>/news,300587,1242816603.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
+          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-02 08:54</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300587,1241810032.html</t>
+          <t>/news,300587,1242335086.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天铁股份11月01日获深股通增持146.09万股</t>
+          <t>天铁股份11月02日被深股通减持70.02万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-02 07:50</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300587,1241801272.html</t>
+          <t>/news,300587,1242326326.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
+          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-02 08:54</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300587,1241306996.html</t>
+          <t>/news,300587,1241810032.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天铁股份10月31日被深股通减持85.73万股</t>
+          <t>天铁股份11月01日获深股通增持146.09万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 07:50</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300587,1241296433.html</t>
+          <t>/news,300587,1241801272.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
+          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,51 +1949,51 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-31 09:05</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300587,1240799120.html</t>
+          <t>/news,300587,1241306996.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
+          <t>天铁股份10月31日被深股通减持85.73万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-30 17:06</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300587,1240728156.html</t>
+          <t>/news,300587,1241296433.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,93 +2003,93 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-30 15:05</t>
+          <t>10-31 09:05</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300587,1240711829.html</t>
+          <t>/news,300587,1240799120.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>816</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
+          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 17:06</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300587,1240706844.html</t>
+          <t>/news,300587,1240728156.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天铁股份10月28日被深股通减持67.49万股</t>
+          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 15:05</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300587,1240599842.html</t>
+          <t>/news,300587,1240711829.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,39 +2099,39 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
+          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-28 09:13</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300587,1240062748.html</t>
+          <t>/news,300587,1240706844.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天铁股份10月27日被深股通减持13.22万股</t>
+          <t>天铁股份10月28日被深股通减持67.49万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300587,1240048400.html</t>
+          <t>/news,300587,1240599842.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
+          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-27 08:58</t>
+          <t>10-28 09:13</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300587,1239507542.html</t>
+          <t>/news,300587,1240062748.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天铁股份10月26日获深股通增持106.73万股</t>
+          <t>天铁股份10月27日被深股通减持13.22万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-27 07:56</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300587,1239498479.html</t>
+          <t>/news,300587,1240048400.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,39 +2227,39 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
+          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-26 18:35</t>
+          <t>10-27 08:58</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300587,1239380764.html</t>
+          <t>/news,300587,1239507542.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
+          <t>天铁股份10月26日获深股通增持106.73万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,61 +2269,61 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-26 17:37</t>
+          <t>10-27 07:56</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300587,1239367913.html</t>
+          <t>/news,300587,1239498479.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天铁股份第三季度净利润增长8%</t>
+          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-26 10:29</t>
+          <t>10-26 18:35</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300587,1239102506.html</t>
+          <t>/news,300587,1239380764.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>964</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
+          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-26 08:53</t>
+          <t>10-26 17:37</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300587,1238978851.html</t>
+          <t>/news,300587,1239367913.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天铁股份10月25日被深股通减持33.32万股</t>
+          <t>天铁股份第三季度净利润增长8%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-26 07:49</t>
+          <t>10-26 10:29</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300587,1238968622.html</t>
+          <t>/news,300587,1239102506.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
+          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 21:18</t>
+          <t>10-26 08:53</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300587,1238893659.html</t>
+          <t>/news,300587,1238978851.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
+          <t>天铁股份10月25日被深股通减持33.32万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 20:02</t>
+          <t>10-26 07:49</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300587,1238880385.html</t>
+          <t>/news,300587,1238968622.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
+          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 18:13</t>
+          <t>10-25 21:18</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300587,1238841617.html</t>
+          <t>/news,300587,1238893659.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
+          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 17:03</t>
+          <t>10-25 20:02</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300587,1238822064.html</t>
+          <t>/news,300587,1238880385.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,39 +2515,39 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
+          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 17:00</t>
+          <t>10-25 18:13</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300587,1238818458.html</t>
+          <t>/news,300587,1238841617.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>505</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
+          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-25 08:59</t>
+          <t>10-25 17:03</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300587,1238459878.html</t>
+          <t>/news,300587,1238822064.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>679</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,71 +2579,71 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天铁股份10月24日被深股通减持25.39万股</t>
+          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-25 07:50</t>
+          <t>10-25 17:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300587,1238448360.html</t>
+          <t>/news,300587,1238818458.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
+          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-25 08:59</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300587,1237859666.html</t>
+          <t>/news,300587,1238459878.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天铁股份10月21日获深股通增持51.45万股</t>
+          <t>天铁股份10月24日被深股通减持25.39万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 07:50</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300587,1237796589.html</t>
+          <t>/news,300587,1238448360.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,39 +2675,39 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天铁股份10月20日被深股通减持13.78万股</t>
+          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-21 07:52</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300587,1237348780.html</t>
+          <t>/news,300587,1237859666.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天铁股份10月19日被深股通减持55.85万股</t>
+          <t>天铁股份10月21日获深股通增持51.45万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-20 07:53</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300587,1236889697.html</t>
+          <t>/news,300587,1237796589.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天铁股份10月17日获深股通增持58.05万股</t>
+          <t>天铁股份10月20日被深股通减持13.78万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-21 07:52</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300587,1236041360.html</t>
+          <t>/news,300587,1237348780.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
+          <t>天铁股份10月19日被深股通减持55.85万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-20 07:53</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300587,1235575452.html</t>
+          <t>/news,300587,1236889697.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天铁股份10月14日获深股通增持81.14万股</t>
+          <t>天铁股份10月17日获深股通增持58.05万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-15 07:57</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300587,1235512570.html</t>
+          <t>/news,300587,1236041360.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天铁股份10月13日被深股通减持32.4万股</t>
+          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-14 07:56</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300587,1235083260.html</t>
+          <t>/news,300587,1235575452.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
+          <t>天铁股份10月14日获深股通增持81.14万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-13 20:33</t>
+          <t>10-15 07:57</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300587,1234996435.html</t>
+          <t>/news,300587,1235512570.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天铁股份10月12日被深股通减持13.49万股</t>
+          <t>天铁股份10月13日被深股通减持32.4万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-13 07:51</t>
+          <t>10-14 07:56</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300587,1234645891.html</t>
+          <t>/news,300587,1235083260.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天铁股份10月11日获深股通增持19.18万股</t>
+          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-12 07:53</t>
+          <t>10-13 20:33</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300587,1234213360.html</t>
+          <t>/news,300587,1234996435.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>长城证券维持天铁股份买入评级 预计2022年净利润同比增长58.5%</t>
+          <t>天铁股份10月12日被深股通减持13.49万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-11 17:51</t>
+          <t>10-13 07:51</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300587,1234106982.html</t>
+          <t>/news,300587,1234645891.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天铁股份与温州市域铁路二号线项目签署2900万元供货合同</t>
+          <t>天铁股份10月11日获深股通增持19.18万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-11 11:42</t>
+          <t>10-12 07:53</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300587,1233980598.html</t>
+          <t>/news,300587,1234213360.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计6439.99万元（11-24）</t>
+          <t>天铁股份：融资净买入620.74万元，融资余额4.19亿元（12-02）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-25 08:56</t>
+          <t>12-05 09:01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300587,1250952488.html</t>
+          <t>/news,300587,1254804854.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天铁股份11月24日获深股通增持12.78万股</t>
+          <t>天铁股份本周融资净买入2888.64万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-25 07:54</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300587,1250944013.html</t>
+          <t>/news,300587,1254648908.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,39 +531,39 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计5640.49万元（11-23）</t>
+          <t>天铁股份本周深股通持股市值增加55.2万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-24 09:03</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300587,1250432329.html</t>
+          <t>/news,300587,1254642233.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天铁股份11月23日被深股通减持26.35万股</t>
+          <t>天铁股份12月02日被深股通减持94.69万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-24 07:51</t>
+          <t>12-03 07:56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300587,1250420308.html</t>
+          <t>/news,300587,1254513012.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计4172.27万元（11-22）</t>
+          <t>天铁股份：融资净偿还278.76万元，融资余额4.13亿元（12-01）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-23 08:47</t>
+          <t>12-02 08:49</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300587,1249883621.html</t>
+          <t>/news,300587,1253920598.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天铁股份11月22日被深股通减持61.45万股</t>
+          <t>天铁股份12月01日获深股通增持220.19万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-23 07:56</t>
+          <t>12-02 07:57</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300587,1249876845.html</t>
+          <t>/news,300587,1253914565.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入742.86万元，融资余额3.36亿元（11-21）</t>
+          <t>天铁股份：连续9日融资净买入累计9874.94万元（11-30）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>12-01 08:55</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300587,1249356793.html</t>
+          <t>/news,300587,1253311771.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天铁股份11月21日获深股通增持19.59万股</t>
+          <t>天铁股份11月30日被深股通减持36.51万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-22 07:49</t>
+          <t>12-01 07:44</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300587,1249348156.html</t>
+          <t>/news,300587,1253300623.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>844</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
+          <t>天铁股份：股东翟小玉、陆凌霄共减持公司股份约14万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,93 +733,93 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-21 08:53</t>
+          <t>11-30 16:41</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300587,1248873328.html</t>
+          <t>/news,300587,1253142139.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
+          <t>天铁股份：连续8日融资净买入累计9315.91万元（11-29）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>11-30 08:51</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300587,1248768250.html</t>
+          <t>/news,300587,1252786814.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
+          <t>天铁股份11月29日被深股通减持109.03万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-20 14:04</t>
+          <t>11-30 07:53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300587,1248762611.html</t>
+          <t>/news,300587,1252779185.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>679</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天铁股份11月18日被深股通减持97.57万股</t>
+          <t>东方财富证券给予天铁股份增持评级</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-19 07:49</t>
+          <t>11-29 20:06</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300587,1248638070.html</t>
+          <t>/news,300587,1252679820.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
+          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-18 08:51</t>
+          <t>11-29 19:55</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300587,1248163248.html</t>
+          <t>/news,300587,1252639029.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天铁股份11月17日获深股通增持12.78万股</t>
+          <t>天铁股份：连续7日融资净买入累计8167.3万元（11-28）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-18 08:00</t>
+          <t>11-29 08:53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300587,1248155326.html</t>
+          <t>/news,300587,1252223491.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
+          <t>天铁股份11月28日获深股通增持20.41万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-29 07:44</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300587,1247677306.html</t>
+          <t>/news,300587,1252211682.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天铁股份11月16日获深股通增持3.97万股</t>
+          <t>天铁股份：连续6日融资净买入累计6707.55万元（11-25）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-28 08:55</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300587,1247665362.html</t>
+          <t>/news,300587,1251735921.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,61 +979,61 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
+          <t>天铁股份本周融资净买入5303.31万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-27 15:10</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300587,1247183873.html</t>
+          <t>/news,300587,1251591279.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天铁股份11月15日被深股通减持47.76万股</t>
+          <t>天铁股份本周深股通持股市值减少958.56万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300587,1247176104.html</t>
+          <t>/news,300587,1251583940.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
+          <t>天铁股份11月25日被深股通减持22.53万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-15 08:52</t>
+          <t>11-26 07:55</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300587,1246698742.html</t>
+          <t>/news,300587,1251434713.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天铁股份11月14日获深股通增持191.83万股</t>
+          <t>天铁股份：连续5日融资净买入累计6439.99万元（11-24）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-25 08:56</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300587,1246689937.html</t>
+          <t>/news,300587,1250952488.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
+          <t>天铁股份11月24日获深股通增持12.78万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-25 07:54</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300587,1246196638.html</t>
+          <t>/news,300587,1250944013.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,61 +1139,61 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
+          <t>天铁股份：连续4日融资净买入累计5640.49万元（11-23）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-24 09:03</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300587,1246098593.html</t>
+          <t>/news,300587,1250432329.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
+          <t>天铁股份11月23日被深股通减持26.35万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-13 14:03</t>
+          <t>11-24 07:51</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300587,1246092986.html</t>
+          <t>/news,300587,1250420308.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天铁股份11月11日获深股通增持37.92万股</t>
+          <t>天铁股份：连续3日融资净买入累计4172.27万元（11-22）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-12 07:56</t>
+          <t>11-23 08:47</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300587,1245987709.html</t>
+          <t>/news,300587,1249883621.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
+          <t>天铁股份11月22日被深股通减持61.45万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-11 08:55</t>
+          <t>11-23 07:56</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300587,1245425823.html</t>
+          <t>/news,300587,1249876845.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天铁股份11月10日被深股通减持153.54万股</t>
+          <t>天铁股份：融资净买入742.86万元，融资余额3.36亿元（11-21）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300587,1245414654.html</t>
+          <t>/news,300587,1249356793.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
+          <t>天铁股份11月21日获深股通增持19.59万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-10 20:19</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300587,1245310258.html</t>
+          <t>/news,300587,1249348156.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1543</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
+          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-10 16:37</t>
+          <t>11-21 08:53</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300587,1245255362.html</t>
+          <t>/news,300587,1248873328.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,71 +1363,71 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
+          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300587,1244900300.html</t>
+          <t>/news,300587,1248768250.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天铁股份11月09日被深股通减持39.12万股</t>
+          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-20 14:04</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300587,1244890086.html</t>
+          <t>/news,300587,1248762611.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
+          <t>天铁股份11月18日被深股通减持97.57万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-19 07:49</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300587,1244437480.html</t>
+          <t>/news,300587,1248638070.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天铁股份11月08日获深股通增持34.12万股</t>
+          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-18 08:51</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300587,1244425964.html</t>
+          <t>/news,300587,1248163248.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
+          <t>天铁股份11月17日获深股通增持12.78万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-08 08:51</t>
+          <t>11-18 08:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300587,1243983480.html</t>
+          <t>/news,300587,1248155326.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天铁股份11月07日获深股通增持169.7万股</t>
+          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300587,1243976306.html</t>
+          <t>/news,300587,1247677306.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1330</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
+          <t>天铁股份11月16日获深股通增持3.97万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-07 20:44</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300587,1243901122.html</t>
+          <t>/news,300587,1247665362.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
+          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-07 08:51</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300587,1243514018.html</t>
+          <t>/news,300587,1247183873.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
+          <t>天铁股份11月15日被深股通减持47.76万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-06 20:21</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300587,1243448935.html</t>
+          <t>/news,300587,1247176104.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,71 +1651,71 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
+          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-15 08:52</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300587,1243409809.html</t>
+          <t>/news,300587,1246698742.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>583</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
+          <t>天铁股份11月14日获深股通增持191.83万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300587,1243404037.html</t>
+          <t>/news,300587,1246689937.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天铁股份11月04日获深股通增持52.8万股</t>
+          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-05 08:00</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300587,1243320258.html</t>
+          <t>/news,300587,1246196638.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
+          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-04 08:54</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300587,1242827088.html</t>
+          <t>/news,300587,1246098593.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天铁股份11月03日获深股通增持170.86万股</t>
+          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-13 14:03</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300587,1242816603.html</t>
+          <t>/news,300587,1246092986.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
+          <t>天铁股份11月11日获深股通增持37.92万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-12 07:56</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300587,1242335086.html</t>
+          <t>/news,300587,1245987709.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天铁股份11月02日被深股通减持70.02万股</t>
+          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-11 08:55</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300587,1242326326.html</t>
+          <t>/news,300587,1245425823.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
+          <t>天铁股份11月10日被深股通减持153.54万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-02 08:54</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300587,1241810032.html</t>
+          <t>/news,300587,1245414654.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天铁股份11月01日获深股通增持146.09万股</t>
+          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-02 07:50</t>
+          <t>11-10 20:19</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300587,1241801272.html</t>
+          <t>/news,300587,1245310258.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>1606</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
+          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-10 16:37</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300587,1241306996.html</t>
+          <t>/news,300587,1245255362.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天铁股份10月31日被深股通减持85.73万股</t>
+          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300587,1241296433.html</t>
+          <t>/news,300587,1244900300.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
+          <t>天铁股份11月09日被深股通减持39.12万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,51 +2013,51 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-31 09:05</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300587,1240799120.html</t>
+          <t>/news,300587,1244890086.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
+          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-30 17:06</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300587,1240728156.html</t>
+          <t>/news,300587,1244437480.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
+          <t>天铁股份11月08日获深股通增持34.12万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-30 15:05</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300587,1240711829.html</t>
+          <t>/news,300587,1244425964.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,39 +2099,39 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
+          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>11-08 08:51</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300587,1240706844.html</t>
+          <t>/news,300587,1243983480.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天铁股份10月28日被深股通减持67.49万股</t>
+          <t>天铁股份11月07日获深股通增持169.7万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300587,1240599842.html</t>
+          <t>/news,300587,1243976306.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>1351</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
+          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-28 09:13</t>
+          <t>11-07 20:44</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300587,1240062748.html</t>
+          <t>/news,300587,1243901122.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天铁股份10月27日被深股通减持13.22万股</t>
+          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,83 +2205,83 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>11-07 08:51</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300587,1240048400.html</t>
+          <t>/news,300587,1243514018.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
+          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-27 08:58</t>
+          <t>11-06 20:21</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300587,1239507542.html</t>
+          <t>/news,300587,1243448935.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天铁股份10月26日获深股通增持106.73万股</t>
+          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-27 07:56</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300587,1239498479.html</t>
+          <t>/news,300587,1243409809.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,39 +2291,39 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
+          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-26 18:35</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300587,1239380764.html</t>
+          <t>/news,300587,1243404037.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>698</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
+          <t>天铁股份11月04日获深股通增持52.8万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-26 17:37</t>
+          <t>11-05 08:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300587,1239367913.html</t>
+          <t>/news,300587,1243320258.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天铁股份第三季度净利润增长8%</t>
+          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-26 10:29</t>
+          <t>11-04 08:54</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300587,1239102506.html</t>
+          <t>/news,300587,1242827088.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
+          <t>天铁股份11月03日获深股通增持170.86万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-26 08:53</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300587,1238978851.html</t>
+          <t>/news,300587,1242816603.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天铁股份10月25日被深股通减持33.32万股</t>
+          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-26 07:49</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300587,1238968622.html</t>
+          <t>/news,300587,1242335086.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>【图解季报】天铁股份：2022年前三季度归母净利润同比增长17.5%，约为3.4亿元</t>
+          <t>天铁股份11月02日被深股通减持70.02万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 21:18</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300587,1238893659.html</t>
+          <t>/news,300587,1242326326.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天铁股份：前三季度归母净利润同比涨17.47%</t>
+          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 20:02</t>
+          <t>11-02 08:54</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300587,1238880385.html</t>
+          <t>/news,300587,1241810032.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天铁股份股东户数增加51.39%，户均持股38.79万元</t>
+          <t>天铁股份11月01日获深股通增持146.09万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 18:13</t>
+          <t>11-02 07:50</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300587,1238841617.html</t>
+          <t>/news,300587,1241801272.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润约3.37亿元</t>
+          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,61 +2557,61 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-25 17:03</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300587,1238822064.html</t>
+          <t>/news,300587,1241306996.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天铁股份：2022年前三季度净利润同比增长17.47%</t>
+          <t>天铁股份10月31日被深股通减持85.73万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-25 17:00</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300587,1238818458.html</t>
+          <t>/news,300587,1241296433.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天铁股份：纳入融资融券标的首日，融资买入1347.31万元（10-24）</t>
+          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,51 +2621,51 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 08:59</t>
+          <t>10-31 09:05</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300587,1238459878.html</t>
+          <t>/news,300587,1240799120.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>840</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天铁股份10月24日被深股通减持25.39万股</t>
+          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 07:50</t>
+          <t>10-30 17:06</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300587,1238448360.html</t>
+          <t>/news,300587,1240728156.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,71 +2675,71 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少125.76万元，居橡胶制品板块第二</t>
+          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-30 15:05</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300587,1237859666.html</t>
+          <t>/news,300587,1240711829.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天铁股份10月21日获深股通增持51.45万股</t>
+          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300587,1237796589.html</t>
+          <t>/news,300587,1240706844.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>498</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天铁股份10月20日被深股通减持13.78万股</t>
+          <t>天铁股份10月28日被深股通减持67.49万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-21 07:52</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300587,1237348780.html</t>
+          <t>/news,300587,1240599842.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天铁股份10月19日被深股通减持55.85万股</t>
+          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-20 07:53</t>
+          <t>10-28 09:13</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300587,1236889697.html</t>
+          <t>/news,300587,1240062748.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天铁股份10月17日获深股通增持58.05万股</t>
+          <t>天铁股份10月27日被深股通减持13.22万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300587,1236041360.html</t>
+          <t>/news,300587,1240048400.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,39 +2835,39 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加599.99万元，居橡胶制品板块第三</t>
+          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-27 08:58</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300587,1235575452.html</t>
+          <t>/news,300587,1239507542.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天铁股份10月14日获深股通增持81.14万股</t>
+          <t>天铁股份10月26日获深股通增持106.73万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-15 07:57</t>
+          <t>10-27 07:56</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300587,1235512570.html</t>
+          <t>/news,300587,1239498479.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,39 +2899,39 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天铁股份10月13日被深股通减持32.4万股</t>
+          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-14 07:56</t>
+          <t>10-26 18:35</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300587,1235083260.html</t>
+          <t>/news,300587,1239380764.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>1007</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>【调研快报】天铁股份接待国盛证券等多家机构调研</t>
+          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-13 20:33</t>
+          <t>10-26 17:37</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300587,1234996435.html</t>
+          <t>/news,300587,1239367913.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天铁股份10月12日被深股通减持13.49万股</t>
+          <t>天铁股份第三季度净利润增长8%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-13 07:51</t>
+          <t>10-26 10:29</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300587,1234645891.html</t>
+          <t>/news,300587,1239102506.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天铁股份10月11日获深股通增持19.18万股</t>
+          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-12 07:53</t>
+          <t>10-26 08:53</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300587,1234213360.html</t>
+          <t>/news,300587,1238978851.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>107</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入620.74万元，融资余额4.19亿元（12-02）</t>
+          <t>天铁股份：融资净买入1579.32万元，融资余额4.35亿元（12-05）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-05 09:01</t>
+          <t>12-06 08:56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300587,1254804854.html</t>
+          <t>/news,300587,1255458725.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>121</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入2888.64万元，居橡胶制品板块第二</t>
+          <t>天铁股份12月05日被深股通减持28.06万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-04 15:04</t>
+          <t>12-06 08:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300587,1254648908.html</t>
+          <t>/news,300587,1255450225.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加55.2万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入620.74万元，融资余额4.19亿元（12-02）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-04 14:04</t>
+          <t>12-05 09:01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300587,1254642233.html</t>
+          <t>/news,300587,1254804854.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天铁股份12月02日被深股通减持94.69万股</t>
+          <t>天铁股份本周融资净买入2888.64万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-03 07:56</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300587,1254513012.html</t>
+          <t>/news,300587,1254648908.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还278.76万元，融资余额4.13亿元（12-01）</t>
+          <t>天铁股份本周深股通持股市值增加55.2万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-02 08:49</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300587,1253920598.html</t>
+          <t>/news,300587,1254642233.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天铁股份12月01日获深股通增持220.19万股</t>
+          <t>天铁股份12月02日被深股通减持94.69万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-02 07:57</t>
+          <t>12-03 07:56</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300587,1253914565.html</t>
+          <t>/news,300587,1254513012.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天铁股份：连续9日融资净买入累计9874.94万元（11-30）</t>
+          <t>天铁股份：融资净偿还278.76万元，融资余额4.13亿元（12-01）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-01 08:55</t>
+          <t>12-02 08:49</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300587,1253311771.html</t>
+          <t>/news,300587,1253920598.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天铁股份11月30日被深股通减持36.51万股</t>
+          <t>天铁股份12月01日获深股通增持220.19万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-01 07:44</t>
+          <t>12-02 07:57</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300587,1253300623.html</t>
+          <t>/news,300587,1253914565.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天铁股份：股东翟小玉、陆凌霄共减持公司股份约14万股</t>
+          <t>天铁股份：连续9日融资净买入累计9874.94万元（11-30）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-30 16:41</t>
+          <t>12-01 08:55</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300587,1253142139.html</t>
+          <t>/news,300587,1253311771.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天铁股份：连续8日融资净买入累计9315.91万元（11-29）</t>
+          <t>天铁股份11月30日被深股通减持36.51万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-30 08:51</t>
+          <t>12-01 07:44</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300587,1252786814.html</t>
+          <t>/news,300587,1253300623.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>861</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天铁股份11月29日被深股通减持109.03万股</t>
+          <t>天铁股份：股东翟小玉、陆凌霄共减持公司股份约14万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-30 07:53</t>
+          <t>11-30 16:41</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300587,1252779185.html</t>
+          <t>/news,300587,1253142139.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级</t>
+          <t>天铁股份：连续8日融资净买入累计9315.91万元（11-29）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,61 +829,61 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-29 20:06</t>
+          <t>11-30 08:51</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300587,1252679820.html</t>
+          <t>/news,300587,1252786814.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
+          <t>天铁股份11月29日被深股通减持109.03万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-29 19:55</t>
+          <t>11-30 07:53</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300587,1252639029.html</t>
+          <t>/news,300587,1252779185.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>695</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天铁股份：连续7日融资净买入累计8167.3万元（11-28）</t>
+          <t>东方财富证券给予天铁股份增持评级</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-29 08:53</t>
+          <t>11-29 20:06</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300587,1252223491.html</t>
+          <t>/news,300587,1252679820.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天铁股份11月28日获深股通增持20.41万股</t>
+          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-29 07:44</t>
+          <t>11-29 19:55</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300587,1252211682.html</t>
+          <t>/news,300587,1252639029.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天铁股份：连续6日融资净买入累计6707.55万元（11-25）</t>
+          <t>天铁股份：连续7日融资净买入累计8167.3万元（11-28）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-28 08:55</t>
+          <t>11-29 08:53</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300587,1251735921.html</t>
+          <t>/news,300587,1252223491.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入5303.31万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月28日获深股通增持20.41万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-27 15:10</t>
+          <t>11-29 07:44</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300587,1251591279.html</t>
+          <t>/news,300587,1252211682.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少958.56万元，居橡胶制品板块第二</t>
+          <t>天铁股份：连续6日融资净买入累计6707.55万元（11-25）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-27 14:05</t>
+          <t>11-28 08:55</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300587,1251583940.html</t>
+          <t>/news,300587,1251735921.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天铁股份11月25日被深股通减持22.53万股</t>
+          <t>天铁股份本周融资净买入5303.31万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-26 07:55</t>
+          <t>11-27 15:10</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300587,1251434713.html</t>
+          <t>/news,300587,1251591279.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计6439.99万元（11-24）</t>
+          <t>天铁股份本周深股通持股市值减少958.56万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-25 08:56</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300587,1250952488.html</t>
+          <t>/news,300587,1251583940.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天铁股份11月24日获深股通增持12.78万股</t>
+          <t>天铁股份11月25日被深股通减持22.53万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-25 07:54</t>
+          <t>11-26 07:55</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300587,1250944013.html</t>
+          <t>/news,300587,1251434713.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计5640.49万元（11-23）</t>
+          <t>天铁股份：连续5日融资净买入累计6439.99万元（11-24）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-24 09:03</t>
+          <t>11-25 08:56</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300587,1250432329.html</t>
+          <t>/news,300587,1250952488.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天铁股份11月23日被深股通减持26.35万股</t>
+          <t>天铁股份11月24日获深股通增持12.78万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-24 07:51</t>
+          <t>11-25 07:54</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300587,1250420308.html</t>
+          <t>/news,300587,1250944013.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计4172.27万元（11-22）</t>
+          <t>天铁股份：连续4日融资净买入累计5640.49万元（11-23）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-23 08:47</t>
+          <t>11-24 09:03</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300587,1249883621.html</t>
+          <t>/news,300587,1250432329.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天铁股份11月22日被深股通减持61.45万股</t>
+          <t>天铁股份11月23日被深股通减持26.35万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-23 07:56</t>
+          <t>11-24 07:51</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300587,1249876845.html</t>
+          <t>/news,300587,1250420308.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入742.86万元，融资余额3.36亿元（11-21）</t>
+          <t>天铁股份：连续3日融资净买入累计4172.27万元（11-22）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-23 08:47</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300587,1249356793.html</t>
+          <t>/news,300587,1249883621.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天铁股份11月21日获深股通增持19.59万股</t>
+          <t>天铁股份11月22日被深股通减持61.45万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-22 07:49</t>
+          <t>11-23 07:56</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300587,1249348156.html</t>
+          <t>/news,300587,1249876845.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
+          <t>天铁股份：融资净买入742.86万元，融资余额3.36亿元（11-21）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-21 08:53</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300587,1248873328.html</t>
+          <t>/news,300587,1249356793.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月21日获深股通增持19.59万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300587,1248768250.html</t>
+          <t>/news,300587,1249348156.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-20 14:04</t>
+          <t>11-21 08:53</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300587,1248762611.html</t>
+          <t>/news,300587,1248873328.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天铁股份11月18日被深股通减持97.57万股</t>
+          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-19 07:49</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300587,1248638070.html</t>
+          <t>/news,300587,1248768250.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
+          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-18 08:51</t>
+          <t>11-20 14:04</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300587,1248163248.html</t>
+          <t>/news,300587,1248762611.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天铁股份11月17日获深股通增持12.78万股</t>
+          <t>天铁股份11月18日被深股通减持97.57万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-18 08:00</t>
+          <t>11-19 07:49</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300587,1248155326.html</t>
+          <t>/news,300587,1248638070.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
+          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-18 08:51</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300587,1247677306.html</t>
+          <t>/news,300587,1248163248.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天铁股份11月16日获深股通增持3.97万股</t>
+          <t>天铁股份11月17日获深股通增持12.78万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-18 08:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300587,1247665362.html</t>
+          <t>/news,300587,1248155326.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
+          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300587,1247183873.html</t>
+          <t>/news,300587,1247677306.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天铁股份11月15日被深股通减持47.76万股</t>
+          <t>天铁股份11月16日获深股通增持3.97万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300587,1247176104.html</t>
+          <t>/news,300587,1247665362.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
+          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-15 08:52</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300587,1246698742.html</t>
+          <t>/news,300587,1247183873.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天铁股份11月14日获深股通增持191.83万股</t>
+          <t>天铁股份11月15日被深股通减持47.76万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300587,1246689937.html</t>
+          <t>/news,300587,1247176104.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
+          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,51 +1725,51 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:52</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300587,1246196638.html</t>
+          <t>/news,300587,1246698742.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>583</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月14日获深股通增持191.83万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300587,1246098593.html</t>
+          <t>/news,300587,1246689937.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
+          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-13 14:03</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300587,1246092986.html</t>
+          <t>/news,300587,1246196638.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天铁股份11月11日获深股通增持37.92万股</t>
+          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-12 07:56</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300587,1245987709.html</t>
+          <t>/news,300587,1246098593.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,39 +1843,39 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
+          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-11 08:55</t>
+          <t>11-13 14:03</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300587,1245425823.html</t>
+          <t>/news,300587,1246092986.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天铁股份11月10日被深股通减持153.54万股</t>
+          <t>天铁股份11月11日获深股通增持37.92万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-12 07:56</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300587,1245414654.html</t>
+          <t>/news,300587,1245987709.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
+          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-10 20:19</t>
+          <t>11-11 08:55</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300587,1245310258.html</t>
+          <t>/news,300587,1245425823.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1606</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
+          <t>天铁股份11月10日被深股通减持153.54万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-10 16:37</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300587,1245255362.html</t>
+          <t>/news,300587,1245414654.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
+          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-10 20:19</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300587,1244900300.html</t>
+          <t>/news,300587,1245310258.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>1610</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天铁股份11月09日被深股通减持39.12万股</t>
+          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-10 16:37</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300587,1244890086.html</t>
+          <t>/news,300587,1245255362.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
+          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300587,1244437480.html</t>
+          <t>/news,300587,1244900300.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天铁股份11月08日获深股通增持34.12万股</t>
+          <t>天铁股份11月09日被深股通减持39.12万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300587,1244425964.html</t>
+          <t>/news,300587,1244890086.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
+          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-08 08:51</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300587,1243983480.html</t>
+          <t>/news,300587,1244437480.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天铁股份11月07日获深股通增持169.7万股</t>
+          <t>天铁股份11月08日获深股通增持34.12万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300587,1243976306.html</t>
+          <t>/news,300587,1244425964.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1351</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
+          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-07 20:44</t>
+          <t>11-08 08:51</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300587,1243901122.html</t>
+          <t>/news,300587,1243983480.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
+          <t>天铁股份11月07日获深股通增持169.7万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,51 +2205,51 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-07 08:51</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300587,1243514018.html</t>
+          <t>/news,300587,1243976306.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>1352</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
+          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-06 20:21</t>
+          <t>11-07 20:44</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300587,1243448935.html</t>
+          <t>/news,300587,1243901122.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,93 +2259,93 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
+          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-07 08:51</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300587,1243409809.html</t>
+          <t>/news,300587,1243514018.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
+          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-06 20:21</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300587,1243404037.html</t>
+          <t>/news,300587,1243448935.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天铁股份11月04日获深股通增持52.8万股</t>
+          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-05 08:00</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300587,1243320258.html</t>
+          <t>/news,300587,1243409809.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,39 +2355,39 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
+          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-04 08:54</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300587,1242827088.html</t>
+          <t>/news,300587,1243404037.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>698</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天铁股份11月03日获深股通增持170.86万股</t>
+          <t>天铁股份11月04日获深股通增持52.8万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-05 08:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300587,1242816603.html</t>
+          <t>/news,300587,1243320258.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
+          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-04 08:54</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300587,1242335086.html</t>
+          <t>/news,300587,1242827088.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天铁股份11月02日被深股通减持70.02万股</t>
+          <t>天铁股份11月03日获深股通增持170.86万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300587,1242326326.html</t>
+          <t>/news,300587,1242816603.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
+          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-02 08:54</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300587,1241810032.html</t>
+          <t>/news,300587,1242335086.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天铁股份11月01日获深股通增持146.09万股</t>
+          <t>天铁股份11月02日被深股通减持70.02万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-02 07:50</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300587,1241801272.html</t>
+          <t>/news,300587,1242326326.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
+          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-02 08:54</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300587,1241306996.html</t>
+          <t>/news,300587,1241810032.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天铁股份10月31日被深股通减持85.73万股</t>
+          <t>天铁股份11月01日获深股通增持146.09万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 07:50</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300587,1241296433.html</t>
+          <t>/news,300587,1241801272.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
+          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,51 +2621,51 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-31 09:05</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300587,1240799120.html</t>
+          <t>/news,300587,1241306996.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
+          <t>天铁股份10月31日被深股通减持85.73万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-30 17:06</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300587,1240728156.html</t>
+          <t>/news,300587,1241296433.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,93 +2675,93 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-30 15:05</t>
+          <t>10-31 09:05</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300587,1240711829.html</t>
+          <t>/news,300587,1240799120.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>845</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
+          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 17:06</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300587,1240706844.html</t>
+          <t>/news,300587,1240728156.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天铁股份10月28日被深股通减持67.49万股</t>
+          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 15:05</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300587,1240599842.html</t>
+          <t>/news,300587,1240711829.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,39 +2771,39 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
+          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-28 09:13</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300587,1240062748.html</t>
+          <t>/news,300587,1240706844.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>499</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天铁股份10月27日被深股通减持13.22万股</t>
+          <t>天铁股份10月28日被深股通减持67.49万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300587,1240048400.html</t>
+          <t>/news,300587,1240599842.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
+          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-27 08:58</t>
+          <t>10-28 09:13</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300587,1239507542.html</t>
+          <t>/news,300587,1240062748.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天铁股份10月26日获深股通增持106.73万股</t>
+          <t>天铁股份10月27日被深股通减持13.22万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-27 07:56</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300587,1239498479.html</t>
+          <t>/news,300587,1240048400.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,39 +2899,39 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
+          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-26 18:35</t>
+          <t>10-27 08:58</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300587,1239380764.html</t>
+          <t>/news,300587,1239507542.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1007</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
+          <t>天铁股份10月26日获深股通增持106.73万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-26 17:37</t>
+          <t>10-27 07:56</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300587,1239367913.html</t>
+          <t>/news,300587,1239498479.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天铁股份第三季度净利润增长8%</t>
+          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-26 10:29</t>
+          <t>10-26 18:35</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300587,1239102506.html</t>
+          <t>/news,300587,1239380764.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>1007</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1373.88万元，融资余额2697.49万元（10-25）</t>
+          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-26 08:53</t>
+          <t>10-26 17:37</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300587,1238978851.html</t>
+          <t>/news,300587,1239367913.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>116</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1579.32万元，融资余额4.35亿元（12-05）</t>
+          <t>天铁股份：连续3日融资净买入累计2639.94万元（12-06）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-06 08:56</t>
+          <t>12-07 09:02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300587,1255458725.html</t>
+          <t>/news,300587,1256102170.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>113</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天铁股份12月05日被深股通减持28.06万股</t>
+          <t>天铁股份12月06日获深股通增持2.65万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-06 08:00</t>
+          <t>12-07 07:58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300587,1255450225.html</t>
+          <t>/news,300587,1256092679.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入620.74万元，融资余额4.19亿元（12-02）</t>
+          <t>天铁股份：融资净买入1579.32万元，融资余额4.35亿元（12-05）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-05 09:01</t>
+          <t>12-06 08:56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300587,1254804854.html</t>
+          <t>/news,300587,1255458725.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入2888.64万元，居橡胶制品板块第二</t>
+          <t>天铁股份12月05日被深股通减持28.06万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-04 15:04</t>
+          <t>12-06 08:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300587,1254648908.html</t>
+          <t>/news,300587,1255450225.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加55.2万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入620.74万元，融资余额4.19亿元（12-02）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-04 14:04</t>
+          <t>12-05 09:01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300587,1254642233.html</t>
+          <t>/news,300587,1254804854.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天铁股份12月02日被深股通减持94.69万股</t>
+          <t>天铁股份本周融资净买入2888.64万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-03 07:56</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300587,1254513012.html</t>
+          <t>/news,300587,1254648908.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,39 +659,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还278.76万元，融资余额4.13亿元（12-01）</t>
+          <t>天铁股份本周深股通持股市值增加55.2万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-02 08:49</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300587,1253920598.html</t>
+          <t>/news,300587,1254642233.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天铁股份12月01日获深股通增持220.19万股</t>
+          <t>天铁股份12月02日被深股通减持94.69万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-02 07:57</t>
+          <t>12-03 07:56</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300587,1253914565.html</t>
+          <t>/news,300587,1254513012.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天铁股份：连续9日融资净买入累计9874.94万元（11-30）</t>
+          <t>天铁股份：融资净偿还278.76万元，融资余额4.13亿元（12-01）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-01 08:55</t>
+          <t>12-02 08:49</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300587,1253311771.html</t>
+          <t>/news,300587,1253920598.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天铁股份11月30日被深股通减持36.51万股</t>
+          <t>天铁股份12月01日获深股通增持220.19万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-01 07:44</t>
+          <t>12-02 07:57</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300587,1253300623.html</t>
+          <t>/news,300587,1253914565.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天铁股份：股东翟小玉、陆凌霄共减持公司股份约14万股</t>
+          <t>天铁股份：连续9日融资净买入累计9874.94万元（11-30）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-30 16:41</t>
+          <t>12-01 08:55</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300587,1253142139.html</t>
+          <t>/news,300587,1253311771.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天铁股份：连续8日融资净买入累计9315.91万元（11-29）</t>
+          <t>天铁股份11月30日被深股通减持36.51万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-30 08:51</t>
+          <t>12-01 07:44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300587,1252786814.html</t>
+          <t>/news,300587,1253300623.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>876</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天铁股份11月29日被深股通减持109.03万股</t>
+          <t>天铁股份：股东翟小玉、陆凌霄共减持公司股份约14万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-30 07:53</t>
+          <t>11-30 16:41</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300587,1252779185.html</t>
+          <t>/news,300587,1253142139.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级</t>
+          <t>天铁股份：连续8日融资净买入累计9315.91万元（11-29）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,61 +893,61 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-29 20:06</t>
+          <t>11-30 08:51</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300587,1252679820.html</t>
+          <t>/news,300587,1252786814.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
+          <t>天铁股份11月29日被深股通减持109.03万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-29 19:55</t>
+          <t>11-30 07:53</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300587,1252639029.html</t>
+          <t>/news,300587,1252779185.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>706</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天铁股份：连续7日融资净买入累计8167.3万元（11-28）</t>
+          <t>东方财富证券给予天铁股份增持评级</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-29 08:53</t>
+          <t>11-29 20:06</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300587,1252223491.html</t>
+          <t>/news,300587,1252679820.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天铁股份11月28日获深股通增持20.41万股</t>
+          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-29 07:44</t>
+          <t>11-29 19:55</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300587,1252211682.html</t>
+          <t>/news,300587,1252639029.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天铁股份：连续6日融资净买入累计6707.55万元（11-25）</t>
+          <t>天铁股份：连续7日融资净买入累计8167.3万元（11-28）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-28 08:55</t>
+          <t>11-29 08:53</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300587,1251735921.html</t>
+          <t>/news,300587,1252223491.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入5303.31万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月28日获深股通增持20.41万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-27 15:10</t>
+          <t>11-29 07:44</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300587,1251591279.html</t>
+          <t>/news,300587,1252211682.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少958.56万元，居橡胶制品板块第二</t>
+          <t>天铁股份：连续6日融资净买入累计6707.55万元（11-25）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-27 14:05</t>
+          <t>11-28 08:55</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300587,1251583940.html</t>
+          <t>/news,300587,1251735921.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天铁股份11月25日被深股通减持22.53万股</t>
+          <t>天铁股份本周融资净买入5303.31万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-26 07:55</t>
+          <t>11-27 15:10</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300587,1251434713.html</t>
+          <t>/news,300587,1251591279.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计6439.99万元（11-24）</t>
+          <t>天铁股份本周深股通持股市值减少958.56万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-25 08:56</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300587,1250952488.html</t>
+          <t>/news,300587,1251583940.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天铁股份11月24日获深股通增持12.78万股</t>
+          <t>天铁股份11月25日被深股通减持22.53万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-25 07:54</t>
+          <t>11-26 07:55</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300587,1250944013.html</t>
+          <t>/news,300587,1251434713.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计5640.49万元（11-23）</t>
+          <t>天铁股份：连续5日融资净买入累计6439.99万元（11-24）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-24 09:03</t>
+          <t>11-25 08:56</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300587,1250432329.html</t>
+          <t>/news,300587,1250952488.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天铁股份11月23日被深股通减持26.35万股</t>
+          <t>天铁股份11月24日获深股通增持12.78万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-24 07:51</t>
+          <t>11-25 07:54</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300587,1250420308.html</t>
+          <t>/news,300587,1250944013.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计4172.27万元（11-22）</t>
+          <t>天铁股份：连续4日融资净买入累计5640.49万元（11-23）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-23 08:47</t>
+          <t>11-24 09:03</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300587,1249883621.html</t>
+          <t>/news,300587,1250432329.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天铁股份11月22日被深股通减持61.45万股</t>
+          <t>天铁股份11月23日被深股通减持26.35万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-23 07:56</t>
+          <t>11-24 07:51</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300587,1249876845.html</t>
+          <t>/news,300587,1250420308.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入742.86万元，融资余额3.36亿元（11-21）</t>
+          <t>天铁股份：连续3日融资净买入累计4172.27万元（11-22）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-23 08:47</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300587,1249356793.html</t>
+          <t>/news,300587,1249883621.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天铁股份11月21日获深股通增持19.59万股</t>
+          <t>天铁股份11月22日被深股通减持61.45万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-22 07:49</t>
+          <t>11-23 07:56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300587,1249348156.html</t>
+          <t>/news,300587,1249876845.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
+          <t>天铁股份：融资净买入742.86万元，融资余额3.36亿元（11-21）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-21 08:53</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300587,1248873328.html</t>
+          <t>/news,300587,1249356793.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月21日获深股通增持19.59万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300587,1248768250.html</t>
+          <t>/news,300587,1249348156.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-20 14:04</t>
+          <t>11-21 08:53</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300587,1248762611.html</t>
+          <t>/news,300587,1248873328.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天铁股份11月18日被深股通减持97.57万股</t>
+          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-19 07:49</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300587,1248638070.html</t>
+          <t>/news,300587,1248768250.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
+          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-18 08:51</t>
+          <t>11-20 14:04</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300587,1248163248.html</t>
+          <t>/news,300587,1248762611.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天铁股份11月17日获深股通增持12.78万股</t>
+          <t>天铁股份11月18日被深股通减持97.57万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-18 08:00</t>
+          <t>11-19 07:49</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300587,1248155326.html</t>
+          <t>/news,300587,1248638070.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
+          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-18 08:51</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300587,1247677306.html</t>
+          <t>/news,300587,1248163248.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天铁股份11月16日获深股通增持3.97万股</t>
+          <t>天铁股份11月17日获深股通增持12.78万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-18 08:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300587,1247665362.html</t>
+          <t>/news,300587,1248155326.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
+          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300587,1247183873.html</t>
+          <t>/news,300587,1247677306.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天铁股份11月15日被深股通减持47.76万股</t>
+          <t>天铁股份11月16日获深股通增持3.97万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,12 +1693,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300587,1247176104.html</t>
+          <t>/news,300587,1247665362.html</t>
         </is>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
+          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-15 08:52</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300587,1246698742.html</t>
+          <t>/news,300587,1247183873.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天铁股份11月14日获深股通增持191.83万股</t>
+          <t>天铁股份11月15日被深股通减持47.76万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300587,1246689937.html</t>
+          <t>/news,300587,1247176104.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
+          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,51 +1789,51 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:52</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300587,1246196638.html</t>
+          <t>/news,300587,1246698742.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月14日获深股通增持191.83万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300587,1246098593.html</t>
+          <t>/news,300587,1246689937.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
+          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-13 14:03</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300587,1246092986.html</t>
+          <t>/news,300587,1246196638.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天铁股份11月11日获深股通增持37.92万股</t>
+          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-12 07:56</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300587,1245987709.html</t>
+          <t>/news,300587,1246098593.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,39 +1907,39 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
+          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-11 08:55</t>
+          <t>11-13 14:03</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300587,1245425823.html</t>
+          <t>/news,300587,1246092986.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天铁股份11月10日被深股通减持153.54万股</t>
+          <t>天铁股份11月11日获深股通增持37.92万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-12 07:56</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300587,1245414654.html</t>
+          <t>/news,300587,1245987709.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
+          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-10 20:19</t>
+          <t>11-11 08:55</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300587,1245310258.html</t>
+          <t>/news,300587,1245425823.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1610</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
+          <t>天铁股份11月10日被深股通减持153.54万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-10 16:37</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300587,1245255362.html</t>
+          <t>/news,300587,1245414654.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
+          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-10 20:19</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300587,1244900300.html</t>
+          <t>/news,300587,1245310258.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>1613</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天铁股份11月09日被深股通减持39.12万股</t>
+          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-10 16:37</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300587,1244890086.html</t>
+          <t>/news,300587,1245255362.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
+          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300587,1244437480.html</t>
+          <t>/news,300587,1244900300.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天铁股份11月08日获深股通增持34.12万股</t>
+          <t>天铁股份11月09日被深股通减持39.12万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300587,1244425964.html</t>
+          <t>/news,300587,1244890086.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
+          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-08 08:51</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300587,1243983480.html</t>
+          <t>/news,300587,1244437480.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天铁股份11月07日获深股通增持169.7万股</t>
+          <t>天铁股份11月08日获深股通增持34.12万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300587,1243976306.html</t>
+          <t>/news,300587,1244425964.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1352</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
+          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-07 20:44</t>
+          <t>11-08 08:51</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300587,1243901122.html</t>
+          <t>/news,300587,1243983480.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
+          <t>天铁股份11月07日获深股通增持169.7万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,51 +2269,51 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-07 08:51</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300587,1243514018.html</t>
+          <t>/news,300587,1243976306.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>1352</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
+          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-06 20:21</t>
+          <t>11-07 20:44</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300587,1243448935.html</t>
+          <t>/news,300587,1243901122.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,93 +2323,93 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
+          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-07 08:51</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300587,1243409809.html</t>
+          <t>/news,300587,1243514018.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
+          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-06 20:21</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300587,1243404037.html</t>
+          <t>/news,300587,1243448935.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天铁股份11月04日获深股通增持52.8万股</t>
+          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-05 08:00</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300587,1243320258.html</t>
+          <t>/news,300587,1243409809.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,39 +2419,39 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
+          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-04 08:54</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300587,1242827088.html</t>
+          <t>/news,300587,1243404037.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>698</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天铁股份11月03日获深股通增持170.86万股</t>
+          <t>天铁股份11月04日获深股通增持52.8万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-05 08:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300587,1242816603.html</t>
+          <t>/news,300587,1243320258.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
+          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-04 08:54</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300587,1242335086.html</t>
+          <t>/news,300587,1242827088.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天铁股份11月02日被深股通减持70.02万股</t>
+          <t>天铁股份11月03日获深股通增持170.86万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300587,1242326326.html</t>
+          <t>/news,300587,1242816603.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
+          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-02 08:54</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300587,1241810032.html</t>
+          <t>/news,300587,1242335086.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天铁股份11月01日获深股通增持146.09万股</t>
+          <t>天铁股份11月02日被深股通减持70.02万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-02 07:50</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300587,1241801272.html</t>
+          <t>/news,300587,1242326326.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
+          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-02 08:54</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300587,1241306996.html</t>
+          <t>/news,300587,1241810032.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天铁股份10月31日被深股通减持85.73万股</t>
+          <t>天铁股份11月01日获深股通增持146.09万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 07:50</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300587,1241296433.html</t>
+          <t>/news,300587,1241801272.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
+          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,51 +2685,51 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-31 09:05</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300587,1240799120.html</t>
+          <t>/news,300587,1241306996.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>845</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
+          <t>天铁股份10月31日被深股通减持85.73万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-30 17:06</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300587,1240728156.html</t>
+          <t>/news,300587,1241296433.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,93 +2739,93 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-30 15:05</t>
+          <t>10-31 09:05</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300587,1240711829.html</t>
+          <t>/news,300587,1240799120.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>848</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
+          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 17:06</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300587,1240706844.html</t>
+          <t>/news,300587,1240728156.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天铁股份10月28日被深股通减持67.49万股</t>
+          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 15:05</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300587,1240599842.html</t>
+          <t>/news,300587,1240711829.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,39 +2835,39 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
+          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-28 09:13</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300587,1240062748.html</t>
+          <t>/news,300587,1240706844.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>499</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天铁股份10月27日被深股通减持13.22万股</t>
+          <t>天铁股份10月28日被深股通减持67.49万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300587,1240048400.html</t>
+          <t>/news,300587,1240599842.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
+          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-27 08:58</t>
+          <t>10-28 09:13</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300587,1239507542.html</t>
+          <t>/news,300587,1240062748.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天铁股份10月26日获深股通增持106.73万股</t>
+          <t>天铁股份10月27日被深股通减持13.22万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-27 07:56</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300587,1239498479.html</t>
+          <t>/news,300587,1240048400.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,39 +2963,39 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
+          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-26 18:35</t>
+          <t>10-27 08:58</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300587,1239380764.html</t>
+          <t>/news,300587,1239507542.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1007</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级，2022年三季报点评：三季度业绩符合预期，盐湖储量公告在即</t>
+          <t>天铁股份10月26日获深股通增持106.73万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-26 17:37</t>
+          <t>10-27 07:56</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300587,1239367913.html</t>
+          <t>/news,300587,1239498479.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>107</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计2639.94万元（12-06）</t>
+          <t>天铁股份：融资净偿还71.89万元，融资余额4.39亿元（12-07）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-07 09:02</t>
+          <t>12-08 08:53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300587,1256102170.html</t>
+          <t>/news,300587,1256766934.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>111</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天铁股份12月06日获深股通增持2.65万股</t>
+          <t>天铁股份12月07日获深股通增持1.29万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-07 07:58</t>
+          <t>12-08 07:47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300587,1256092679.html</t>
+          <t>/news,300587,1256755483.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1579.32万元，融资余额4.35亿元（12-05）</t>
+          <t>天铁股份：连续3日融资净买入累计2639.94万元（12-06）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-06 08:56</t>
+          <t>12-07 09:02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300587,1255458725.html</t>
+          <t>/news,300587,1256102170.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天铁股份12月05日被深股通减持28.06万股</t>
+          <t>天铁股份12月06日获深股通增持2.65万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-06 08:00</t>
+          <t>12-07 07:58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300587,1255450225.html</t>
+          <t>/news,300587,1256092679.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入620.74万元，融资余额4.19亿元（12-02）</t>
+          <t>天铁股份：融资净买入1579.32万元，融资余额4.35亿元（12-05）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-05 09:01</t>
+          <t>12-06 08:56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300587,1254804854.html</t>
+          <t>/news,300587,1255458725.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入2888.64万元，居橡胶制品板块第二</t>
+          <t>天铁股份12月05日被深股通减持28.06万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-04 15:04</t>
+          <t>12-06 08:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300587,1254648908.html</t>
+          <t>/news,300587,1255450225.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加55.2万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入620.74万元，融资余额4.19亿元（12-02）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-04 14:04</t>
+          <t>12-05 09:01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300587,1254642233.html</t>
+          <t>/news,300587,1254804854.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天铁股份12月02日被深股通减持94.69万股</t>
+          <t>天铁股份本周融资净买入2888.64万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-03 07:56</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300587,1254513012.html</t>
+          <t>/news,300587,1254648908.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,39 +723,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还278.76万元，融资余额4.13亿元（12-01）</t>
+          <t>天铁股份本周深股通持股市值增加55.2万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-02 08:49</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300587,1253920598.html</t>
+          <t>/news,300587,1254642233.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天铁股份12月01日获深股通增持220.19万股</t>
+          <t>天铁股份12月02日被深股通减持94.69万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-02 07:57</t>
+          <t>12-03 07:56</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300587,1253914565.html</t>
+          <t>/news,300587,1254513012.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天铁股份：连续9日融资净买入累计9874.94万元（11-30）</t>
+          <t>天铁股份：融资净偿还278.76万元，融资余额4.13亿元（12-01）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-01 08:55</t>
+          <t>12-02 08:49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300587,1253311771.html</t>
+          <t>/news,300587,1253920598.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天铁股份11月30日被深股通减持36.51万股</t>
+          <t>天铁股份12月01日获深股通增持220.19万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-01 07:44</t>
+          <t>12-02 07:57</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300587,1253300623.html</t>
+          <t>/news,300587,1253914565.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天铁股份：股东翟小玉、陆凌霄共减持公司股份约14万股</t>
+          <t>天铁股份：连续9日融资净买入累计9874.94万元（11-30）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-30 16:41</t>
+          <t>12-01 08:55</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300587,1253142139.html</t>
+          <t>/news,300587,1253311771.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天铁股份：连续8日融资净买入累计9315.91万元（11-29）</t>
+          <t>天铁股份11月30日被深股通减持36.51万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-30 08:51</t>
+          <t>12-01 07:44</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300587,1252786814.html</t>
+          <t>/news,300587,1253300623.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>881</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天铁股份11月29日被深股通减持109.03万股</t>
+          <t>天铁股份：股东翟小玉、陆凌霄共减持公司股份约14万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-30 07:53</t>
+          <t>11-30 16:41</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300587,1252779185.html</t>
+          <t>/news,300587,1253142139.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级</t>
+          <t>天铁股份：连续8日融资净买入累计9315.91万元（11-29）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,61 +957,61 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-29 20:06</t>
+          <t>11-30 08:51</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300587,1252679820.html</t>
+          <t>/news,300587,1252786814.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
+          <t>天铁股份11月29日被深股通减持109.03万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-29 19:55</t>
+          <t>11-30 07:53</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300587,1252639029.html</t>
+          <t>/news,300587,1252779185.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>715</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天铁股份：连续7日融资净买入累计8167.3万元（11-28）</t>
+          <t>东方财富证券给予天铁股份增持评级</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-29 08:53</t>
+          <t>11-29 20:06</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300587,1252223491.html</t>
+          <t>/news,300587,1252679820.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天铁股份11月28日获深股通增持20.41万股</t>
+          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-29 07:44</t>
+          <t>11-29 19:55</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300587,1252211682.html</t>
+          <t>/news,300587,1252639029.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天铁股份：连续6日融资净买入累计6707.55万元（11-25）</t>
+          <t>天铁股份：连续7日融资净买入累计8167.3万元（11-28）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-28 08:55</t>
+          <t>11-29 08:53</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300587,1251735921.html</t>
+          <t>/news,300587,1252223491.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入5303.31万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月28日获深股通增持20.41万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-27 15:10</t>
+          <t>11-29 07:44</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300587,1251591279.html</t>
+          <t>/news,300587,1252211682.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少958.56万元，居橡胶制品板块第二</t>
+          <t>天铁股份：连续6日融资净买入累计6707.55万元（11-25）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-27 14:05</t>
+          <t>11-28 08:55</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300587,1251583940.html</t>
+          <t>/news,300587,1251735921.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天铁股份11月25日被深股通减持22.53万股</t>
+          <t>天铁股份本周融资净买入5303.31万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-26 07:55</t>
+          <t>11-27 15:10</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300587,1251434713.html</t>
+          <t>/news,300587,1251591279.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计6439.99万元（11-24）</t>
+          <t>天铁股份本周深股通持股市值减少958.56万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-25 08:56</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300587,1250952488.html</t>
+          <t>/news,300587,1251583940.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天铁股份11月24日获深股通增持12.78万股</t>
+          <t>天铁股份11月25日被深股通减持22.53万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-25 07:54</t>
+          <t>11-26 07:55</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300587,1250944013.html</t>
+          <t>/news,300587,1251434713.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计5640.49万元（11-23）</t>
+          <t>天铁股份：连续5日融资净买入累计6439.99万元（11-24）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-24 09:03</t>
+          <t>11-25 08:56</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300587,1250432329.html</t>
+          <t>/news,300587,1250952488.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天铁股份11月23日被深股通减持26.35万股</t>
+          <t>天铁股份11月24日获深股通增持12.78万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-24 07:51</t>
+          <t>11-25 07:54</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300587,1250420308.html</t>
+          <t>/news,300587,1250944013.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计4172.27万元（11-22）</t>
+          <t>天铁股份：连续4日融资净买入累计5640.49万元（11-23）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-23 08:47</t>
+          <t>11-24 09:03</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300587,1249883621.html</t>
+          <t>/news,300587,1250432329.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天铁股份11月22日被深股通减持61.45万股</t>
+          <t>天铁股份11月23日被深股通减持26.35万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-23 07:56</t>
+          <t>11-24 07:51</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300587,1249876845.html</t>
+          <t>/news,300587,1250420308.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入742.86万元，融资余额3.36亿元（11-21）</t>
+          <t>天铁股份：连续3日融资净买入累计4172.27万元（11-22）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-23 08:47</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300587,1249356793.html</t>
+          <t>/news,300587,1249883621.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天铁股份11月21日获深股通增持19.59万股</t>
+          <t>天铁股份11月22日被深股通减持61.45万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-22 07:49</t>
+          <t>11-23 07:56</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300587,1249348156.html</t>
+          <t>/news,300587,1249876845.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
+          <t>天铁股份：融资净买入742.86万元，融资余额3.36亿元（11-21）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-21 08:53</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300587,1248873328.html</t>
+          <t>/news,300587,1249356793.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月21日获深股通增持19.59万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300587,1248768250.html</t>
+          <t>/news,300587,1249348156.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-20 14:04</t>
+          <t>11-21 08:53</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300587,1248762611.html</t>
+          <t>/news,300587,1248873328.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天铁股份11月18日被深股通减持97.57万股</t>
+          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-19 07:49</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300587,1248638070.html</t>
+          <t>/news,300587,1248768250.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
+          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-18 08:51</t>
+          <t>11-20 14:04</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300587,1248163248.html</t>
+          <t>/news,300587,1248762611.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天铁股份11月17日获深股通增持12.78万股</t>
+          <t>天铁股份11月18日被深股通减持97.57万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-18 08:00</t>
+          <t>11-19 07:49</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300587,1248155326.html</t>
+          <t>/news,300587,1248638070.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
+          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-18 08:51</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300587,1247677306.html</t>
+          <t>/news,300587,1248163248.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天铁股份11月16日获深股通增持3.97万股</t>
+          <t>天铁股份11月17日获深股通增持12.78万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-18 08:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300587,1247665362.html</t>
+          <t>/news,300587,1248155326.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
+          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300587,1247183873.html</t>
+          <t>/news,300587,1247677306.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天铁股份11月15日被深股通减持47.76万股</t>
+          <t>天铁股份11月16日获深股通增持3.97万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,12 +1757,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300587,1247176104.html</t>
+          <t>/news,300587,1247665362.html</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
+          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-15 08:52</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300587,1246698742.html</t>
+          <t>/news,300587,1247183873.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天铁股份11月14日获深股通增持191.83万股</t>
+          <t>天铁股份11月15日被深股通减持47.76万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300587,1246689937.html</t>
+          <t>/news,300587,1247176104.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
+          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,51 +1853,51 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:52</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300587,1246196638.html</t>
+          <t>/news,300587,1246698742.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月14日获深股通增持191.83万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300587,1246098593.html</t>
+          <t>/news,300587,1246689937.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
+          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-13 14:03</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300587,1246092986.html</t>
+          <t>/news,300587,1246196638.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天铁股份11月11日获深股通增持37.92万股</t>
+          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-12 07:56</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300587,1245987709.html</t>
+          <t>/news,300587,1246098593.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,39 +1971,39 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
+          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-11 08:55</t>
+          <t>11-13 14:03</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300587,1245425823.html</t>
+          <t>/news,300587,1246092986.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天铁股份11月10日被深股通减持153.54万股</t>
+          <t>天铁股份11月11日获深股通增持37.92万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-12 07:56</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300587,1245414654.html</t>
+          <t>/news,300587,1245987709.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
+          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-10 20:19</t>
+          <t>11-11 08:55</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300587,1245310258.html</t>
+          <t>/news,300587,1245425823.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1613</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
+          <t>天铁股份11月10日被深股通减持153.54万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-10 16:37</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300587,1245255362.html</t>
+          <t>/news,300587,1245414654.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
+          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-10 20:19</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300587,1244900300.html</t>
+          <t>/news,300587,1245310258.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>1614</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天铁股份11月09日被深股通减持39.12万股</t>
+          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-10 16:37</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300587,1244890086.html</t>
+          <t>/news,300587,1245255362.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
+          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300587,1244437480.html</t>
+          <t>/news,300587,1244900300.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天铁股份11月08日获深股通增持34.12万股</t>
+          <t>天铁股份11月09日被深股通减持39.12万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300587,1244425964.html</t>
+          <t>/news,300587,1244890086.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
+          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-08 08:51</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300587,1243983480.html</t>
+          <t>/news,300587,1244437480.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天铁股份11月07日获深股通增持169.7万股</t>
+          <t>天铁股份11月08日获深股通增持34.12万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300587,1243976306.html</t>
+          <t>/news,300587,1244425964.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1352</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
+          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-07 20:44</t>
+          <t>11-08 08:51</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300587,1243901122.html</t>
+          <t>/news,300587,1243983480.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
+          <t>天铁股份11月07日获深股通增持169.7万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,51 +2333,51 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-07 08:51</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300587,1243514018.html</t>
+          <t>/news,300587,1243976306.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>1352</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
+          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-06 20:21</t>
+          <t>11-07 20:44</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300587,1243448935.html</t>
+          <t>/news,300587,1243901122.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,93 +2387,93 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
+          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-07 08:51</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300587,1243409809.html</t>
+          <t>/news,300587,1243514018.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>529</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
+          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-06 20:21</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300587,1243404037.html</t>
+          <t>/news,300587,1243448935.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天铁股份11月04日获深股通增持52.8万股</t>
+          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-05 08:00</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300587,1243320258.html</t>
+          <t>/news,300587,1243409809.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,39 +2483,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
+          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-04 08:54</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300587,1242827088.html</t>
+          <t>/news,300587,1243404037.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>698</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天铁股份11月03日获深股通增持170.86万股</t>
+          <t>天铁股份11月04日获深股通增持52.8万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-05 08:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300587,1242816603.html</t>
+          <t>/news,300587,1243320258.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
+          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-04 08:54</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300587,1242335086.html</t>
+          <t>/news,300587,1242827088.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天铁股份11月02日被深股通减持70.02万股</t>
+          <t>天铁股份11月03日获深股通增持170.86万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300587,1242326326.html</t>
+          <t>/news,300587,1242816603.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
+          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-02 08:54</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300587,1241810032.html</t>
+          <t>/news,300587,1242335086.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天铁股份11月01日获深股通增持146.09万股</t>
+          <t>天铁股份11月02日被深股通减持70.02万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-02 07:50</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300587,1241801272.html</t>
+          <t>/news,300587,1242326326.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
+          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-02 08:54</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300587,1241306996.html</t>
+          <t>/news,300587,1241810032.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天铁股份10月31日被深股通减持85.73万股</t>
+          <t>天铁股份11月01日获深股通增持146.09万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 07:50</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300587,1241296433.html</t>
+          <t>/news,300587,1241801272.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
+          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,51 +2749,51 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-31 09:05</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300587,1240799120.html</t>
+          <t>/news,300587,1241306996.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>848</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
+          <t>天铁股份10月31日被深股通减持85.73万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-30 17:06</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300587,1240728156.html</t>
+          <t>/news,300587,1241296433.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,93 +2803,93 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-30 15:05</t>
+          <t>10-31 09:05</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300587,1240711829.html</t>
+          <t>/news,300587,1240799120.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>848</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
+          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 17:06</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300587,1240706844.html</t>
+          <t>/news,300587,1240728156.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天铁股份10月28日被深股通减持67.49万股</t>
+          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 15:05</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300587,1240599842.html</t>
+          <t>/news,300587,1240711829.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,39 +2899,39 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
+          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-28 09:13</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300587,1240062748.html</t>
+          <t>/news,300587,1240706844.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>499</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天铁股份10月27日被深股通减持13.22万股</t>
+          <t>天铁股份10月28日被深股通减持67.49万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300587,1240048400.html</t>
+          <t>/news,300587,1240599842.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1802.58万元，融资余额4500.08万元（10-26）</t>
+          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-27 08:58</t>
+          <t>10-28 09:13</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300587,1239507542.html</t>
+          <t>/news,300587,1240062748.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天铁股份10月26日获深股通增持106.73万股</t>
+          <t>天铁股份10月27日被深股通减持13.22万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-27 07:56</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300587,1239498479.html</t>
+          <t>/news,300587,1240048400.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>100</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还71.89万元，融资余额4.39亿元（12-07）</t>
+          <t>天铁股份：融资净买入4.21万元，融资余额4.39亿元（12-08）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-08 08:53</t>
+          <t>12-09 09:16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300587,1256766934.html</t>
+          <t>/news,300587,1257409775.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天铁股份12月07日获深股通增持1.29万股</t>
+          <t>天铁股份12月08日被深股通减持32.03万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-08 07:47</t>
+          <t>12-09 07:52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300587,1256755483.html</t>
+          <t>/news,300587,1257393827.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计2639.94万元（12-06）</t>
+          <t>天铁股份：融资净偿还71.89万元，融资余额4.39亿元（12-07）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-07 09:02</t>
+          <t>12-08 08:53</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300587,1256102170.html</t>
+          <t>/news,300587,1256766934.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天铁股份12月06日获深股通增持2.65万股</t>
+          <t>天铁股份12月07日获深股通增持1.29万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-07 07:58</t>
+          <t>12-08 07:47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300587,1256092679.html</t>
+          <t>/news,300587,1256755483.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1579.32万元，融资余额4.35亿元（12-05）</t>
+          <t>天铁股份：连续3日融资净买入累计2639.94万元（12-06）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-06 08:56</t>
+          <t>12-07 09:02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300587,1255458725.html</t>
+          <t>/news,300587,1256102170.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天铁股份12月05日被深股通减持28.06万股</t>
+          <t>天铁股份12月06日获深股通增持2.65万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-06 08:00</t>
+          <t>12-07 07:58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300587,1255450225.html</t>
+          <t>/news,300587,1256092679.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入620.74万元，融资余额4.19亿元（12-02）</t>
+          <t>天铁股份：融资净买入1579.32万元，融资余额4.35亿元（12-05）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-05 09:01</t>
+          <t>12-06 08:56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300587,1254804854.html</t>
+          <t>/news,300587,1255458725.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入2888.64万元，居橡胶制品板块第二</t>
+          <t>天铁股份12月05日被深股通减持28.06万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-04 15:04</t>
+          <t>12-06 08:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300587,1254648908.html</t>
+          <t>/news,300587,1255450225.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加55.2万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入620.74万元，融资余额4.19亿元（12-02）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-04 14:04</t>
+          <t>12-05 09:01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300587,1254642233.html</t>
+          <t>/news,300587,1254804854.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天铁股份12月02日被深股通减持94.69万股</t>
+          <t>天铁股份本周融资净买入2888.64万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-03 07:56</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300587,1254513012.html</t>
+          <t>/news,300587,1254648908.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还278.76万元，融资余额4.13亿元（12-01）</t>
+          <t>天铁股份本周深股通持股市值增加55.2万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-02 08:49</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300587,1253920598.html</t>
+          <t>/news,300587,1254642233.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天铁股份12月01日获深股通增持220.19万股</t>
+          <t>天铁股份12月02日被深股通减持94.69万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-02 07:57</t>
+          <t>12-03 07:56</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300587,1253914565.html</t>
+          <t>/news,300587,1254513012.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天铁股份：连续9日融资净买入累计9874.94万元（11-30）</t>
+          <t>天铁股份：融资净偿还278.76万元，融资余额4.13亿元（12-01）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-01 08:55</t>
+          <t>12-02 08:49</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300587,1253311771.html</t>
+          <t>/news,300587,1253920598.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天铁股份11月30日被深股通减持36.51万股</t>
+          <t>天铁股份12月01日获深股通增持220.19万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-01 07:44</t>
+          <t>12-02 07:57</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300587,1253300623.html</t>
+          <t>/news,300587,1253914565.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天铁股份：股东翟小玉、陆凌霄共减持公司股份约14万股</t>
+          <t>天铁股份：连续9日融资净买入累计9874.94万元（11-30）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-30 16:41</t>
+          <t>12-01 08:55</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300587,1253142139.html</t>
+          <t>/news,300587,1253311771.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天铁股份：连续8日融资净买入累计9315.91万元（11-29）</t>
+          <t>天铁股份11月30日被深股通减持36.51万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-30 08:51</t>
+          <t>12-01 07:44</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300587,1252786814.html</t>
+          <t>/news,300587,1253300623.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>891</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天铁股份11月29日被深股通减持109.03万股</t>
+          <t>天铁股份：股东翟小玉、陆凌霄共减持公司股份约14万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-30 07:53</t>
+          <t>11-30 16:41</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300587,1252779185.html</t>
+          <t>/news,300587,1253142139.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级</t>
+          <t>天铁股份：连续8日融资净买入累计9315.91万元（11-29）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,61 +1021,61 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-29 20:06</t>
+          <t>11-30 08:51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300587,1252679820.html</t>
+          <t>/news,300587,1252786814.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
+          <t>天铁股份11月29日被深股通减持109.03万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-29 19:55</t>
+          <t>11-30 07:53</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300587,1252639029.html</t>
+          <t>/news,300587,1252779185.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>717</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天铁股份：连续7日融资净买入累计8167.3万元（11-28）</t>
+          <t>东方财富证券给予天铁股份增持评级</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-29 08:53</t>
+          <t>11-29 20:06</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300587,1252223491.html</t>
+          <t>/news,300587,1252679820.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天铁股份11月28日获深股通增持20.41万股</t>
+          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-29 07:44</t>
+          <t>11-29 19:55</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300587,1252211682.html</t>
+          <t>/news,300587,1252639029.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天铁股份：连续6日融资净买入累计6707.55万元（11-25）</t>
+          <t>天铁股份：连续7日融资净买入累计8167.3万元（11-28）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-28 08:55</t>
+          <t>11-29 08:53</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300587,1251735921.html</t>
+          <t>/news,300587,1252223491.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入5303.31万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月28日获深股通增持20.41万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-27 15:10</t>
+          <t>11-29 07:44</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300587,1251591279.html</t>
+          <t>/news,300587,1252211682.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少958.56万元，居橡胶制品板块第二</t>
+          <t>天铁股份：连续6日融资净买入累计6707.55万元（11-25）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-27 14:05</t>
+          <t>11-28 08:55</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300587,1251583940.html</t>
+          <t>/news,300587,1251735921.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天铁股份11月25日被深股通减持22.53万股</t>
+          <t>天铁股份本周融资净买入5303.31万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-26 07:55</t>
+          <t>11-27 15:10</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300587,1251434713.html</t>
+          <t>/news,300587,1251591279.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计6439.99万元（11-24）</t>
+          <t>天铁股份本周深股通持股市值减少958.56万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-25 08:56</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300587,1250952488.html</t>
+          <t>/news,300587,1251583940.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天铁股份11月24日获深股通增持12.78万股</t>
+          <t>天铁股份11月25日被深股通减持22.53万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-25 07:54</t>
+          <t>11-26 07:55</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300587,1250944013.html</t>
+          <t>/news,300587,1251434713.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计5640.49万元（11-23）</t>
+          <t>天铁股份：连续5日融资净买入累计6439.99万元（11-24）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-24 09:03</t>
+          <t>11-25 08:56</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300587,1250432329.html</t>
+          <t>/news,300587,1250952488.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天铁股份11月23日被深股通减持26.35万股</t>
+          <t>天铁股份11月24日获深股通增持12.78万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-24 07:51</t>
+          <t>11-25 07:54</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300587,1250420308.html</t>
+          <t>/news,300587,1250944013.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计4172.27万元（11-22）</t>
+          <t>天铁股份：连续4日融资净买入累计5640.49万元（11-23）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-23 08:47</t>
+          <t>11-24 09:03</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300587,1249883621.html</t>
+          <t>/news,300587,1250432329.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天铁股份11月22日被深股通减持61.45万股</t>
+          <t>天铁股份11月23日被深股通减持26.35万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-23 07:56</t>
+          <t>11-24 07:51</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300587,1249876845.html</t>
+          <t>/news,300587,1250420308.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入742.86万元，融资余额3.36亿元（11-21）</t>
+          <t>天铁股份：连续3日融资净买入累计4172.27万元（11-22）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-23 08:47</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300587,1249356793.html</t>
+          <t>/news,300587,1249883621.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天铁股份11月21日获深股通增持19.59万股</t>
+          <t>天铁股份11月22日被深股通减持61.45万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-22 07:49</t>
+          <t>11-23 07:56</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300587,1249348156.html</t>
+          <t>/news,300587,1249876845.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
+          <t>天铁股份：融资净买入742.86万元，融资余额3.36亿元（11-21）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-21 08:53</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300587,1248873328.html</t>
+          <t>/news,300587,1249356793.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月21日获深股通增持19.59万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300587,1248768250.html</t>
+          <t>/news,300587,1249348156.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-20 14:04</t>
+          <t>11-21 08:53</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300587,1248762611.html</t>
+          <t>/news,300587,1248873328.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天铁股份11月18日被深股通减持97.57万股</t>
+          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-19 07:49</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300587,1248638070.html</t>
+          <t>/news,300587,1248768250.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
+          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-18 08:51</t>
+          <t>11-20 14:04</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300587,1248163248.html</t>
+          <t>/news,300587,1248762611.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天铁股份11月17日获深股通增持12.78万股</t>
+          <t>天铁股份11月18日被深股通减持97.57万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-18 08:00</t>
+          <t>11-19 07:49</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300587,1248155326.html</t>
+          <t>/news,300587,1248638070.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
+          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-18 08:51</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300587,1247677306.html</t>
+          <t>/news,300587,1248163248.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天铁股份11月16日获深股通增持3.97万股</t>
+          <t>天铁股份11月17日获深股通增持12.78万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-18 08:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300587,1247665362.html</t>
+          <t>/news,300587,1248155326.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
+          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300587,1247183873.html</t>
+          <t>/news,300587,1247677306.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天铁股份11月15日被深股通减持47.76万股</t>
+          <t>天铁股份11月16日获深股通增持3.97万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,12 +1821,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300587,1247176104.html</t>
+          <t>/news,300587,1247665362.html</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
+          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-15 08:52</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300587,1246698742.html</t>
+          <t>/news,300587,1247183873.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天铁股份11月14日获深股通增持191.83万股</t>
+          <t>天铁股份11月15日被深股通减持47.76万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300587,1246689937.html</t>
+          <t>/news,300587,1247176104.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
+          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,51 +1917,51 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:52</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300587,1246196638.html</t>
+          <t>/news,300587,1246698742.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月14日获深股通增持191.83万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300587,1246098593.html</t>
+          <t>/news,300587,1246689937.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
+          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-13 14:03</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300587,1246092986.html</t>
+          <t>/news,300587,1246196638.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天铁股份11月11日获深股通增持37.92万股</t>
+          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-12 07:56</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300587,1245987709.html</t>
+          <t>/news,300587,1246098593.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,39 +2035,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
+          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-11 08:55</t>
+          <t>11-13 14:03</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300587,1245425823.html</t>
+          <t>/news,300587,1246092986.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天铁股份11月10日被深股通减持153.54万股</t>
+          <t>天铁股份11月11日获深股通增持37.92万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-12 07:56</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300587,1245414654.html</t>
+          <t>/news,300587,1245987709.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
+          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-10 20:19</t>
+          <t>11-11 08:55</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300587,1245310258.html</t>
+          <t>/news,300587,1245425823.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1614</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
+          <t>天铁股份11月10日被深股通减持153.54万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-10 16:37</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300587,1245255362.html</t>
+          <t>/news,300587,1245414654.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
+          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-10 20:19</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300587,1244900300.html</t>
+          <t>/news,300587,1245310258.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>1617</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天铁股份11月09日被深股通减持39.12万股</t>
+          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-10 16:37</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300587,1244890086.html</t>
+          <t>/news,300587,1245255362.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
+          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300587,1244437480.html</t>
+          <t>/news,300587,1244900300.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天铁股份11月08日获深股通增持34.12万股</t>
+          <t>天铁股份11月09日被深股通减持39.12万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300587,1244425964.html</t>
+          <t>/news,300587,1244890086.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
+          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-08 08:51</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300587,1243983480.html</t>
+          <t>/news,300587,1244437480.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天铁股份11月07日获深股通增持169.7万股</t>
+          <t>天铁股份11月08日获深股通增持34.12万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300587,1243976306.html</t>
+          <t>/news,300587,1244425964.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1352</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
+          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-07 20:44</t>
+          <t>11-08 08:51</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300587,1243901122.html</t>
+          <t>/news,300587,1243983480.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
+          <t>天铁股份11月07日获深股通增持169.7万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,51 +2397,51 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-07 08:51</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300587,1243514018.html</t>
+          <t>/news,300587,1243976306.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>1352</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
+          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-06 20:21</t>
+          <t>11-07 20:44</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300587,1243448935.html</t>
+          <t>/news,300587,1243901122.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,93 +2451,93 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
+          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-07 08:51</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300587,1243409809.html</t>
+          <t>/news,300587,1243514018.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>529</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
+          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-06 20:21</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300587,1243404037.html</t>
+          <t>/news,300587,1243448935.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天铁股份11月04日获深股通增持52.8万股</t>
+          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-05 08:00</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300587,1243320258.html</t>
+          <t>/news,300587,1243409809.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,39 +2547,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
+          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-04 08:54</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300587,1242827088.html</t>
+          <t>/news,300587,1243404037.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>698</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天铁股份11月03日获深股通增持170.86万股</t>
+          <t>天铁股份11月04日获深股通增持52.8万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-05 08:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300587,1242816603.html</t>
+          <t>/news,300587,1243320258.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
+          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-04 08:54</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300587,1242335086.html</t>
+          <t>/news,300587,1242827088.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天铁股份11月02日被深股通减持70.02万股</t>
+          <t>天铁股份11月03日获深股通增持170.86万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300587,1242326326.html</t>
+          <t>/news,300587,1242816603.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
+          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-02 08:54</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300587,1241810032.html</t>
+          <t>/news,300587,1242335086.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天铁股份11月01日获深股通增持146.09万股</t>
+          <t>天铁股份11月02日被深股通减持70.02万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-02 07:50</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300587,1241801272.html</t>
+          <t>/news,300587,1242326326.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
+          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-02 08:54</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300587,1241306996.html</t>
+          <t>/news,300587,1241810032.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天铁股份10月31日被深股通减持85.73万股</t>
+          <t>天铁股份11月01日获深股通增持146.09万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 07:50</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300587,1241296433.html</t>
+          <t>/news,300587,1241801272.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
+          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,51 +2813,51 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-31 09:05</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300587,1240799120.html</t>
+          <t>/news,300587,1241306996.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>848</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
+          <t>天铁股份10月31日被深股通减持85.73万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-30 17:06</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300587,1240728156.html</t>
+          <t>/news,300587,1241296433.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,93 +2867,93 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-30 15:05</t>
+          <t>10-31 09:05</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300587,1240711829.html</t>
+          <t>/news,300587,1240799120.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>849</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
+          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 17:06</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300587,1240706844.html</t>
+          <t>/news,300587,1240728156.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天铁股份10月28日被深股通减持67.49万股</t>
+          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 15:05</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300587,1240599842.html</t>
+          <t>/news,300587,1240711829.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,39 +2963,39 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入618.58万元，融资余额5118.65万元（10-27）</t>
+          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-28 09:13</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300587,1240062748.html</t>
+          <t>/news,300587,1240706844.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天铁股份10月27日被深股通减持13.22万股</t>
+          <t>天铁股份10月28日被深股通减持67.49万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300587,1240048400.html</t>
+          <t>/news,300587,1240599842.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入4.21万元，融资余额4.39亿元（12-08）</t>
+          <t>天铁股份：融资净买入618.09万元，融资余额4.45亿元（12-09）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-09 09:16</t>
+          <t>12-12 09:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300587,1257409775.html</t>
+          <t>/news,300587,1258215418.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天铁股份12月08日被深股通减持32.03万股</t>
+          <t>天铁股份本周融资净买入1951.52万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-09 07:52</t>
+          <t>12-11 15:04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300587,1257393827.html</t>
+          <t>/news,300587,1258087980.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,39 +531,39 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还71.89万元，融资余额4.39亿元（12-07）</t>
+          <t>天铁股份本周深股通持股市值减少1391.18万元，居橡胶制品板块第四</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-08 08:53</t>
+          <t>12-11 14:03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300587,1256766934.html</t>
+          <t>/news,300587,1258080729.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天铁股份12月07日获深股通增持1.29万股</t>
+          <t>天铁股份12月09日被深股通减持56.18万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-08 07:47</t>
+          <t>12-10 07:51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300587,1256755483.html</t>
+          <t>/news,300587,1257964794.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计2639.94万元（12-06）</t>
+          <t>天铁股份：融资净买入4.21万元，融资余额4.39亿元（12-08）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-07 09:02</t>
+          <t>12-09 09:16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300587,1256102170.html</t>
+          <t>/news,300587,1257409775.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天铁股份12月06日获深股通增持2.65万股</t>
+          <t>天铁股份12月08日被深股通减持32.03万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-07 07:58</t>
+          <t>12-09 07:52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300587,1256092679.html</t>
+          <t>/news,300587,1257393827.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1579.32万元，融资余额4.35亿元（12-05）</t>
+          <t>天铁股份：融资净偿还71.89万元，融资余额4.39亿元（12-07）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-06 08:56</t>
+          <t>12-08 08:53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300587,1255458725.html</t>
+          <t>/news,300587,1256766934.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天铁股份12月05日被深股通减持28.06万股</t>
+          <t>天铁股份12月07日获深股通增持1.29万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-06 08:00</t>
+          <t>12-08 07:47</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300587,1255450225.html</t>
+          <t>/news,300587,1256755483.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入620.74万元，融资余额4.19亿元（12-02）</t>
+          <t>天铁股份：连续3日融资净买入累计2639.94万元（12-06）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-05 09:01</t>
+          <t>12-07 09:02</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300587,1254804854.html</t>
+          <t>/news,300587,1256102170.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入2888.64万元，居橡胶制品板块第二</t>
+          <t>天铁股份12月06日获深股通增持2.65万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-04 15:04</t>
+          <t>12-07 07:58</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300587,1254648908.html</t>
+          <t>/news,300587,1256092679.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加55.2万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1579.32万元，融资余额4.35亿元（12-05）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-04 14:04</t>
+          <t>12-06 08:56</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300587,1254642233.html</t>
+          <t>/news,300587,1255458725.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天铁股份12月02日被深股通减持94.69万股</t>
+          <t>天铁股份12月05日被深股通减持28.06万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-03 07:56</t>
+          <t>12-06 08:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300587,1254513012.html</t>
+          <t>/news,300587,1255450225.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还278.76万元，融资余额4.13亿元（12-01）</t>
+          <t>天铁股份：融资净买入620.74万元，融资余额4.19亿元（12-02）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,51 +861,51 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-02 08:49</t>
+          <t>12-05 09:01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300587,1253920598.html</t>
+          <t>/news,300587,1254804854.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天铁股份12月01日获深股通增持220.19万股</t>
+          <t>天铁股份本周融资净买入2888.64万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-02 07:57</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300587,1253914565.html</t>
+          <t>/news,300587,1254648908.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天铁股份：连续9日融资净买入累计9874.94万元（11-30）</t>
+          <t>天铁股份本周深股通持股市值增加55.2万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-01 08:55</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300587,1253311771.html</t>
+          <t>/news,300587,1254642233.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天铁股份11月30日被深股通减持36.51万股</t>
+          <t>天铁股份12月02日被深股通减持94.69万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-01 07:44</t>
+          <t>12-03 07:56</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300587,1253300623.html</t>
+          <t>/news,300587,1254513012.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>891</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天铁股份：股东翟小玉、陆凌霄共减持公司股份约14万股</t>
+          <t>天铁股份：融资净偿还278.76万元，融资余额4.13亿元（12-01）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-30 16:41</t>
+          <t>12-02 08:49</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300587,1253142139.html</t>
+          <t>/news,300587,1253920598.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天铁股份：连续8日融资净买入累计9315.91万元（11-29）</t>
+          <t>天铁股份12月01日获深股通增持220.19万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-30 08:51</t>
+          <t>12-02 07:57</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300587,1252786814.html</t>
+          <t>/news,300587,1253914565.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天铁股份11月29日被深股通减持109.03万股</t>
+          <t>天铁股份：连续9日融资净买入累计9874.94万元（11-30）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-30 07:53</t>
+          <t>12-01 08:55</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300587,1252779185.html</t>
+          <t>/news,300587,1253311771.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级</t>
+          <t>天铁股份11月30日被深股通减持36.51万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,61 +1085,61 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-29 20:06</t>
+          <t>12-01 07:44</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300587,1252679820.html</t>
+          <t>/news,300587,1253300623.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>903</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
+          <t>天铁股份：股东翟小玉、陆凌霄共减持公司股份约14万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-29 19:55</t>
+          <t>11-30 16:41</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300587,1252639029.html</t>
+          <t>/news,300587,1253142139.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天铁股份：连续7日融资净买入累计8167.3万元（11-28）</t>
+          <t>天铁股份：连续8日融资净买入累计9315.91万元（11-29）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-29 08:53</t>
+          <t>11-30 08:51</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300587,1252223491.html</t>
+          <t>/news,300587,1252786814.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天铁股份11月28日获深股通增持20.41万股</t>
+          <t>天铁股份11月29日被深股通减持109.03万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-29 07:44</t>
+          <t>11-30 07:53</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300587,1252211682.html</t>
+          <t>/news,300587,1252779185.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>725</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天铁股份：连续6日融资净买入累计6707.55万元（11-25）</t>
+          <t>东方财富证券给予天铁股份增持评级</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-28 08:55</t>
+          <t>11-29 20:06</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300587,1251735921.html</t>
+          <t>/news,300587,1252679820.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入5303.31万元，居橡胶制品板块第一</t>
+          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-27 15:10</t>
+          <t>11-29 19:55</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300587,1251591279.html</t>
+          <t>/news,300587,1252639029.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少958.56万元，居橡胶制品板块第二</t>
+          <t>天铁股份：连续7日融资净买入累计8167.3万元（11-28）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-27 14:05</t>
+          <t>11-29 08:53</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300587,1251583940.html</t>
+          <t>/news,300587,1252223491.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天铁股份11月25日被深股通减持22.53万股</t>
+          <t>天铁股份11月28日获深股通增持20.41万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-26 07:55</t>
+          <t>11-29 07:44</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300587,1251434713.html</t>
+          <t>/news,300587,1252211682.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计6439.99万元（11-24）</t>
+          <t>天铁股份：连续6日融资净买入累计6707.55万元（11-25）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-25 08:56</t>
+          <t>11-28 08:55</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300587,1250952488.html</t>
+          <t>/news,300587,1251735921.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天铁股份11月24日获深股通增持12.78万股</t>
+          <t>天铁股份本周融资净买入5303.31万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-25 07:54</t>
+          <t>11-27 15:10</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300587,1250944013.html</t>
+          <t>/news,300587,1251591279.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,39 +1395,39 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计5640.49万元（11-23）</t>
+          <t>天铁股份本周深股通持股市值减少958.56万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-24 09:03</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300587,1250432329.html</t>
+          <t>/news,300587,1251583940.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天铁股份11月23日被深股通减持26.35万股</t>
+          <t>天铁股份11月25日被深股通减持22.53万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-24 07:51</t>
+          <t>11-26 07:55</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300587,1250420308.html</t>
+          <t>/news,300587,1251434713.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计4172.27万元（11-22）</t>
+          <t>天铁股份：连续5日融资净买入累计6439.99万元（11-24）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-23 08:47</t>
+          <t>11-25 08:56</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300587,1249883621.html</t>
+          <t>/news,300587,1250952488.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天铁股份11月22日被深股通减持61.45万股</t>
+          <t>天铁股份11月24日获深股通增持12.78万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-23 07:56</t>
+          <t>11-25 07:54</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300587,1249876845.html</t>
+          <t>/news,300587,1250944013.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入742.86万元，融资余额3.36亿元（11-21）</t>
+          <t>天铁股份：连续4日融资净买入累计5640.49万元（11-23）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-24 09:03</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300587,1249356793.html</t>
+          <t>/news,300587,1250432329.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天铁股份11月21日获深股通增持19.59万股</t>
+          <t>天铁股份11月23日被深股通减持26.35万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-22 07:49</t>
+          <t>11-24 07:51</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300587,1249348156.html</t>
+          <t>/news,300587,1250420308.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
+          <t>天铁股份：连续3日融资净买入累计4172.27万元（11-22）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-21 08:53</t>
+          <t>11-23 08:47</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300587,1248873328.html</t>
+          <t>/news,300587,1249883621.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月22日被深股通减持61.45万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>11-23 07:56</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300587,1248768250.html</t>
+          <t>/news,300587,1249876845.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入742.86万元，融资余额3.36亿元（11-21）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-20 14:04</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300587,1248762611.html</t>
+          <t>/news,300587,1249356793.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天铁股份11月18日被深股通减持97.57万股</t>
+          <t>天铁股份11月21日获深股通增持19.59万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-19 07:49</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300587,1248638070.html</t>
+          <t>/news,300587,1249348156.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
+          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-18 08:51</t>
+          <t>11-21 08:53</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300587,1248163248.html</t>
+          <t>/news,300587,1248873328.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天铁股份11月17日获深股通增持12.78万股</t>
+          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-18 08:00</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300587,1248155326.html</t>
+          <t>/news,300587,1248768250.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
+          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-20 14:04</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300587,1247677306.html</t>
+          <t>/news,300587,1248762611.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天铁股份11月16日获深股通增持3.97万股</t>
+          <t>天铁股份11月18日被深股通减持97.57万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-19 07:49</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300587,1247665362.html</t>
+          <t>/news,300587,1248638070.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
+          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-18 08:51</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300587,1247183873.html</t>
+          <t>/news,300587,1248163248.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天铁股份11月15日被深股通减持47.76万股</t>
+          <t>天铁股份11月17日获深股通增持12.78万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-18 08:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300587,1247176104.html</t>
+          <t>/news,300587,1248155326.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
+          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-15 08:52</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300587,1246698742.html</t>
+          <t>/news,300587,1247677306.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天铁股份11月14日获深股通增持191.83万股</t>
+          <t>天铁股份11月16日获深股通增持3.97万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300587,1246689937.html</t>
+          <t>/news,300587,1247665362.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
+          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,51 +1981,51 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300587,1246196638.html</t>
+          <t>/news,300587,1247183873.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月15日被深股通减持47.76万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300587,1246098593.html</t>
+          <t>/news,300587,1247176104.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,39 +2035,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-13 14:03</t>
+          <t>11-15 08:52</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300587,1246092986.html</t>
+          <t>/news,300587,1246698742.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天铁股份11月11日获深股通增持37.92万股</t>
+          <t>天铁股份11月14日获深股通增持191.83万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-12 07:56</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300587,1245987709.html</t>
+          <t>/news,300587,1246689937.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
+          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,83 +2109,83 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-11 08:55</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300587,1245425823.html</t>
+          <t>/news,300587,1246196638.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天铁股份11月10日被深股通减持153.54万股</t>
+          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300587,1245414654.html</t>
+          <t>/news,300587,1246098593.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
+          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-10 20:19</t>
+          <t>11-13 14:03</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300587,1245310258.html</t>
+          <t>/news,300587,1246092986.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1617</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
+          <t>天铁股份11月11日获深股通增持37.92万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-10 16:37</t>
+          <t>11-12 07:56</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300587,1245255362.html</t>
+          <t>/news,300587,1245987709.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
+          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-11 08:55</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300587,1244900300.html</t>
+          <t>/news,300587,1245425823.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天铁股份11月09日被深股通减持39.12万股</t>
+          <t>天铁股份11月10日被深股通减持153.54万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300587,1244890086.html</t>
+          <t>/news,300587,1245414654.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
+          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-10 20:19</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300587,1244437480.html</t>
+          <t>/news,300587,1245310258.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天铁股份11月08日获深股通增持34.12万股</t>
+          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-10 16:37</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300587,1244425964.html</t>
+          <t>/news,300587,1245255362.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
+          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-08 08:51</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300587,1243983480.html</t>
+          <t>/news,300587,1244900300.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天铁股份11月07日获深股通增持169.7万股</t>
+          <t>天铁股份11月09日被深股通减持39.12万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300587,1243976306.html</t>
+          <t>/news,300587,1244890086.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1352</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
+          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-07 20:44</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300587,1243901122.html</t>
+          <t>/news,300587,1244437480.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
+          <t>天铁股份11月08日获深股通增持34.12万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,51 +2461,51 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-07 08:51</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300587,1243514018.html</t>
+          <t>/news,300587,1244425964.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
+          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-06 20:21</t>
+          <t>11-08 08:51</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300587,1243448935.html</t>
+          <t>/news,300587,1243983480.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,71 +2515,71 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
+          <t>天铁股份11月07日获深股通增持169.7万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300587,1243409809.html</t>
+          <t>/news,300587,1243976306.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>1353</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
+          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-07 20:44</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300587,1243404037.html</t>
+          <t>/news,300587,1243901122.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天铁股份11月04日获深股通增持52.8万股</t>
+          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,51 +2589,51 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-05 08:00</t>
+          <t>11-07 08:51</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300587,1243320258.html</t>
+          <t>/news,300587,1243514018.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>530</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
+          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-04 08:54</t>
+          <t>11-06 20:21</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300587,1242827088.html</t>
+          <t>/news,300587,1243448935.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天铁股份11月03日获深股通增持170.86万股</t>
+          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300587,1242816603.html</t>
+          <t>/news,300587,1243409809.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,39 +2675,39 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
+          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300587,1242335086.html</t>
+          <t>/news,300587,1243404037.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>699</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天铁股份11月02日被深股通减持70.02万股</t>
+          <t>天铁股份11月04日获深股通增持52.8万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-05 08:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300587,1242326326.html</t>
+          <t>/news,300587,1243320258.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
+          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-02 08:54</t>
+          <t>11-04 08:54</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300587,1241810032.html</t>
+          <t>/news,300587,1242827088.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天铁股份11月01日获深股通增持146.09万股</t>
+          <t>天铁股份11月03日获深股通增持170.86万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-02 07:50</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300587,1241801272.html</t>
+          <t>/news,300587,1242816603.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
+          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300587,1241306996.html</t>
+          <t>/news,300587,1242335086.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天铁股份10月31日被深股通减持85.73万股</t>
+          <t>天铁股份11月02日被深股通减持70.02万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300587,1241296433.html</t>
+          <t>/news,300587,1242326326.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
+          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,51 +2877,51 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-31 09:05</t>
+          <t>11-02 08:54</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300587,1240799120.html</t>
+          <t>/news,300587,1241810032.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>国盛证券首次给予天铁股份买入评级 目标价12.6元</t>
+          <t>天铁股份11月01日获深股通增持146.09万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-30 17:06</t>
+          <t>11-02 07:50</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300587,1240728156.html</t>
+          <t>/news,300587,1241801272.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,71 +2931,71 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3795.05万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-30 15:05</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300587,1240711829.html</t>
+          <t>/news,300587,1241306996.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少354.05万元，居橡胶制品板块第五</t>
+          <t>天铁股份10月31日被深股通减持85.73万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300587,1240706844.html</t>
+          <t>/news,300587,1241296433.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天铁股份10月28日被深股通减持67.49万股</t>
+          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-31 09:05</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300587,1240599842.html</t>
+          <t>/news,300587,1240799120.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入618.09万元，融资余额4.45亿元（12-09）</t>
+          <t>天铁股份：连续3日融资净买入累计1958.54万元（12-12）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-12 09:00</t>
+          <t>12-13 09:03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300587,1258215418.html</t>
+          <t>/news,300587,1258772032.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入1951.52万元，居橡胶制品板块第二</t>
+          <t>天铁股份12月12日被深股通减持88.75万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-11 15:04</t>
+          <t>12-13 07:49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300587,1258087980.html</t>
+          <t>/news,300587,1258761068.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,54 +531,54 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少1391.18万元，居橡胶制品板块第四</t>
+          <t>天铁股份：融资净买入618.09万元，融资余额4.45亿元（12-09）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-11 14:03</t>
+          <t>12-12 09:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300587,1258080729.html</t>
+          <t>/news,300587,1258215418.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天铁股份12月09日被深股通减持56.18万股</t>
+          <t>天铁股份本周融资净买入1951.52万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-10 07:51</t>
+          <t>12-11 15:04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300587,1257964794.html</t>
+          <t>/news,300587,1258087980.html</t>
         </is>
       </c>
     </row>
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入4.21万元，融资余额4.39亿元（12-08）</t>
+          <t>天铁股份本周深股通持股市值减少1391.18万元，居橡胶制品板块第四</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-09 09:16</t>
+          <t>12-11 14:03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300587,1257409775.html</t>
+          <t>/news,300587,1258080729.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天铁股份12月08日被深股通减持32.03万股</t>
+          <t>天铁股份12月09日被深股通减持56.18万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-09 07:52</t>
+          <t>12-10 07:51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300587,1257393827.html</t>
+          <t>/news,300587,1257964794.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还71.89万元，融资余额4.39亿元（12-07）</t>
+          <t>天铁股份：融资净买入4.21万元，融资余额4.39亿元（12-08）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-08 08:53</t>
+          <t>12-09 09:16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300587,1256766934.html</t>
+          <t>/news,300587,1257409775.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天铁股份12月07日获深股通增持1.29万股</t>
+          <t>天铁股份12月08日被深股通减持32.03万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-08 07:47</t>
+          <t>12-09 07:52</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300587,1256755483.html</t>
+          <t>/news,300587,1257393827.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计2639.94万元（12-06）</t>
+          <t>天铁股份：融资净偿还71.89万元，融资余额4.39亿元（12-07）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-07 09:02</t>
+          <t>12-08 08:53</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300587,1256102170.html</t>
+          <t>/news,300587,1256766934.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天铁股份12月06日获深股通增持2.65万股</t>
+          <t>天铁股份12月07日获深股通增持1.29万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-07 07:58</t>
+          <t>12-08 07:47</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300587,1256092679.html</t>
+          <t>/news,300587,1256755483.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1579.32万元，融资余额4.35亿元（12-05）</t>
+          <t>天铁股份：连续3日融资净买入累计2639.94万元（12-06）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-06 08:56</t>
+          <t>12-07 09:02</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300587,1255458725.html</t>
+          <t>/news,300587,1256102170.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天铁股份12月05日被深股通减持28.06万股</t>
+          <t>天铁股份12月06日获深股通增持2.65万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-06 08:00</t>
+          <t>12-07 07:58</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300587,1255450225.html</t>
+          <t>/news,300587,1256092679.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入620.74万元，融资余额4.19亿元（12-02）</t>
+          <t>天铁股份：融资净买入1579.32万元，融资余额4.35亿元（12-05）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-05 09:01</t>
+          <t>12-06 08:56</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300587,1254804854.html</t>
+          <t>/news,300587,1255458725.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入2888.64万元，居橡胶制品板块第二</t>
+          <t>天铁股份12月05日被深股通减持28.06万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-04 15:04</t>
+          <t>12-06 08:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300587,1254648908.html</t>
+          <t>/news,300587,1255450225.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加55.2万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入620.74万元，融资余额4.19亿元（12-02）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-04 14:04</t>
+          <t>12-05 09:01</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300587,1254642233.html</t>
+          <t>/news,300587,1254804854.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天铁股份12月02日被深股通减持94.69万股</t>
+          <t>天铁股份本周融资净买入2888.64万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-03 07:56</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300587,1254513012.html</t>
+          <t>/news,300587,1254648908.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,39 +979,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还278.76万元，融资余额4.13亿元（12-01）</t>
+          <t>天铁股份本周深股通持股市值增加55.2万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-02 08:49</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300587,1253920598.html</t>
+          <t>/news,300587,1254642233.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天铁股份12月01日获深股通增持220.19万股</t>
+          <t>天铁股份12月02日被深股通减持94.69万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-02 07:57</t>
+          <t>12-03 07:56</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300587,1253914565.html</t>
+          <t>/news,300587,1254513012.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天铁股份：连续9日融资净买入累计9874.94万元（11-30）</t>
+          <t>天铁股份：融资净偿还278.76万元，融资余额4.13亿元（12-01）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-01 08:55</t>
+          <t>12-02 08:49</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300587,1253311771.html</t>
+          <t>/news,300587,1253920598.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天铁股份11月30日被深股通减持36.51万股</t>
+          <t>天铁股份12月01日获深股通增持220.19万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-01 07:44</t>
+          <t>12-02 07:57</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300587,1253300623.html</t>
+          <t>/news,300587,1253914565.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>903</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天铁股份：股东翟小玉、陆凌霄共减持公司股份约14万股</t>
+          <t>天铁股份：连续9日融资净买入累计9874.94万元（11-30）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-30 16:41</t>
+          <t>12-01 08:55</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300587,1253142139.html</t>
+          <t>/news,300587,1253311771.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天铁股份：连续8日融资净买入累计9315.91万元（11-29）</t>
+          <t>天铁股份11月30日被深股通减持36.51万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-30 08:51</t>
+          <t>12-01 07:44</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300587,1252786814.html</t>
+          <t>/news,300587,1253300623.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>908</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天铁股份11月29日被深股通减持109.03万股</t>
+          <t>天铁股份：股东翟小玉、陆凌霄共减持公司股份约14万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-30 07:53</t>
+          <t>11-30 16:41</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300587,1252779185.html</t>
+          <t>/news,300587,1253142139.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级</t>
+          <t>天铁股份：连续8日融资净买入累计9315.91万元（11-29）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,61 +1213,61 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-29 20:06</t>
+          <t>11-30 08:51</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300587,1252679820.html</t>
+          <t>/news,300587,1252786814.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
+          <t>天铁股份11月29日被深股通减持109.03万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-29 19:55</t>
+          <t>11-30 07:53</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300587,1252639029.html</t>
+          <t>/news,300587,1252779185.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>729</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天铁股份：连续7日融资净买入累计8167.3万元（11-28）</t>
+          <t>东方财富证券给予天铁股份增持评级</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-29 08:53</t>
+          <t>11-29 20:06</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300587,1252223491.html</t>
+          <t>/news,300587,1252679820.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天铁股份11月28日获深股通增持20.41万股</t>
+          <t>东方财富证券维持天铁股份增持评</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-29 07:44</t>
+          <t>11-29 19:55</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300587,1252211682.html</t>
+          <t>/news,300587,1252639029.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天铁股份：连续6日融资净买入累计6707.55万元（11-25）</t>
+          <t>天铁股份：连续7日融资净买入累计8167.3万元（11-28）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-28 08:55</t>
+          <t>11-29 08:53</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300587,1251735921.html</t>
+          <t>/news,300587,1252223491.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入5303.31万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月28日获深股通增持20.41万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-27 15:10</t>
+          <t>11-29 07:44</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300587,1251591279.html</t>
+          <t>/news,300587,1252211682.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少958.56万元，居橡胶制品板块第二</t>
+          <t>天铁股份：连续6日融资净买入累计6707.55万元（11-25）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-27 14:05</t>
+          <t>11-28 08:55</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300587,1251583940.html</t>
+          <t>/news,300587,1251735921.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天铁股份11月25日被深股通减持22.53万股</t>
+          <t>天铁股份本周融资净买入5303.31万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-26 07:55</t>
+          <t>11-27 15:10</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300587,1251434713.html</t>
+          <t>/news,300587,1251591279.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计6439.99万元（11-24）</t>
+          <t>天铁股份本周深股通持股市值减少958.56万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-25 08:56</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300587,1250952488.html</t>
+          <t>/news,300587,1251583940.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天铁股份11月24日获深股通增持12.78万股</t>
+          <t>天铁股份11月25日被深股通减持22.53万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-25 07:54</t>
+          <t>11-26 07:55</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300587,1250944013.html</t>
+          <t>/news,300587,1251434713.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计5640.49万元（11-23）</t>
+          <t>天铁股份：连续5日融资净买入累计6439.99万元（11-24）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-24 09:03</t>
+          <t>11-25 08:56</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300587,1250432329.html</t>
+          <t>/news,300587,1250952488.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天铁股份11月23日被深股通减持26.35万股</t>
+          <t>天铁股份11月24日获深股通增持12.78万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-24 07:51</t>
+          <t>11-25 07:54</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300587,1250420308.html</t>
+          <t>/news,300587,1250944013.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计4172.27万元（11-22）</t>
+          <t>天铁股份：连续4日融资净买入累计5640.49万元（11-23）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-23 08:47</t>
+          <t>11-24 09:03</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300587,1249883621.html</t>
+          <t>/news,300587,1250432329.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天铁股份11月22日被深股通减持61.45万股</t>
+          <t>天铁股份11月23日被深股通减持26.35万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-23 07:56</t>
+          <t>11-24 07:51</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300587,1249876845.html</t>
+          <t>/news,300587,1250420308.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入742.86万元，融资余额3.36亿元（11-21）</t>
+          <t>天铁股份：连续3日融资净买入累计4172.27万元（11-22）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-23 08:47</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300587,1249356793.html</t>
+          <t>/news,300587,1249883621.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天铁股份11月21日获深股通增持19.59万股</t>
+          <t>天铁股份11月22日被深股通减持61.45万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-22 07:49</t>
+          <t>11-23 07:56</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300587,1249348156.html</t>
+          <t>/news,300587,1249876845.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
+          <t>天铁股份：融资净买入742.86万元，融资余额3.36亿元（11-21）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-21 08:53</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300587,1248873328.html</t>
+          <t>/news,300587,1249356793.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月21日获深股通增持19.59万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300587,1248768250.html</t>
+          <t>/news,300587,1249348156.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-20 14:04</t>
+          <t>11-21 08:53</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300587,1248762611.html</t>
+          <t>/news,300587,1248873328.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天铁股份11月18日被深股通减持97.57万股</t>
+          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-19 07:49</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300587,1248638070.html</t>
+          <t>/news,300587,1248768250.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
+          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-18 08:51</t>
+          <t>11-20 14:04</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300587,1248163248.html</t>
+          <t>/news,300587,1248762611.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天铁股份11月17日获深股通增持12.78万股</t>
+          <t>天铁股份11月18日被深股通减持97.57万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-18 08:00</t>
+          <t>11-19 07:49</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300587,1248155326.html</t>
+          <t>/news,300587,1248638070.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
+          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-18 08:51</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300587,1247677306.html</t>
+          <t>/news,300587,1248163248.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天铁股份11月16日获深股通增持3.97万股</t>
+          <t>天铁股份11月17日获深股通增持12.78万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-18 08:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300587,1247665362.html</t>
+          <t>/news,300587,1248155326.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
+          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300587,1247183873.html</t>
+          <t>/news,300587,1247677306.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天铁股份11月15日被深股通减持47.76万股</t>
+          <t>天铁股份11月16日获深股通增持3.97万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300587,1247176104.html</t>
+          <t>/news,300587,1247665362.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
+          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-15 08:52</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300587,1246698742.html</t>
+          <t>/news,300587,1247183873.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天铁股份11月14日获深股通增持191.83万股</t>
+          <t>天铁股份11月15日被深股通减持47.76万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300587,1246689937.html</t>
+          <t>/news,300587,1247176104.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
+          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,51 +2109,51 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:52</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300587,1246196638.html</t>
+          <t>/news,300587,1246698742.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月14日获深股通增持191.83万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300587,1246098593.html</t>
+          <t>/news,300587,1246689937.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
+          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-13 14:03</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300587,1246092986.html</t>
+          <t>/news,300587,1246196638.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天铁股份11月11日获深股通增持37.92万股</t>
+          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-12 07:56</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300587,1245987709.html</t>
+          <t>/news,300587,1246098593.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,39 +2227,39 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
+          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-11 08:55</t>
+          <t>11-13 14:03</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300587,1245425823.html</t>
+          <t>/news,300587,1246092986.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天铁股份11月10日被深股通减持153.54万股</t>
+          <t>天铁股份11月11日获深股通增持37.92万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-12 07:56</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300587,1245414654.html</t>
+          <t>/news,300587,1245987709.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
+          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-10 20:19</t>
+          <t>11-11 08:55</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300587,1245310258.html</t>
+          <t>/news,300587,1245425823.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
+          <t>天铁股份11月10日被深股通减持153.54万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-10 16:37</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300587,1245255362.html</t>
+          <t>/news,300587,1245414654.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>1243</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
+          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-10 20:19</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300587,1244900300.html</t>
+          <t>/news,300587,1245310258.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>1629</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天铁股份11月09日被深股通减持39.12万股</t>
+          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-10 16:37</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300587,1244890086.html</t>
+          <t>/news,300587,1245255362.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
+          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300587,1244437480.html</t>
+          <t>/news,300587,1244900300.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天铁股份11月08日获深股通增持34.12万股</t>
+          <t>天铁股份11月09日被深股通减持39.12万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300587,1244425964.html</t>
+          <t>/news,300587,1244890086.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
+          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-08 08:51</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300587,1243983480.html</t>
+          <t>/news,300587,1244437480.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天铁股份11月07日获深股通增持169.7万股</t>
+          <t>天铁股份11月08日获深股通增持34.12万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300587,1243976306.html</t>
+          <t>/news,300587,1244425964.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
+          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-07 20:44</t>
+          <t>11-08 08:51</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300587,1243901122.html</t>
+          <t>/news,300587,1243983480.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
+          <t>天铁股份11月07日获深股通增持169.7万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,51 +2589,51 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-07 08:51</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300587,1243514018.html</t>
+          <t>/news,300587,1243976306.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
+          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-06 20:21</t>
+          <t>11-07 20:44</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300587,1243448935.html</t>
+          <t>/news,300587,1243901122.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,93 +2643,93 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
+          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-07 08:51</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300587,1243409809.html</t>
+          <t>/news,300587,1243514018.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>530</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
+          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-06 20:21</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300587,1243404037.html</t>
+          <t>/news,300587,1243448935.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天铁股份11月04日获深股通增持52.8万股</t>
+          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-05 08:00</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300587,1243320258.html</t>
+          <t>/news,300587,1243409809.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,39 +2739,39 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
+          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-04 08:54</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300587,1242827088.html</t>
+          <t>/news,300587,1243404037.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>699</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天铁股份11月03日获深股通增持170.86万股</t>
+          <t>天铁股份11月04日获深股通增持52.8万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-05 08:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300587,1242816603.html</t>
+          <t>/news,300587,1243320258.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
+          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-04 08:54</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300587,1242335086.html</t>
+          <t>/news,300587,1242827088.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天铁股份11月02日被深股通减持70.02万股</t>
+          <t>天铁股份11月03日获深股通增持170.86万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300587,1242326326.html</t>
+          <t>/news,300587,1242816603.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
+          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-02 08:54</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300587,1241810032.html</t>
+          <t>/news,300587,1242335086.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天铁股份11月01日获深股通增持146.09万股</t>
+          <t>天铁股份11月02日被深股通减持70.02万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-02 07:50</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300587,1241801272.html</t>
+          <t>/news,300587,1242326326.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
+          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-02 08:54</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300587,1241306996.html</t>
+          <t>/news,300587,1241810032.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天铁股份10月31日被深股通减持85.73万股</t>
+          <t>天铁股份11月01日获深股通增持146.09万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 07:50</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300587,1241296433.html</t>
+          <t>/news,300587,1241801272.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1734.23万元，融资余额6852.89万元（10-28）</t>
+          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-31 09:05</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300587,1240799120.html</t>
+          <t>/news,300587,1241306996.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>100</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计1958.54万元（12-12）</t>
+          <t>天铁股份：融资净偿还522.77万元，融资余额4.53亿元（12-13）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-13 09:03</t>
+          <t>12-14 09:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300587,1258772032.html</t>
+          <t>/news,300587,1259356674.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天铁股份12月12日被深股通减持88.75万股</t>
+          <t>天铁股份12月13日获深股通增持49.33万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-13 07:49</t>
+          <t>12-14 08:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300587,1258761068.html</t>
+          <t>/news,300587,1259348614.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入618.09万元，融资余额4.45亿元（12-09）</t>
+          <t>天铁股份：连续3日融资净买入累计1958.54万元（12-12）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-12 09:00</t>
+          <t>12-13 09:03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300587,1258215418.html</t>
+          <t>/news,300587,1258772032.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入1951.52万元，居橡胶制品板块第二</t>
+          <t>天铁股份12月12日被深股通减持88.75万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-11 15:04</t>
+          <t>12-13 07:49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300587,1258087980.html</t>
+          <t>/news,300587,1258761068.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,61 +595,61 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少1391.18万元，居橡胶制品板块第四</t>
+          <t>天铁股份：融资净买入618.09万元，融资余额4.45亿元（12-09）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-11 14:03</t>
+          <t>12-12 09:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300587,1258080729.html</t>
+          <t>/news,300587,1258215418.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天铁股份12月09日被深股通减持56.18万股</t>
+          <t>天铁股份本周融资净买入1951.52万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-10 07:51</t>
+          <t>12-11 15:04</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300587,1257964794.html</t>
+          <t>/news,300587,1258087980.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,39 +659,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入4.21万元，融资余额4.39亿元（12-08）</t>
+          <t>天铁股份本周深股通持股市值减少1391.18万元，居橡胶制品板块第四</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-09 09:16</t>
+          <t>12-11 14:03</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300587,1257409775.html</t>
+          <t>/news,300587,1258080729.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天铁股份12月08日被深股通减持32.03万股</t>
+          <t>天铁股份12月09日被深股通减持56.18万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-09 07:52</t>
+          <t>12-10 07:51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300587,1257393827.html</t>
+          <t>/news,300587,1257964794.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还71.89万元，融资余额4.39亿元（12-07）</t>
+          <t>天铁股份：融资净买入4.21万元，融资余额4.39亿元（12-08）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-08 08:53</t>
+          <t>12-09 09:16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300587,1256766934.html</t>
+          <t>/news,300587,1257409775.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天铁股份12月07日获深股通增持1.29万股</t>
+          <t>天铁股份12月08日被深股通减持32.03万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-08 07:47</t>
+          <t>12-09 07:52</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300587,1256755483.html</t>
+          <t>/news,300587,1257393827.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计2639.94万元（12-06）</t>
+          <t>天铁股份：融资净偿还71.89万元，融资余额4.39亿元（12-07）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-07 09:02</t>
+          <t>12-08 08:53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300587,1256102170.html</t>
+          <t>/news,300587,1256766934.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天铁股份12月06日获深股通增持2.65万股</t>
+          <t>天铁股份12月07日获深股通增持1.29万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-07 07:58</t>
+          <t>12-08 07:47</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300587,1256092679.html</t>
+          <t>/news,300587,1256755483.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1579.32万元，融资余额4.35亿元（12-05）</t>
+          <t>天铁股份：连续3日融资净买入累计2639.94万元（12-06）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-06 08:56</t>
+          <t>12-07 09:02</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300587,1255458725.html</t>
+          <t>/news,300587,1256102170.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天铁股份12月05日被深股通减持28.06万股</t>
+          <t>天铁股份12月06日获深股通增持2.65万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-06 08:00</t>
+          <t>12-07 07:58</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300587,1255450225.html</t>
+          <t>/news,300587,1256092679.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入620.74万元，融资余额4.19亿元（12-02）</t>
+          <t>天铁股份：融资净买入1579.32万元，融资余额4.35亿元（12-05）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-05 09:01</t>
+          <t>12-06 08:56</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300587,1254804854.html</t>
+          <t>/news,300587,1255458725.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入2888.64万元，居橡胶制品板块第二</t>
+          <t>天铁股份12月05日被深股通减持28.06万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-04 15:04</t>
+          <t>12-06 08:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300587,1254648908.html</t>
+          <t>/news,300587,1255450225.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加55.2万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入620.74万元，融资余额4.19亿元（12-02）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-04 14:04</t>
+          <t>12-05 09:01</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300587,1254642233.html</t>
+          <t>/news,300587,1254804854.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天铁股份12月02日被深股通减持94.69万股</t>
+          <t>天铁股份本周融资净买入2888.64万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-03 07:56</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300587,1254513012.html</t>
+          <t>/news,300587,1254648908.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,39 +1043,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还278.76万元，融资余额4.13亿元（12-01）</t>
+          <t>天铁股份本周深股通持股市值增加55.2万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-02 08:49</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300587,1253920598.html</t>
+          <t>/news,300587,1254642233.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天铁股份12月01日获深股通增持220.19万股</t>
+          <t>天铁股份12月02日被深股通减持94.69万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-02 07:57</t>
+          <t>12-03 07:56</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300587,1253914565.html</t>
+          <t>/news,300587,1254513012.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天铁股份：连续9日融资净买入累计9874.94万元（11-30）</t>
+          <t>天铁股份：融资净偿还278.76万元，融资余额4.13亿元（12-01）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-01 08:55</t>
+          <t>12-02 08:49</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300587,1253311771.html</t>
+          <t>/news,300587,1253920598.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天铁股份11月30日被深股通减持36.51万股</t>
+          <t>天铁股份12月01日获深股通增持220.19万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-01 07:44</t>
+          <t>12-02 07:57</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300587,1253300623.html</t>
+          <t>/news,300587,1253914565.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>908</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天铁股份：股东翟小玉、陆凌霄共减持公司股份约14万股</t>
+          <t>天铁股份：连续9日融资净买入累计9874.94万元（11-30）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-30 16:41</t>
+          <t>12-01 08:55</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300587,1253142139.html</t>
+          <t>/news,300587,1253311771.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天铁股份：连续8日融资净买入累计9315.91万元（11-29）</t>
+          <t>天铁股份11月30日被深股通减持36.51万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-30 08:51</t>
+          <t>12-01 07:44</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300587,1252786814.html</t>
+          <t>/news,300587,1253300623.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>915</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天铁股份11月29日被深股通减持109.03万股</t>
+          <t>天铁股份：股东翟小玉、陆凌霄共减持公司股份约14万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-30 07:53</t>
+          <t>11-30 16:41</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300587,1252779185.html</t>
+          <t>/news,300587,1253142139.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级</t>
+          <t>天铁股份：连续8日融资净买入累计9315.91万元（11-29）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,61 +1277,61 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-29 20:06</t>
+          <t>11-30 08:51</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300587,1252679820.html</t>
+          <t>/news,300587,1252786814.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评</t>
+          <t>天铁股份11月29日被深股通减持109.03万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-29 19:55</t>
+          <t>11-30 07:53</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300587,1252639029.html</t>
+          <t>/news,300587,1252779185.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>740</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天铁股份：连续7日融资净买入累计8167.3万元（11-28）</t>
+          <t>东方财富证券给予天铁股份增持评级</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-29 08:53</t>
+          <t>11-29 20:06</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300587,1252223491.html</t>
+          <t>/news,300587,1252679820.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天铁股份11月28日获深股通增持20.41万股</t>
+          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-29 07:44</t>
+          <t>11-29 19:55</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300587,1252211682.html</t>
+          <t>/news,300587,1252639029.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天铁股份：连续6日融资净买入累计6707.55万元（11-25）</t>
+          <t>天铁股份：连续7日融资净买入累计8167.3万元（11-28）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-28 08:55</t>
+          <t>11-29 08:53</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300587,1251735921.html</t>
+          <t>/news,300587,1252223491.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入5303.31万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月28日获深股通增持20.41万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-27 15:10</t>
+          <t>11-29 07:44</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300587,1251591279.html</t>
+          <t>/news,300587,1252211682.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少958.56万元，居橡胶制品板块第二</t>
+          <t>天铁股份：连续6日融资净买入累计6707.55万元（11-25）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-27 14:05</t>
+          <t>11-28 08:55</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300587,1251583940.html</t>
+          <t>/news,300587,1251735921.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天铁股份11月25日被深股通减持22.53万股</t>
+          <t>天铁股份本周融资净买入5303.31万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-26 07:55</t>
+          <t>11-27 15:10</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300587,1251434713.html</t>
+          <t>/news,300587,1251591279.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计6439.99万元（11-24）</t>
+          <t>天铁股份本周深股通持股市值减少958.56万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-25 08:56</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300587,1250952488.html</t>
+          <t>/news,300587,1251583940.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天铁股份11月24日获深股通增持12.78万股</t>
+          <t>天铁股份11月25日被深股通减持22.53万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-25 07:54</t>
+          <t>11-26 07:55</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300587,1250944013.html</t>
+          <t>/news,300587,1251434713.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计5640.49万元（11-23）</t>
+          <t>天铁股份：连续5日融资净买入累计6439.99万元（11-24）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-24 09:03</t>
+          <t>11-25 08:56</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300587,1250432329.html</t>
+          <t>/news,300587,1250952488.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天铁股份11月23日被深股通减持26.35万股</t>
+          <t>天铁股份11月24日获深股通增持12.78万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-24 07:51</t>
+          <t>11-25 07:54</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300587,1250420308.html</t>
+          <t>/news,300587,1250944013.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计4172.27万元（11-22）</t>
+          <t>天铁股份：连续4日融资净买入累计5640.49万元（11-23）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-23 08:47</t>
+          <t>11-24 09:03</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300587,1249883621.html</t>
+          <t>/news,300587,1250432329.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天铁股份11月22日被深股通减持61.45万股</t>
+          <t>天铁股份11月23日被深股通减持26.35万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-23 07:56</t>
+          <t>11-24 07:51</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300587,1249876845.html</t>
+          <t>/news,300587,1250420308.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入742.86万元，融资余额3.36亿元（11-21）</t>
+          <t>天铁股份：连续3日融资净买入累计4172.27万元（11-22）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-23 08:47</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300587,1249356793.html</t>
+          <t>/news,300587,1249883621.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天铁股份11月21日获深股通增持19.59万股</t>
+          <t>天铁股份11月22日被深股通减持61.45万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-22 07:49</t>
+          <t>11-23 07:56</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300587,1249348156.html</t>
+          <t>/news,300587,1249876845.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
+          <t>天铁股份：融资净买入742.86万元，融资余额3.36亿元（11-21）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-21 08:53</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300587,1248873328.html</t>
+          <t>/news,300587,1249356793.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月21日获深股通增持19.59万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300587,1248768250.html</t>
+          <t>/news,300587,1249348156.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-20 14:04</t>
+          <t>11-21 08:53</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300587,1248762611.html</t>
+          <t>/news,300587,1248873328.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天铁股份11月18日被深股通减持97.57万股</t>
+          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-19 07:49</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300587,1248638070.html</t>
+          <t>/news,300587,1248768250.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
+          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-18 08:51</t>
+          <t>11-20 14:04</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300587,1248163248.html</t>
+          <t>/news,300587,1248762611.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天铁股份11月17日获深股通增持12.78万股</t>
+          <t>天铁股份11月18日被深股通减持97.57万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-18 08:00</t>
+          <t>11-19 07:49</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300587,1248155326.html</t>
+          <t>/news,300587,1248638070.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
+          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-18 08:51</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300587,1247677306.html</t>
+          <t>/news,300587,1248163248.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天铁股份11月16日获深股通增持3.97万股</t>
+          <t>天铁股份11月17日获深股通增持12.78万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-18 08:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300587,1247665362.html</t>
+          <t>/news,300587,1248155326.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
+          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300587,1247183873.html</t>
+          <t>/news,300587,1247677306.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天铁股份11月15日被深股通减持47.76万股</t>
+          <t>天铁股份11月16日获深股通增持3.97万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300587,1247176104.html</t>
+          <t>/news,300587,1247665362.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
+          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-15 08:52</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300587,1246698742.html</t>
+          <t>/news,300587,1247183873.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天铁股份11月14日获深股通增持191.83万股</t>
+          <t>天铁股份11月15日被深股通减持47.76万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300587,1246689937.html</t>
+          <t>/news,300587,1247176104.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
+          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,51 +2173,51 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:52</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300587,1246196638.html</t>
+          <t>/news,300587,1246698742.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月14日获深股通增持191.83万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300587,1246098593.html</t>
+          <t>/news,300587,1246689937.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
+          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-13 14:03</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300587,1246092986.html</t>
+          <t>/news,300587,1246196638.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天铁股份11月11日获深股通增持37.92万股</t>
+          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-12 07:56</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300587,1245987709.html</t>
+          <t>/news,300587,1246098593.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,39 +2291,39 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
+          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-11 08:55</t>
+          <t>11-13 14:03</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300587,1245425823.html</t>
+          <t>/news,300587,1246092986.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天铁股份11月10日被深股通减持153.54万股</t>
+          <t>天铁股份11月11日获深股通增持37.92万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-12 07:56</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300587,1245414654.html</t>
+          <t>/news,300587,1245987709.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1243</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
+          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-10 20:19</t>
+          <t>11-11 08:55</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300587,1245310258.html</t>
+          <t>/news,300587,1245425823.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1629</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
+          <t>天铁股份11月10日被深股通减持153.54万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-10 16:37</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300587,1245255362.html</t>
+          <t>/news,300587,1245414654.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>1243</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
+          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-10 20:19</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300587,1244900300.html</t>
+          <t>/news,300587,1245310258.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>1632</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天铁股份11月09日被深股通减持39.12万股</t>
+          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-10 16:37</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300587,1244890086.html</t>
+          <t>/news,300587,1245255362.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
+          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300587,1244437480.html</t>
+          <t>/news,300587,1244900300.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天铁股份11月08日获深股通增持34.12万股</t>
+          <t>天铁股份11月09日被深股通减持39.12万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300587,1244425964.html</t>
+          <t>/news,300587,1244890086.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
+          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-08 08:51</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300587,1243983480.html</t>
+          <t>/news,300587,1244437480.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天铁股份11月07日获深股通增持169.7万股</t>
+          <t>天铁股份11月08日获深股通增持34.12万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300587,1243976306.html</t>
+          <t>/news,300587,1244425964.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
+          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-07 20:44</t>
+          <t>11-08 08:51</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300587,1243901122.html</t>
+          <t>/news,300587,1243983480.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
+          <t>天铁股份11月07日获深股通增持169.7万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,51 +2653,51 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-07 08:51</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300587,1243514018.html</t>
+          <t>/news,300587,1243976306.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
+          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-06 20:21</t>
+          <t>11-07 20:44</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300587,1243448935.html</t>
+          <t>/news,300587,1243901122.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,93 +2707,93 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
+          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-07 08:51</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300587,1243409809.html</t>
+          <t>/news,300587,1243514018.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>530</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
+          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-06 20:21</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300587,1243404037.html</t>
+          <t>/news,300587,1243448935.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天铁股份11月04日获深股通增持52.8万股</t>
+          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-05 08:00</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300587,1243320258.html</t>
+          <t>/news,300587,1243409809.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
+          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-04 08:54</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300587,1242827088.html</t>
+          <t>/news,300587,1243404037.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>699</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天铁股份11月03日获深股通增持170.86万股</t>
+          <t>天铁股份11月04日获深股通增持52.8万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-05 08:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300587,1242816603.html</t>
+          <t>/news,300587,1243320258.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
+          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-04 08:54</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300587,1242335086.html</t>
+          <t>/news,300587,1242827088.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天铁股份11月02日被深股通减持70.02万股</t>
+          <t>天铁股份11月03日获深股通增持170.86万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300587,1242326326.html</t>
+          <t>/news,300587,1242816603.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
+          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-02 08:54</t>
+          <t>11-03 08:55</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300587,1241810032.html</t>
+          <t>/news,300587,1242335086.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天铁股份11月01日获深股通增持146.09万股</t>
+          <t>天铁股份11月02日被深股通减持70.02万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-02 07:50</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300587,1241801272.html</t>
+          <t>/news,300587,1242326326.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1850.62万元，融资余额8703.51万元（10-31）</t>
+          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-02 08:54</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300587,1241306996.html</t>
+          <t>/news,300587,1241810032.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还522.77万元，融资余额4.53亿元（12-13）</t>
+          <t>天铁股份：融资净买入1953.54万元，融资余额5.05亿元（12-19）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-14 09:00</t>
+          <t>12-20 08:46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300587,1259356674.html</t>
+          <t>/news,300587,1261730748.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天铁股份12月13日获深股通增持49.33万股</t>
+          <t>天铁股份12月19日被深股通减持69.63万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-14 08:00</t>
+          <t>12-20 07:41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300587,1259348614.html</t>
+          <t>/news,300587,1261722932.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计1958.54万元（12-12）</t>
+          <t>天铁股份：融资净买入1693.75万元，融资余额4.85亿元（12-16）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-13 09:03</t>
+          <t>12-19 09:02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300587,1258772032.html</t>
+          <t>/news,300587,1261209291.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天铁股份12月12日被深股通减持88.75万股</t>
+          <t>天铁股份本周融资净买入2320.44万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-13 07:49</t>
+          <t>12-18 15:08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300587,1258761068.html</t>
+          <t>/news,300587,1261087500.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,61 +595,61 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入618.09万元，融资余额4.45亿元（12-09）</t>
+          <t>天铁股份本周深股通持股市值减少386.98万元，居橡胶制品板块第五</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-12 09:00</t>
+          <t>12-18 14:05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300587,1258215418.html</t>
+          <t>/news,300587,1261080728.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>568</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入1951.52万元，居橡胶制品板块第二</t>
+          <t>天铁股份12月16日被深股通减持112.93万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-11 15:04</t>
+          <t>12-17 07:43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300587,1258087980.html</t>
+          <t>/news,300587,1260974732.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少1391.18万元，居橡胶制品板块第四</t>
+          <t>天铁股份：融资净偿还265.9万元，融资余额4.68亿元（12-15）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-11 14:03</t>
+          <t>12-16 09:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300587,1258080729.html</t>
+          <t>/news,300587,1260488011.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天铁股份12月09日被深股通减持56.18万股</t>
+          <t>天铁股份12月15日获深股通增持164.48万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-10 07:51</t>
+          <t>12-16 07:58</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300587,1257964794.html</t>
+          <t>/news,300587,1260478756.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入4.21万元，融资余额4.39亿元（12-08）</t>
+          <t>天铁股份：融资净买入1772.86万元，融资余额4.71亿元（12-14）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-09 09:16</t>
+          <t>12-15 08:55</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300587,1257409775.html</t>
+          <t>/news,300587,1259943409.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天铁股份12月08日被深股通减持32.03万股</t>
+          <t>天铁股份12月14日被深股通减持45.96万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-09 07:52</t>
+          <t>12-15 07:47</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300587,1257393827.html</t>
+          <t>/news,300587,1259932601.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还71.89万元，融资余额4.39亿元（12-07）</t>
+          <t>注意！天铁股份将于12月30日召开股东大会</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-08 08:53</t>
+          <t>12-14 19:16</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300587,1256766934.html</t>
+          <t>/news,300587,1259760026.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天铁股份12月07日获深股通增持1.29万股</t>
+          <t>天铁股份：融资净偿还522.77万元，融资余额4.53亿元（12-13）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-08 07:47</t>
+          <t>12-14 09:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300587,1256755483.html</t>
+          <t>/news,300587,1259356674.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计2639.94万元（12-06）</t>
+          <t>天铁股份12月13日获深股通增持49.33万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-07 09:02</t>
+          <t>12-14 08:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300587,1256102170.html</t>
+          <t>/news,300587,1259348614.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天铁股份12月06日获深股通增持2.65万股</t>
+          <t>天铁股份：连续3日融资净买入累计1958.54万元（12-12）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-07 07:58</t>
+          <t>12-13 09:03</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300587,1256092679.html</t>
+          <t>/news,300587,1258772032.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1579.32万元，融资余额4.35亿元（12-05）</t>
+          <t>天铁股份12月12日被深股通减持88.75万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-06 08:56</t>
+          <t>12-13 07:49</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300587,1255458725.html</t>
+          <t>/news,300587,1258761068.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天铁股份12月05日被深股通减持28.06万股</t>
+          <t>天铁股份：融资净买入618.09万元，融资余额4.45亿元（12-09）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-06 08:00</t>
+          <t>12-12 09:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300587,1255450225.html</t>
+          <t>/news,300587,1258215418.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入620.74万元，融资余额4.19亿元（12-02）</t>
+          <t>天铁股份本周融资净买入1951.52万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-05 09:01</t>
+          <t>12-11 15:04</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300587,1254804854.html</t>
+          <t>/news,300587,1258087980.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,61 +1011,61 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入2888.64万元，居橡胶制品板块第二</t>
+          <t>天铁股份本周深股通持股市值减少1391.18万元，居橡胶制品板块第四</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-04 15:04</t>
+          <t>12-11 14:03</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300587,1254648908.html</t>
+          <t>/news,300587,1258080729.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加55.2万元，居橡胶制品板块第二</t>
+          <t>天铁股份12月09日被深股通减持56.18万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-04 14:04</t>
+          <t>12-10 07:51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300587,1254642233.html</t>
+          <t>/news,300587,1257964794.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天铁股份12月02日被深股通减持94.69万股</t>
+          <t>天铁股份：融资净买入4.21万元，融资余额4.39亿元（12-08）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-03 07:56</t>
+          <t>12-09 09:16</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300587,1254513012.html</t>
+          <t>/news,300587,1257409775.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还278.76万元，融资余额4.13亿元（12-01）</t>
+          <t>天铁股份12月08日被深股通减持32.03万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-02 08:49</t>
+          <t>12-09 07:52</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300587,1253920598.html</t>
+          <t>/news,300587,1257393827.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天铁股份12月01日获深股通增持220.19万股</t>
+          <t>天铁股份：融资净偿还71.89万元，融资余额4.39亿元（12-07）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-02 07:57</t>
+          <t>12-08 08:53</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300587,1253914565.html</t>
+          <t>/news,300587,1256766934.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天铁股份：连续9日融资净买入累计9874.94万元（11-30）</t>
+          <t>天铁股份12月07日获深股通增持1.29万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-01 08:55</t>
+          <t>12-08 07:47</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300587,1253311771.html</t>
+          <t>/news,300587,1256755483.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天铁股份11月30日被深股通减持36.51万股</t>
+          <t>天铁股份：连续3日融资净买入累计2639.94万元（12-06）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-01 07:44</t>
+          <t>12-07 09:02</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300587,1253300623.html</t>
+          <t>/news,300587,1256102170.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>915</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天铁股份：股东翟小玉、陆凌霄共减持公司股份约14万股</t>
+          <t>天铁股份12月06日获深股通增持2.65万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-30 16:41</t>
+          <t>12-07 07:58</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300587,1253142139.html</t>
+          <t>/news,300587,1256092679.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天铁股份：连续8日融资净买入累计9315.91万元（11-29）</t>
+          <t>天铁股份：融资净买入1579.32万元，融资余额4.35亿元（12-05）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-30 08:51</t>
+          <t>12-06 08:56</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300587,1252786814.html</t>
+          <t>/news,300587,1255458725.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天铁股份11月29日被深股通减持109.03万股</t>
+          <t>天铁股份12月05日被深股通减持28.06万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-30 07:53</t>
+          <t>12-06 08:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300587,1252779185.html</t>
+          <t>/news,300587,1255450225.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级</t>
+          <t>天铁股份：融资净买入620.74万元，融资余额4.19亿元（12-02）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-29 20:06</t>
+          <t>12-05 09:01</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300587,1252679820.html</t>
+          <t>/news,300587,1254804854.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,22 +1363,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
+          <t>天铁股份本周融资净买入2888.64万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-29 19:55</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300587,1252639029.html</t>
+          <t>/news,300587,1254648908.html</t>
         </is>
       </c>
     </row>
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天铁股份：连续7日融资净买入累计8167.3万元（11-28）</t>
+          <t>天铁股份本周深股通持股市值增加55.2万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-29 08:53</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300587,1252223491.html</t>
+          <t>/news,300587,1254642233.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天铁股份11月28日获深股通增持20.41万股</t>
+          <t>天铁股份12月02日被深股通减持94.69万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-29 07:44</t>
+          <t>12-03 07:56</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300587,1252211682.html</t>
+          <t>/news,300587,1254513012.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天铁股份：连续6日融资净买入累计6707.55万元（11-25）</t>
+          <t>天铁股份：融资净偿还278.76万元，融资余额4.13亿元（12-01）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,51 +1469,51 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-28 08:55</t>
+          <t>12-02 08:49</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300587,1251735921.html</t>
+          <t>/news,300587,1253920598.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入5303.31万元，居橡胶制品板块第一</t>
+          <t>天铁股份12月01日获深股通增持220.19万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-27 15:10</t>
+          <t>12-02 07:57</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300587,1251591279.html</t>
+          <t>/news,300587,1253914565.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少958.56万元，居橡胶制品板块第二</t>
+          <t>天铁股份：连续9日融资净买入累计9874.94万元（11-30）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-27 14:05</t>
+          <t>12-01 08:55</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300587,1251583940.html</t>
+          <t>/news,300587,1253311771.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天铁股份11月25日被深股通减持22.53万股</t>
+          <t>天铁股份11月30日被深股通减持36.51万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-26 07:55</t>
+          <t>12-01 07:44</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300587,1251434713.html</t>
+          <t>/news,300587,1253300623.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>938</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计6439.99万元（11-24）</t>
+          <t>天铁股份：股东翟小玉、陆凌霄共减持公司股份约14万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-25 08:56</t>
+          <t>11-30 16:41</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300587,1250952488.html</t>
+          <t>/news,300587,1253142139.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天铁股份11月24日获深股通增持12.78万股</t>
+          <t>天铁股份：连续8日融资净买入累计9315.91万元（11-29）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-25 07:54</t>
+          <t>11-30 08:51</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300587,1250944013.html</t>
+          <t>/news,300587,1252786814.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计5640.49万元（11-23）</t>
+          <t>天铁股份11月29日被深股通减持109.03万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-24 09:03</t>
+          <t>11-30 07:53</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300587,1250432329.html</t>
+          <t>/news,300587,1252779185.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>763</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天铁股份11月23日被深股通减持26.35万股</t>
+          <t>东方财富证券给予天铁股份增持评级</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-24 07:51</t>
+          <t>11-29 20:06</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300587,1250420308.html</t>
+          <t>/news,300587,1252679820.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计4172.27万元（11-22）</t>
+          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-23 08:47</t>
+          <t>11-29 19:55</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300587,1249883621.html</t>
+          <t>/news,300587,1252639029.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天铁股份11月22日被深股通减持61.45万股</t>
+          <t>天铁股份：连续7日融资净买入累计8167.3万元（11-28）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-23 07:56</t>
+          <t>11-29 08:53</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300587,1249876845.html</t>
+          <t>/news,300587,1252223491.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入742.86万元，融资余额3.36亿元（11-21）</t>
+          <t>天铁股份11月28日获深股通增持20.41万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-29 07:44</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300587,1249356793.html</t>
+          <t>/news,300587,1252211682.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天铁股份11月21日获深股通增持19.59万股</t>
+          <t>天铁股份：连续6日融资净买入累计6707.55万元（11-25）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-22 07:49</t>
+          <t>11-28 08:55</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300587,1249348156.html</t>
+          <t>/news,300587,1251735921.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
+          <t>天铁股份本周融资净买入5303.31万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-21 08:53</t>
+          <t>11-27 15:10</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300587,1248873328.html</t>
+          <t>/news,300587,1251591279.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
+          <t>天铁股份本周深股通持股市值减少958.56万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300587,1248768250.html</t>
+          <t>/news,300587,1251583940.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
+          <t>天铁股份11月25日被深股通减持22.53万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-20 14:04</t>
+          <t>11-26 07:55</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300587,1248762611.html</t>
+          <t>/news,300587,1251434713.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天铁股份11月18日被深股通减持97.57万股</t>
+          <t>天铁股份：连续5日融资净买入累计6439.99万元（11-24）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-19 07:49</t>
+          <t>11-25 08:56</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300587,1248638070.html</t>
+          <t>/news,300587,1250952488.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
+          <t>天铁股份11月24日获深股通增持12.78万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-18 08:51</t>
+          <t>11-25 07:54</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300587,1248163248.html</t>
+          <t>/news,300587,1250944013.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天铁股份11月17日获深股通增持12.78万股</t>
+          <t>天铁股份：连续4日融资净买入累计5640.49万元（11-23）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-18 08:00</t>
+          <t>11-24 09:03</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300587,1248155326.html</t>
+          <t>/news,300587,1250432329.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
+          <t>天铁股份11月23日被深股通减持26.35万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,12 +2045,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-24 07:51</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300587,1247677306.html</t>
+          <t>/news,300587,1250420308.html</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天铁股份11月16日获深股通增持3.97万股</t>
+          <t>天铁股份：连续3日融资净买入累计4172.27万元（11-22）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-23 08:47</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300587,1247665362.html</t>
+          <t>/news,300587,1249883621.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
+          <t>天铁股份11月22日被深股通减持61.45万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-23 07:56</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300587,1247183873.html</t>
+          <t>/news,300587,1249876845.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天铁股份11月15日被深股通减持47.76万股</t>
+          <t>天铁股份：融资净买入742.86万元，融资余额3.36亿元（11-21）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300587,1247176104.html</t>
+          <t>/news,300587,1249356793.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
+          <t>天铁股份11月21日获深股通增持19.59万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-15 08:52</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300587,1246698742.html</t>
+          <t>/news,300587,1249348156.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天铁股份11月14日获深股通增持191.83万股</t>
+          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-21 08:53</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300587,1246689937.html</t>
+          <t>/news,300587,1248873328.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
+          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300587,1246196638.html</t>
+          <t>/news,300587,1248768250.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
+          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-20 14:04</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300587,1246098593.html</t>
+          <t>/news,300587,1248762611.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
+          <t>天铁股份11月18日被深股通减持97.57万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-13 14:03</t>
+          <t>11-19 07:49</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300587,1246092986.html</t>
+          <t>/news,300587,1248638070.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天铁股份11月11日获深股通增持37.92万股</t>
+          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-12 07:56</t>
+          <t>11-18 08:51</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300587,1245987709.html</t>
+          <t>/news,300587,1248163248.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
+          <t>天铁股份11月17日获深股通增持12.78万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-11 08:55</t>
+          <t>11-18 08:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300587,1245425823.html</t>
+          <t>/news,300587,1248155326.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天铁股份11月10日被深股通减持153.54万股</t>
+          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300587,1245414654.html</t>
+          <t>/news,300587,1247677306.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1243</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
+          <t>天铁股份11月16日获深股通增持3.97万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-10 20:19</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300587,1245310258.html</t>
+          <t>/news,300587,1247665362.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
+          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-10 16:37</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300587,1245255362.html</t>
+          <t>/news,300587,1247183873.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
+          <t>天铁股份11月15日被深股通减持47.76万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300587,1244900300.html</t>
+          <t>/news,300587,1247176104.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天铁股份11月09日被深股通减持39.12万股</t>
+          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-15 08:52</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300587,1244890086.html</t>
+          <t>/news,300587,1246698742.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>588</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
+          <t>天铁股份11月14日获深股通增持191.83万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300587,1244437480.html</t>
+          <t>/news,300587,1246689937.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天铁股份11月08日获深股通增持34.12万股</t>
+          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300587,1244425964.html</t>
+          <t>/news,300587,1246196638.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
+          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-08 08:51</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300587,1243983480.html</t>
+          <t>/news,300587,1246098593.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,39 +2643,39 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天铁股份11月07日获深股通增持169.7万股</t>
+          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-13 14:03</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300587,1243976306.html</t>
+          <t>/news,300587,1246092986.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持4万股 减持金额51.12万元</t>
+          <t>天铁股份11月11日获深股通增持37.92万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-07 20:44</t>
+          <t>11-12 07:56</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300587,1243901122.html</t>
+          <t>/news,300587,1245987709.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入9851.18万元，两市排名第15（11-04）</t>
+          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-07 08:51</t>
+          <t>11-11 08:55</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300587,1243514018.html</t>
+          <t>/news,300587,1245425823.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,61 +2739,61 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>华鑫证券维持天铁股份买入评级 预计2022年净利润同比增长56.08%</t>
+          <t>天铁股份11月10日被深股通减持153.54万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-06 20:21</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300587,1243448935.html</t>
+          <t>/news,300587,1245414654.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>1248</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入3885.51万元，居橡胶制品板块第三</t>
+          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-10 20:19</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300587,1243409809.html</t>
+          <t>/news,300587,1245310258.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>1638</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加2599.1万元，居橡胶制品板块第二</t>
+          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-10 16:37</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300587,1243404037.html</t>
+          <t>/news,300587,1245255362.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天铁股份11月04日获深股通增持52.8万股</t>
+          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-05 08:00</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300587,1243320258.html</t>
+          <t>/news,300587,1244900300.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还582.18万元，融资余额1.07亿元（11-03）</t>
+          <t>天铁股份11月09日被深股通减持39.12万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-04 08:54</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300587,1242827088.html</t>
+          <t>/news,300587,1244890086.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天铁股份11月03日获深股通增持170.86万股</t>
+          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300587,1242816603.html</t>
+          <t>/news,300587,1244437480.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1866.18万元，融资余额1.13亿元（11-02）</t>
+          <t>天铁股份11月08日获深股通增持34.12万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-03 08:55</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300587,1242335086.html</t>
+          <t>/news,300587,1244425964.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天铁股份11月02日被深股通减持70.02万股</t>
+          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-08 08:51</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300587,1242326326.html</t>
+          <t>/news,300587,1243983480.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入750.88万元，融资余额9454.39万元（11-01）</t>
+          <t>天铁股份11月07日获深股通增持169.7万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-02 08:54</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300587,1241810032.html</t>
+          <t>/news,300587,1243976306.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300587.xlsx
+++ b/news_ann/news/tmp/300587.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1953.54万元，融资余额5.05亿元（12-19）</t>
+          <t>天铁股份：融资净买入5335.01万元，两市排名第六（12-22）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-20 08:46</t>
+          <t>12-23 08:43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300587,1261730748.html</t>
+          <t>/news,300587,1263199072.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天铁股份12月19日被深股通减持69.63万股</t>
+          <t>天铁股份12月22日被深股通减持82.85万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-20 07:41</t>
+          <t>12-23 07:42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300587,1261722932.html</t>
+          <t>/news,300587,1263190583.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1693.75万元，融资余额4.85亿元（12-16）</t>
+          <t>天铁股份：融资净买入2294.92万元，融资余额5.26亿元（12-21）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-19 09:02</t>
+          <t>12-22 08:39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300587,1261209291.html</t>
+          <t>/news,300587,1262676663.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入2320.44万元，居橡胶制品板块第三</t>
+          <t>天铁股份12月21日获深股通增持37.16万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-18 15:08</t>
+          <t>12-22 07:32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300587,1261087500.html</t>
+          <t>/news,300587,1262668290.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少386.98万元，居橡胶制品板块第五</t>
+          <t>注意！天铁股份将于2023年1月9日召开股东大会</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-18 14:05</t>
+          <t>12-21 17:23</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300587,1261080728.html</t>
+          <t>/news,300587,1262531188.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天铁股份12月16日被深股通减持112.93万股</t>
+          <t>天铁股份：融资净偿还139.8万元，融资余额5.03亿元（12-20）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-17 07:43</t>
+          <t>12-21 08:54</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300587,1260974732.html</t>
+          <t>/news,300587,1262205252.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还265.9万元，融资余额4.68亿元（12-15）</t>
+          <t>天铁股份：融资净买入1953.54万元，融资余额5.05亿元（12-19）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-16 09:00</t>
+          <t>12-20 08:46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300587,1260488011.html</t>
+          <t>/news,300587,1261730748.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天铁股份12月15日获深股通增持164.48万股</t>
+          <t>天铁股份12月19日被深股通减持69.63万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-16 07:58</t>
+          <t>12-20 07:41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300587,1260478756.html</t>
+          <t>/news,300587,1261722932.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1772.86万元，融资余额4.71亿元（12-14）</t>
+          <t>天铁股份：融资净买入1693.75万元，融资余额4.85亿元（12-16）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,51 +733,51 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-15 08:55</t>
+          <t>12-19 09:02</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300587,1259943409.html</t>
+          <t>/news,300587,1261209291.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天铁股份12月14日被深股通减持45.96万股</t>
+          <t>天铁股份本周融资净买入2320.44万元，居橡胶制品板块第三</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-15 07:47</t>
+          <t>12-18 15:08</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300587,1259932601.html</t>
+          <t>/news,300587,1261087500.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>注意！天铁股份将于12月30日召开股东大会</t>
+          <t>天铁股份本周深股通持股市值减少386.98万元，居橡胶制品板块第五</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-14 19:16</t>
+          <t>12-18 14:05</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300587,1259760026.html</t>
+          <t>/news,300587,1261080728.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还522.77万元，融资余额4.53亿元（12-13）</t>
+          <t>天铁股份12月16日被深股通减持112.93万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-14 09:00</t>
+          <t>12-17 07:43</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300587,1259356674.html</t>
+          <t>/news,300587,1260974732.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天铁股份12月13日获深股通增持49.33万股</t>
+          <t>天铁股份：融资净偿还265.9万元，融资余额4.68亿元（12-15）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-14 08:00</t>
+          <t>12-16 09:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300587,1259348614.html</t>
+          <t>/news,300587,1260488011.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计1958.54万元（12-12）</t>
+          <t>天铁股份12月15日获深股通增持164.48万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-13 09:03</t>
+          <t>12-16 07:58</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300587,1258772032.html</t>
+          <t>/news,300587,1260478756.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天铁股份12月12日被深股通减持88.75万股</t>
+          <t>天铁股份：融资净买入1772.86万元，融资余额4.71亿元（12-14）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-13 07:49</t>
+          <t>12-15 08:55</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300587,1258761068.html</t>
+          <t>/news,300587,1259943409.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入618.09万元，融资余额4.45亿元（12-09）</t>
+          <t>天铁股份12月14日被深股通减持45.96万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-12 09:00</t>
+          <t>12-15 07:47</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300587,1258215418.html</t>
+          <t>/news,300587,1259932601.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>743</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入1951.52万元，居橡胶制品板块第二</t>
+          <t>注意！天铁股份将于12月30日召开股东大会</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-11 15:04</t>
+          <t>12-14 19:16</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300587,1258087980.html</t>
+          <t>/news,300587,1259760026.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,39 +1011,39 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少1391.18万元，居橡胶制品板块第四</t>
+          <t>天铁股份：融资净偿还522.77万元，融资余额4.53亿元（12-13）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-11 14:03</t>
+          <t>12-14 09:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300587,1258080729.html</t>
+          <t>/news,300587,1259356674.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天铁股份12月09日被深股通减持56.18万股</t>
+          <t>天铁股份12月13日获深股通增持49.33万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-10 07:51</t>
+          <t>12-14 08:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300587,1257964794.html</t>
+          <t>/news,300587,1259348614.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入4.21万元，融资余额4.39亿元（12-08）</t>
+          <t>天铁股份：连续3日融资净买入累计1958.54万元（12-12）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-09 09:16</t>
+          <t>12-13 09:03</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300587,1257409775.html</t>
+          <t>/news,300587,1258772032.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天铁股份12月08日被深股通减持32.03万股</t>
+          <t>天铁股份12月12日被深股通减持88.75万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-09 07:52</t>
+          <t>12-13 07:49</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300587,1257393827.html</t>
+          <t>/news,300587,1258761068.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还71.89万元，融资余额4.39亿元（12-07）</t>
+          <t>天铁股份：融资净买入618.09万元，融资余额4.45亿元（12-09）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-08 08:53</t>
+          <t>12-12 09:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300587,1256766934.html</t>
+          <t>/news,300587,1258215418.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天铁股份12月07日获深股通增持1.29万股</t>
+          <t>天铁股份本周融资净买入1951.52万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-08 07:47</t>
+          <t>12-11 15:04</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300587,1256755483.html</t>
+          <t>/news,300587,1258087980.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,39 +1203,39 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计2639.94万元（12-06）</t>
+          <t>天铁股份本周深股通持股市值减少1391.18万元，居橡胶制品板块第四</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-07 09:02</t>
+          <t>12-11 14:03</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300587,1256102170.html</t>
+          <t>/news,300587,1258080729.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>619</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天铁股份12月06日获深股通增持2.65万股</t>
+          <t>天铁股份12月09日被深股通减持56.18万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-07 07:58</t>
+          <t>12-10 07:51</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300587,1256092679.html</t>
+          <t>/news,300587,1257964794.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1579.32万元，融资余额4.35亿元（12-05）</t>
+          <t>天铁股份：融资净买入4.21万元，融资余额4.39亿元（12-08）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-06 08:56</t>
+          <t>12-09 09:16</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300587,1255458725.html</t>
+          <t>/news,300587,1257409775.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天铁股份12月05日被深股通减持28.06万股</t>
+          <t>天铁股份12月08日被深股通减持32.03万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-06 08:00</t>
+          <t>12-09 07:52</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300587,1255450225.html</t>
+          <t>/news,300587,1257393827.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入620.74万元，融资余额4.19亿元（12-02）</t>
+          <t>天铁股份：融资净偿还71.89万元，融资余额4.39亿元（12-07）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-05 09:01</t>
+          <t>12-08 08:53</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300587,1254804854.html</t>
+          <t>/news,300587,1256766934.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入2888.64万元，居橡胶制品板块第二</t>
+          <t>天铁股份12月07日获深股通增持1.29万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-04 15:04</t>
+          <t>12-08 07:47</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300587,1254648908.html</t>
+          <t>/news,300587,1256755483.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加55.2万元，居橡胶制品板块第二</t>
+          <t>天铁股份：连续3日融资净买入累计2639.94万元（12-06）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-04 14:04</t>
+          <t>12-07 09:02</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300587,1254642233.html</t>
+          <t>/news,300587,1256102170.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天铁股份12月02日被深股通减持94.69万股</t>
+          <t>天铁股份12月06日获深股通增持2.65万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-03 07:56</t>
+          <t>12-07 07:58</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300587,1254513012.html</t>
+          <t>/news,300587,1256092679.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还278.76万元，融资余额4.13亿元（12-01）</t>
+          <t>天铁股份：融资净买入1579.32万元，融资余额4.35亿元（12-05）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-02 08:49</t>
+          <t>12-06 08:56</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300587,1253920598.html</t>
+          <t>/news,300587,1255458725.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天铁股份12月01日获深股通增持220.19万股</t>
+          <t>天铁股份12月05日被深股通减持28.06万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12-02 07:57</t>
+          <t>12-06 08:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300587,1253914565.html</t>
+          <t>/news,300587,1255450225.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天铁股份：连续9日融资净买入累计9874.94万元（11-30）</t>
+          <t>天铁股份：融资净买入620.74万元，融资余额4.19亿元（12-02）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12-01 08:55</t>
+          <t>12-05 09:01</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300587,1253311771.html</t>
+          <t>/news,300587,1254804854.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,71 +1555,71 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天铁股份11月30日被深股通减持36.51万股</t>
+          <t>天铁股份本周融资净买入2888.64万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>12-01 07:44</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300587,1253300623.html</t>
+          <t>/news,300587,1254648908.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>938</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天铁股份：股东翟小玉、陆凌霄共减持公司股份约14万股</t>
+          <t>天铁股份本周深股通持股市值增加55.2万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-30 16:41</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300587,1253142139.html</t>
+          <t>/news,300587,1254642233.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天铁股份：连续8日融资净买入累计9315.91万元（11-29）</t>
+          <t>天铁股份12月02日被深股通减持94.69万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-30 08:51</t>
+          <t>12-03 07:56</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300587,1252786814.html</t>
+          <t>/news,300587,1254513012.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天铁股份11月29日被深股通减持109.03万股</t>
+          <t>天铁股份：融资净偿还278.76万元，融资余额4.13亿元（12-01）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-30 07:53</t>
+          <t>12-02 08:49</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300587,1252779185.html</t>
+          <t>/news,300587,1253920598.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>东方财富证券给予天铁股份增持评级</t>
+          <t>天铁股份12月01日获深股通增持220.19万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-29 20:06</t>
+          <t>12-02 07:57</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300587,1252679820.html</t>
+          <t>/news,300587,1253914565.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
+          <t>天铁股份：连续9日融资净买入累计9874.94万元（11-30）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-29 19:55</t>
+          <t>12-01 08:55</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300587,1252639029.html</t>
+          <t>/news,300587,1253311771.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天铁股份：连续7日融资净买入累计8167.3万元（11-28）</t>
+          <t>天铁股份11月30日被深股通减持36.51万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-29 08:53</t>
+          <t>12-01 07:44</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300587,1252223491.html</t>
+          <t>/news,300587,1253300623.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>958</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天铁股份11月28日获深股通增持20.41万股</t>
+          <t>天铁股份：股东翟小玉、陆凌霄共减持公司股份约14万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-29 07:44</t>
+          <t>11-30 16:41</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300587,1252211682.html</t>
+          <t>/news,300587,1253142139.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天铁股份：连续6日融资净买入累计6707.55万元（11-25）</t>
+          <t>天铁股份：连续8日融资净买入累计9315.91万元（11-29）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,83 +1821,83 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-28 08:55</t>
+          <t>11-30 08:51</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300587,1251735921.html</t>
+          <t>/news,300587,1252786814.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入5303.31万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月29日被深股通减持109.03万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-27 15:10</t>
+          <t>11-30 07:53</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300587,1251591279.html</t>
+          <t>/news,300587,1252779185.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>775</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值减少958.56万元，居橡胶制品板块第二</t>
+          <t>东方财富证券给予天铁股份增持评级</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-27 14:05</t>
+          <t>11-29 20:06</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300587,1251583940.html</t>
+          <t>/news,300587,1252679820.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天铁股份11月25日被深股通减持22.53万股</t>
+          <t>东方财富证券维持天铁股份增持评级 预计2022年净利润同比增长56.05%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-26 07:55</t>
+          <t>11-29 19:55</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300587,1251434713.html</t>
+          <t>/news,300587,1252639029.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计6439.99万元（11-24）</t>
+          <t>天铁股份：连续7日融资净买入累计8167.3万元（11-28）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-25 08:56</t>
+          <t>11-29 08:53</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300587,1250952488.html</t>
+          <t>/news,300587,1252223491.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天铁股份11月24日获深股通增持12.78万股</t>
+          <t>天铁股份11月28日获深股通增持20.41万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-25 07:54</t>
+          <t>11-29 07:44</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300587,1250944013.html</t>
+          <t>/news,300587,1252211682.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计5640.49万元（11-23）</t>
+          <t>天铁股份：连续6日融资净买入累计6707.55万元（11-25）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,51 +2013,51 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-24 09:03</t>
+          <t>11-28 08:55</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300587,1250432329.html</t>
+          <t>/news,300587,1251735921.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天铁股份11月23日被深股通减持26.35万股</t>
+          <t>天铁股份本周融资净买入5303.31万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-24 07:51</t>
+          <t>11-27 15:10</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300587,1250420308.html</t>
+          <t>/news,300587,1251591279.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计4172.27万元（11-22）</t>
+          <t>天铁股份本周深股通持股市值减少958.56万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-23 08:47</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300587,1249883621.html</t>
+          <t>/news,300587,1251583940.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天铁股份11月22日被深股通减持61.45万股</t>
+          <t>天铁股份11月25日被深股通减持22.53万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-23 07:56</t>
+          <t>11-26 07:55</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300587,1249876845.html</t>
+          <t>/news,300587,1251434713.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入742.86万元，融资余额3.36亿元（11-21）</t>
+          <t>天铁股份：连续5日融资净买入累计6439.99万元（11-24）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-25 08:56</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300587,1249356793.html</t>
+          <t>/news,300587,1250952488.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天铁股份11月21日获深股通增持19.59万股</t>
+          <t>天铁股份11月24日获深股通增持12.78万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-22 07:49</t>
+          <t>11-25 07:54</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300587,1249348156.html</t>
+          <t>/news,300587,1250944013.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
+          <t>天铁股份：连续4日融资净买入累计5640.49万元（11-23）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,51 +2205,51 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-21 08:53</t>
+          <t>11-24 09:03</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300587,1248873328.html</t>
+          <t>/news,300587,1250432329.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月23日被深股通减持26.35万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>11-24 07:51</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300587,1248768250.html</t>
+          <t>/news,300587,1250420308.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
+          <t>天铁股份：连续3日融资净买入累计4172.27万元（11-22）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-20 14:04</t>
+          <t>11-23 08:47</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300587,1248762611.html</t>
+          <t>/news,300587,1249883621.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天铁股份11月18日被深股通减持97.57万股</t>
+          <t>天铁股份11月22日被深股通减持61.45万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-19 07:49</t>
+          <t>11-23 07:56</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300587,1248638070.html</t>
+          <t>/news,300587,1249876845.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
+          <t>天铁股份：融资净买入742.86万元，融资余额3.36亿元（11-21）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-18 08:51</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300587,1248163248.html</t>
+          <t>/news,300587,1249356793.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天铁股份11月17日获深股通增持12.78万股</t>
+          <t>天铁股份11月21日获深股通增持19.59万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-18 08:00</t>
+          <t>11-22 07:49</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300587,1248155326.html</t>
+          <t>/news,300587,1249348156.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
+          <t>天铁股份：融资净买入1136.67万元，融资余额3.29亿元（11-18）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-21 08:53</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300587,1247677306.html</t>
+          <t>/news,300587,1248873328.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天铁股份11月16日获深股通增持3.97万股</t>
+          <t>天铁股份本周融资净偿还237.7万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-17 07:37</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300587,1247665362.html</t>
+          <t>/news,300587,1248768250.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,39 +2451,39 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
+          <t>天铁股份本周深股通持股市值增加849.59万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-20 14:04</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300587,1247183873.html</t>
+          <t>/news,300587,1248762611.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天铁股份11月15日被深股通减持47.76万股</t>
+          <t>天铁股份11月18日被深股通减持97.57万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,12 +2493,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-19 07:49</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300587,1247176104.html</t>
+          <t>/news,300587,1248638070.html</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
+          <t>天铁股份：融资净偿还206.89万元，融资余额3.17亿元（11-17）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-15 08:52</t>
+          <t>11-18 08:51</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300587,1246698742.html</t>
+          <t>/news,300587,1248163248.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天铁股份11月14日获深股通增持191.83万股</t>
+          <t>天铁股份11月17日获深股通增持12.78万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-15 07:49</t>
+          <t>11-18 08:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300587,1246689937.html</t>
+          <t>/news,300587,1248155326.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
+          <t>天铁股份：融资净买入478.54万元，融资余额3.19亿元（11-16）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300587,1246196638.html</t>
+          <t>/news,300587,1247677306.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
+          <t>天铁股份11月16日获深股通增持3.97万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-17 07:37</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300587,1246098593.html</t>
+          <t>/news,300587,1247665362.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,39 +2643,39 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
+          <t>天铁股份：融资净买入1088.09万元，融资余额3.14亿元（11-15）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天铁股份资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-13 14:03</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300587,1246092986.html</t>
+          <t>/news,300587,1247183873.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天铁股份11月11日获深股通增持37.92万股</t>
+          <t>天铁股份11月15日被深股通减持47.76万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-12 07:56</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300587,1245987709.html</t>
+          <t>/news,300587,1247176104.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
+          <t>天铁股份：融资净偿还1597.45万元，融资余额3.04亿元（11-14）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-11 08:55</t>
+          <t>11-15 08:52</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300587,1245425823.html</t>
+          <t>/news,300587,1246698742.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天铁股份11月10日被深股通减持153.54万股</t>
+          <t>天铁股份11月14日获深股通增持191.83万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-11 07:59</t>
+          <t>11-15 07:49</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300587,1245414654.html</t>
+          <t>/news,300587,1246689937.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1248</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
+          <t>天铁股份：连续6日融资净买入累计2.12亿元（11-11）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-10 20:19</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300587,1245310258.html</t>
+          <t>/news,300587,1246196638.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1638</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
+          <t>天铁股份本周融资净买入9772.34万元，居橡胶制品板块第一</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-10 16:37</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300587,1245255362.html</t>
+          <t>/news,300587,1246098593.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,39 +2835,39 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天铁股份：连续4日融资净买入累计1.65亿元（11-09）</t>
+          <t>天铁股份本周深股通持股市值增加572.42万元，居橡胶制品板块第二</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>天铁股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-13 14:03</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300587,1244900300.html</t>
+          <t>/news,300587,1246092986.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天铁股份11月09日被深股通减持39.12万股</t>
+          <t>天铁股份11月11日获深股通增持37.92万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-12 07:56</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300587,1244890086.html</t>
+          <t>/news,300587,1245987709.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天铁股份：连续3日融资净买入累计1.18亿元（11-08）</t>
+          <t>天铁股份：连续5日融资净买入累计1.96亿元（11-10）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-11 08:55</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300587,1244437480.html</t>
+          <t>/news,300587,1245425823.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天铁股份11月08日获深股通增持34.12万股</t>
+          <t>天铁股份11月10日被深股通减持153.54万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-11 07:59</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300587,1244425964.html</t>
+          <t>/news,300587,1245414654.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>1253</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天铁股份：融资净买入264.98万元，融资余额2.09亿元（11-07）</t>
+          <t>天铁股份监事翟小玉减持1万股 减持金额13.31万元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-08 08:51</t>
+          <t>11-10 20:19</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300587,1243983480.html</t>
+          <t>/news,300587,1245310258.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>1654</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天铁股份11月07日获深股通增持169.7万股</t>
+          <t>天铁股份：公司目前正在积极推进安徽天铁工程进度 计划于2023年开始逐渐投产</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-10 16:37</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300587,1243976306.html</t>
+          <t>/news,300587,1245255362.html</t>
         </is>
       </c>
     </row>
